--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.696</v>
+        <v>18.033</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3386993235.918</v>
+        <v>-0.256</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1550432.48</v>
+        <v>29.862</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.946</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.413</v>
+        <v>14.359</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1597995.344446068</v>
+        <v>19.56360713916638</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-271221.9879428399</v>
+        <v>19.62849706684563</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-38525.71314579169</v>
+        <v>19.67972781013958</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80435.38547150724</v>
+        <v>19.7003419545448</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-141415.8399113317</v>
+        <v>19.54000803361901</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>633568.5546116553</v>
+        <v>19.62894950164881</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2356963.082178925</v>
+        <v>19.58726713819556</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53975.19656049893</v>
+        <v>19.66708134891338</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1266218.325582053</v>
+        <v>19.75166125854618</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1236449.182189391</v>
+        <v>19.77161462220895</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-885283.8043891501</v>
+        <v>19.5828850407116</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>848134.0058836258</v>
+        <v>19.69235014521297</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-2773071.965226893</v>
+        <v>19.58703936863726</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-272574.8716866828</v>
+        <v>19.66717339069811</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1012214.371884041</v>
+        <v>19.75136444821752</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1120166.408301044</v>
+        <v>19.7714441674269</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1363533.780074873</v>
+        <v>19.58157650458529</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>354087.9123518829</v>
+        <v>19.6914620357052</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4249757.823543092</v>
+        <v>19.59087114116191</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1098989.666136223</v>
+        <v>19.65423209656367</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>701844.64558526</v>
+        <v>19.71072158908899</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1174292.201515587</v>
+        <v>19.73092277663865</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1594877.431404876</v>
+        <v>19.57771401669155</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>329838.9397191862</v>
+        <v>19.66455835538206</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>288973.1372376384</v>
+        <v>19.69439462335489</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>527089.1267316875</v>
+        <v>19.74016865367257</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-487487.9106761598</v>
+        <v>19.54549846181944</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>381321.0534088879</v>
+        <v>19.65276468737561</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>306955.5597496961</v>
+        <v>19.74984242096122</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>584394.1772462572</v>
+        <v>19.8030083961009</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1262238.608047161</v>
+        <v>19.80535909016182</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1589996.973241698</v>
+        <v>19.85216891215217</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-747361.4972028504</v>
+        <v>19.61078909058443</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1166025.25531314</v>
+        <v>19.74127689012731</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1712498.819330482</v>
+        <v>19.89710771400696</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1935570.668682704</v>
+        <v>19.95088451416074</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>928827.6743729578</v>
+        <v>19.80337573580633</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1530605.162240095</v>
+        <v>19.8500073489775</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1121249.779251804</v>
+        <v>19.6153456998335</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>979877.3261464747</v>
+        <v>19.74602519231901</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1585753.011970172</v>
+        <v>19.90189595148397</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1989176.856435518</v>
+        <v>19.9551163230352</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>740847.9018706009</v>
+        <v>19.73678720723301</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1728691.551054059</v>
+        <v>19.78055545354314</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1314106.473079819</v>
+        <v>19.60177785139525</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1276182.33724284</v>
+        <v>19.70581241144179</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1755283.071996613</v>
+        <v>19.81283933949785</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2500983.312664362</v>
+        <v>19.86295680222119</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1339592.9486892</v>
+        <v>19.58220545209699</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1707742.47845905</v>
+        <v>19.66404860718691</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1239605.335864472</v>
+        <v>19.73114293690417</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1451108.294361883</v>
+        <v>19.75243891630409</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-732090.2185836406</v>
+        <v>19.54749994415288</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>538085.437574815</v>
+        <v>19.65878869053764</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-1607341.321136756</v>
+        <v>19.60685333340093</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1754002.654489524</v>
+        <v>19.70646232941693</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1962113.05427499</v>
+        <v>19.81016517264963</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2001539.499069832</v>
+        <v>19.83026872273018</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-952186.5313187945</v>
+        <v>19.59113333273632</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>828758.4841394742</v>
+        <v>19.72677023937152</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1949118.59732263</v>
+        <v>19.60441529169317</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1498476.165404637</v>
+        <v>19.70415101561852</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1892078.857396716</v>
+        <v>19.80678674038455</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2005685.571857362</v>
+        <v>19.82702059482788</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1262433.723583677</v>
+        <v>19.58700156418956</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>502791.8359746843</v>
+        <v>19.72281901737002</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-3050894.313890496</v>
+        <v>19.60670207207875</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1700122.753370558</v>
+        <v>19.68598442681188</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2407448.490025104</v>
+        <v>19.75724541244062</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2856486.064443856</v>
+        <v>19.77812331396109</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1786636.403417822</v>
+        <v>19.58293731895363</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>304175.8631189144</v>
+        <v>19.69080686629425</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>566923.897173392</v>
+        <v>19.74090679507306</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>802045.3735813805</v>
+        <v>19.78832402000895</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-701586.3899514893</v>
+        <v>19.55708247575832</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>505742.8677101118</v>
+        <v>19.68979545584487</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>562242.1984581753</v>
+        <v>19.80761891708184</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>995801.7944690081</v>
+        <v>19.86356130380246</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1180157.956074936</v>
+        <v>19.86081515301902</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1396580.215372405</v>
+        <v>19.90861418119335</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-831723.0334152591</v>
+        <v>19.62614262290446</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1058726.976954855</v>
+        <v>19.78631250475007</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1371185.872036814</v>
+        <v>19.9685803958587</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1526647.61612046</v>
+        <v>20.02443062925482</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>971443.2773112921</v>
+        <v>19.85482677651626</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1352872.10343616</v>
+        <v>19.90244709243569</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1117929.044095031</v>
+        <v>19.62845514193892</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>919144.3766003362</v>
+        <v>19.78852568022107</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1277625.762679659</v>
+        <v>19.97001897807886</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1493543.577290079</v>
+        <v>20.02524661289853</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>859963.9130866156</v>
+        <v>19.77844522885432</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1555950.919122046</v>
+        <v>19.82381043109676</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-1536737.964363517</v>
+        <v>19.61301758179554</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>993277.0470237226</v>
+        <v>19.74095595255328</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1464538.118427232</v>
+        <v>19.86784314156006</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2048215.623529208</v>
+        <v>19.92050457441992</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1077495.156074114</v>
+        <v>19.57426877184106</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1294065.797537617</v>
+        <v>19.6552291297924</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1087197.486003837</v>
+        <v>19.72229082032204</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1192006.603823498</v>
+        <v>19.74292696697892</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-569349.2010730889</v>
+        <v>19.54520370459748</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>705391.2186623358</v>
+        <v>19.65545793475268</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1266148.328173368</v>
+        <v>19.59851011599201</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1602706.026440447</v>
+        <v>19.69718806596935</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1918203.085698782</v>
+        <v>19.80096518382276</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1894360.655844009</v>
+        <v>19.82034218853742</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-785115.9848115693</v>
+        <v>19.58898690277096</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1038717.095024498</v>
+        <v>19.7235394996546</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1580044.699081721</v>
+        <v>19.59640693303454</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1401643.281975464</v>
+        <v>19.69524959329653</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1857301.051060342</v>
+        <v>19.7979812952853</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1904353.199614073</v>
+        <v>19.81750654978796</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-1046460.857041984</v>
+        <v>19.58508057689606</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>793144.3443887277</v>
+        <v>19.71986113244525</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-2562902.861257721</v>
+        <v>19.59970796036021</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1475814.779076533</v>
+        <v>19.67822362585918</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2363105.97122201</v>
+        <v>19.74947623477199</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2672102.662292318</v>
+        <v>19.7697576621986</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-1439426.783218087</v>
+        <v>19.58110126169083</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>770870.6956789513</v>
+        <v>19.68807887731529</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>807847.4188654645</v>
+        <v>19.73962769961777</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>900817.4971553127</v>
+        <v>19.78611438794531</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-645087.3184430847</v>
+        <v>19.556314670247</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>610308.3491464598</v>
+        <v>19.68802607839417</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>749284.8479815422</v>
+        <v>19.80846271900748</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1048458.010474257</v>
+        <v>19.86341627070524</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1433421.969856677</v>
+        <v>19.85995269284019</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1523350.38878512</v>
+        <v>19.9067231785389</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-757500.9569133971</v>
+        <v>19.62576201482532</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1209702.560023941</v>
+        <v>19.78488553592553</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1576496.381600667</v>
+        <v>19.97016024304907</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1615999.519618485</v>
+        <v>20.02491978262117</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1278883.145400191</v>
+        <v>19.85421398658711</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1513905.3756286</v>
+        <v>19.90082944834816</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-1016108.55508666</v>
+        <v>19.62828167205773</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1131094.122141178</v>
+        <v>19.78735326129617</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1525114.257978449</v>
+        <v>19.97182106283228</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1607009.341577205</v>
+        <v>20.02598391507028</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1328678.425148451</v>
+        <v>19.77760975381682</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1786462.315134545</v>
+        <v>19.82213018428742</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1348333.352421995</v>
+        <v>19.61259197531658</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1355283.681330223</v>
+        <v>19.73967001513631</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1854964.377937766</v>
+        <v>19.86896458317513</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2213678.254061454</v>
+        <v>19.92072974321001</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1052977.874060465</v>
+        <v>19.54864180009382</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-186716.712740678</v>
+        <v>19.61243500302287</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>434878.4450646536</v>
+        <v>19.65834647926507</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>554376.2596888883</v>
+        <v>19.67887961824962</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-58867.95945619219</v>
+        <v>19.51837060943695</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>455400.5202907475</v>
+        <v>19.6057820200606</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1697459.850765201</v>
+        <v>19.57046919094352</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>233911.3641764037</v>
+        <v>19.6491943351776</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1578956.633887613</v>
+        <v>19.72798813328332</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1548544.947974795</v>
+        <v>19.7478109404986</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-612682.5100601214</v>
+        <v>19.55875925823116</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>802860.8177846236</v>
+        <v>19.66669842349424</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2019981.697859479</v>
+        <v>19.5706063427696</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-18923.66202212546</v>
+        <v>19.64971382068645</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1330966.996719903</v>
+        <v>19.72826933753571</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1415939.350129394</v>
+        <v>19.74822277244217</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-1021104.10516968</v>
+        <v>19.55793302071267</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>362819.7464608638</v>
+        <v>19.66637825016288</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-3272062.243534158</v>
+        <v>19.57752857948496</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-787253.8647390265</v>
+        <v>19.63997246899888</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1148933.591643295</v>
+        <v>19.69176993522233</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1579213.115564903</v>
+        <v>19.71190939088547</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1381492.066661876</v>
+        <v>19.55833680828333</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>131538.5285560998</v>
+        <v>19.64389751199847</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>74601.54517397685</v>
+        <v>19.66406093637663</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>335704.8481186263</v>
+        <v>19.70973846315876</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-445937.2582300501</v>
+        <v>19.52650175379671</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>140265.2878547855</v>
+        <v>19.63237886650641</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>150155.5610116778</v>
+        <v>19.72301213927862</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>484846.9790668045</v>
+        <v>19.7762450613625</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1114066.453300389</v>
+        <v>19.77195339759156</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1464078.437043206</v>
+        <v>19.81860523501803</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-520036.6355283379</v>
+        <v>19.58975220175251</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1023675.591709693</v>
+        <v>19.71887451594909</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1592441.990152056</v>
+        <v>19.86781906886257</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1896986.452798474</v>
+        <v>19.92160347987334</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>815466.179348608</v>
+        <v>19.77072460302792</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1409649.609383796</v>
+        <v>19.81720376066461</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-848602.395866991</v>
+        <v>19.5947598426988</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>838084.5151115392</v>
+        <v>19.72415750401336</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1467194.79555724</v>
+        <v>19.87332450967189</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1938769.340939118</v>
+        <v>19.92655112870474</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>428619.4269708274</v>
+        <v>19.7097796233154</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1365365.94597437</v>
+        <v>19.75347601791985</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1222566.42661101</v>
+        <v>19.58496704278484</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>865717.8759633387</v>
+        <v>19.68784979309851</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1442857.79503338</v>
+        <v>19.78924617122281</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2218783.966273376</v>
+        <v>19.83943513852619</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1260604.164922259</v>
+        <v>19.58212978730223</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1646603.147553031</v>
+        <v>19.65073904813129</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1431677.470835553</v>
+        <v>19.70872648605117</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1540223.091974762</v>
+        <v>19.72888710449059</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-244262.4146003129</v>
+        <v>19.5664107780916</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1174950.65106477</v>
+        <v>19.66006717469813</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1610107.51531356</v>
+        <v>19.60763250979996</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2227524.05368251</v>
+        <v>19.69146836870415</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2867243.29608753</v>
+        <v>19.78332793383374</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2802230.855662067</v>
+        <v>19.8027404186935</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-828438.4811992825</v>
+        <v>19.61156674266513</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1461163.598524404</v>
+        <v>19.72612485847462</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1813084.986644491</v>
+        <v>19.60731761231758</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2217265.66423325</v>
+        <v>19.6913611796627</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2883543.751530192</v>
+        <v>19.78275838466491</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2913590.413699164</v>
+        <v>19.80228511690306</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-1197731.312395771</v>
+        <v>19.60997415652682</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1138723.861680916</v>
+        <v>19.72481109769604</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2840327.198490029</v>
+        <v>19.6084702842373</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2606653.492221955</v>
+        <v>19.67516498318608</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3510409.578359054</v>
+        <v>19.73799281295097</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3825452.707903653</v>
+        <v>19.75773810741194</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-1518734.8387856</v>
+        <v>19.60238729417163</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1375691.248296263</v>
+        <v>19.69345655638058</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1160588.86819965</v>
+        <v>19.73608020320089</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1235065.6686243</v>
+        <v>19.78076117152875</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-527814.5603640114</v>
+        <v>19.56892802739607</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>686404.3716648966</v>
+        <v>19.68087036451131</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>831758.1746837049</v>
+        <v>19.78709902607945</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1075809.711883824</v>
+        <v>19.83939791227749</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2147433.65053624</v>
+        <v>19.85043058033887</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2251139.87834227</v>
+        <v>19.89597418220013</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-841901.9463983574</v>
+        <v>19.63584820631058</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1328193.767581304</v>
+        <v>19.77138032880148</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2039321.211522545</v>
+        <v>19.93683224934281</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>2182830.809862522</v>
+        <v>19.98958416411707</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1968144.92230981</v>
+        <v>19.84784362664383</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1172068.334460405</v>
+        <v>19.64014904694979</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1199512.622586705</v>
+        <v>19.7757295809801</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1965763.967747846</v>
+        <v>19.94106690803487</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2243157.476246193</v>
+        <v>19.99324615066185</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2135923.789149793</v>
+        <v>19.77544128769961</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2716734.98411375</v>
+        <v>19.81815153087271</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-1353483.749868616</v>
+        <v>19.62365043582188</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1726186.208665287</v>
+        <v>19.7318682040833</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2482840.491947466</v>
+        <v>19.84733879271101</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3030541.490370395</v>
+        <v>19.89659778842766</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-998725.2947985408</v>
+        <v>19.55915521875416</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>918742.761680201</v>
+        <v>19.6674565640437</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>690450.6457013296</v>
+        <v>19.75718675994464</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>729527.1292123647</v>
+        <v>19.78169197646808</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-405261.0079300621</v>
+        <v>19.53908178927288</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>637796.0264086617</v>
+        <v>19.68650122500298</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-1043026.736792233</v>
+        <v>19.59147013661121</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1004107.570088393</v>
+        <v>19.72251582082574</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1215558.543895831</v>
+        <v>19.85950836483287</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1149209.932607254</v>
+        <v>19.88227754519261</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-559390.1438212623</v>
+        <v>19.59773248886571</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>754599.5718970991</v>
+        <v>19.77633488529795</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1220949.459571652</v>
+        <v>19.58980988573796</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>908205.8199614333</v>
+        <v>19.72085640965272</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1260948.567205518</v>
+        <v>19.8567045697635</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1206770.82893285</v>
+        <v>19.87968841790715</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-716865.6488845863</v>
+        <v>19.59362714749773</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>637439.7365702938</v>
+        <v>19.77223808559813</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-1760266.300772306</v>
+        <v>19.59386454268707</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1326086.772841322</v>
+        <v>19.69839099976821</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1727430.349003325</v>
+        <v>19.793749134774</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1788331.250293304</v>
+        <v>19.81794092538599</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-962727.0729834387</v>
+        <v>19.58618269714052</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>784392.9156421951</v>
+        <v>19.72853135043561</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>585913.7838568223</v>
+        <v>19.80565444732057</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>657022.9379548162</v>
+        <v>19.86212106684532</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-373508.5831249133</v>
+        <v>19.54501610258135</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>461848.7111213164</v>
+        <v>19.71960325408647</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>455626.020460817</v>
+        <v>19.88206621446069</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>627681.2093129423</v>
+        <v>19.94920998371691</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>945311.4441321574</v>
+        <v>19.96308220957584</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>968336.3409085541</v>
+        <v>20.01968145649092</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-446829.6229401343</v>
+        <v>19.63462013985826</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>891986.8839870116</v>
+        <v>20.0898434746607</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>920663.3222140527</v>
+        <v>20.15650057940995</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>887647.4337891245</v>
+        <v>19.95640417086364</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>971250.6198129513</v>
+        <v>20.01284152727855</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-573932.5698811072</v>
+        <v>19.63877197130166</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>715979.3737087128</v>
+        <v>19.84812966490231</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>888980.1900423453</v>
+        <v>20.09268841314442</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>931431.2695730558</v>
+        <v>20.15862361702725</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>980916.7920691815</v>
+        <v>19.85419559366187</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1195019.361630092</v>
+        <v>19.9083633082894</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-739336.6940556426</v>
+        <v>19.61857160009728</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>993976.7694962166</v>
+        <v>19.78636136872455</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1162900.208179343</v>
+        <v>19.95996908518759</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1338831.776758061</v>
+        <v>20.02327192559376</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-743107.1801056815</v>
+        <v>19.50285455062893</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-294965.9151816068</v>
+        <v>19.5963490936932</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5457.732150323128</v>
+        <v>19.66778955440979</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40300.6494682383</v>
+        <v>19.69316496754989</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-256180.5207119684</v>
+        <v>19.46936939300573</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>193414.1572722454</v>
+        <v>19.59792372478763</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-1015943.614204507</v>
+        <v>19.52921403311308</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-269478.190182324</v>
+        <v>19.64424505525585</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>394378.9018160559</v>
+        <v>19.76144106878904</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>409193.6176503035</v>
+        <v>19.78533308849925</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-438286.3701875393</v>
+        <v>19.52164418378559</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>357377.9216423575</v>
+        <v>19.6798570233393</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-1308194.647666569</v>
+        <v>19.52764747345925</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-564575.2598714456</v>
+        <v>19.64313508164075</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>212147.4937913549</v>
+        <v>19.75927563172566</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>287993.8177530759</v>
+        <v>19.78343881808423</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-636666.9813846468</v>
+        <v>19.51792236536069</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>140464.2181565987</v>
+        <v>19.67672346691135</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-2068371.686868619</v>
+        <v>19.5399143848018</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-1032753.040577488</v>
+        <v>19.63119119526472</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>81069.15042724802</v>
+        <v>19.70913441839122</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>256074.7093677345</v>
+        <v>19.73425870233021</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-800471.7005350852</v>
+        <v>19.52018157628582</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>81513.16112855663</v>
+        <v>19.64565489127996</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>170885.0687281695</v>
+        <v>19.69036693916774</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>255352.4991705055</v>
+        <v>19.74967012943107</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-387234.2400254896</v>
+        <v>19.48639293431355</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>97148.46530016286</v>
+        <v>19.64226106815607</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>227085.4570972872</v>
+        <v>19.78297708456756</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>370541.6252103564</v>
+        <v>19.85213230432613</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>520413.8209754068</v>
+        <v>19.83803695022695</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>658911.1369793923</v>
+        <v>19.89800000488275</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-356726.8907300835</v>
+        <v>19.57189574298846</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>539798.6330787773</v>
+        <v>19.76139109574375</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>785397.7061117196</v>
+        <v>19.98417915185112</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>867825.7007159704</v>
+        <v>20.05332757856035</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>362285.7104579834</v>
+        <v>19.83263593528802</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>615995.5557228101</v>
+        <v>19.89247964998393</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-497135.7121784594</v>
+        <v>19.57630031508436</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>491556.718204865</v>
+        <v>19.76603166804999</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>744067.735129511</v>
+        <v>19.98808810722919</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>882898.5845156634</v>
+        <v>20.05659008206088</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>299689.0198492527</v>
+        <v>19.74635920645207</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>675342.6583537312</v>
+        <v>19.80330746060853</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-637499.2023792422</v>
+        <v>19.56294380801037</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>622766.4462028089</v>
+        <v>19.71401203895189</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>874160.2490103617</v>
+        <v>19.86724015281781</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1138129.819320203</v>
+        <v>19.93259761728615</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1579646.324455432</v>
+        <v>19.52429787312404</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-822393.7279067473</v>
+        <v>19.6013222942385</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-517892.39657043</v>
+        <v>19.65353235139159</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-348324.0677451415</v>
+        <v>19.67640183992012</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-647226.3437998454</v>
+        <v>19.48586357348715</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-400120.2161358401</v>
+        <v>19.59105922392805</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-2080244.887102995</v>
+        <v>19.54815126136815</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-560057.8652505168</v>
+        <v>19.64252991366092</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>304218.0131497431</v>
+        <v>19.73195034454854</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>336599.2218291886</v>
+        <v>19.75392572985727</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1266673.316137058</v>
+        <v>19.53014126154772</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-317869.5482025296</v>
+        <v>19.65916501185859</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-2394397.758456557</v>
+        <v>19.5488497579153</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-826095.532591951</v>
+        <v>19.64352316400197</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>79372.35757569487</v>
+        <v>19.73273684515341</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>195797.7366366933</v>
+        <v>19.75485331141887</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-1637427.386082876</v>
+        <v>19.52986444835348</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-714580.1198201264</v>
+        <v>19.65928358704577</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-3668917.9203676</v>
+        <v>19.5585886003164</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1611904.031713609</v>
+        <v>19.63360343445144</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-216070.2459956026</v>
+        <v>19.69261880033169</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>184269.2694588974</v>
+        <v>19.71504241227922</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2129120.53645674</v>
+        <v>19.53306659673435</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1136495.121351216</v>
+        <v>19.63554414664956</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-248070.1501295473</v>
+        <v>19.65782169772744</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-67980.72573896396</v>
+        <v>19.70870211319886</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-744410.1682290182</v>
+        <v>19.4893885396043</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-445535.5785548646</v>
+        <v>19.61567212789167</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-215025.0776121776</v>
+        <v>19.71705646055825</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>205732.4962073477</v>
+        <v>19.77687262170091</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>353450.209256146</v>
+        <v>19.77905623922377</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>570851.2153633068</v>
+        <v>19.83087564326559</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-999499.926439367</v>
+        <v>19.55879990310764</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>60593.28969765122</v>
+        <v>19.71200892790707</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>657041.7751104027</v>
+        <v>19.87908356816329</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1002012.917288974</v>
+        <v>19.9393890685021</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>78642.76204837832</v>
+        <v>19.77818664706705</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>471284.8377239858</v>
+        <v>19.82980730057263</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1288121.136392303</v>
+        <v>19.56527649174191</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-121843.384317141</v>
+        <v>19.71861453594928</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>508679.2354487745</v>
+        <v>19.88603400740246</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>976283.3119559691</v>
+        <v>19.94569108468592</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-272203.0344445782</v>
+        <v>19.71097330302915</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>366202.4734855691</v>
+        <v>19.75963751438929</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1647147.418468324</v>
+        <v>19.5580776290168</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-211079.0716951904</v>
+        <v>19.68033003561345</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>494811.8909771092</v>
+        <v>19.7941491777784</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1265687.298084869</v>
+        <v>19.85050171718293</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-1194310.745532391</v>
+        <v>19.59870297251531</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1293934.00164307</v>
+        <v>19.69978195487409</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1097554.370012618</v>
+        <v>19.79654308597447</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1203899.210779218</v>
+        <v>19.81925581617692</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-597648.4406405478</v>
+        <v>19.55924471848119</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>404149.3672254019</v>
+        <v>19.69670153613029</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-1239390.108884414</v>
+        <v>19.63133685407608</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1438389.988200379</v>
+        <v>19.75352173069152</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1821089.877163657</v>
+        <v>19.89536657276081</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1788968.022302495</v>
+        <v>19.91648027680353</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-761413.449893977</v>
+        <v>19.61428558644574</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>606259.041983534</v>
+        <v>19.78067005056273</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-1578392.389420626</v>
+        <v>19.62839214640231</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1229178.20370443</v>
+        <v>19.75054597686254</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1823905.302674743</v>
+        <v>19.89081396027348</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1810414.676160873</v>
+        <v>19.91213169357819</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-982460.4046460995</v>
+        <v>19.60969918261288</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>420533.3626241235</v>
+        <v>19.77605311446</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-2673549.084208887</v>
+        <v>19.62622269567236</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1306237.344144588</v>
+        <v>19.72370040598775</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>2209194.09397827</v>
+        <v>19.82391264846038</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>2355652.055327417</v>
+        <v>19.84633566773288</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1402601.269707762</v>
+        <v>19.60028817180406</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>360985.685316181</v>
+        <v>19.73292486371234</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>469632.0266557318</v>
+        <v>19.81486492315936</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>537168.2189150437</v>
+        <v>19.86693290437082</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-543351.7266839998</v>
+        <v>19.56501641945415</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>359555.6133196673</v>
+        <v>19.72784368596157</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>469106.1646225257</v>
+        <v>19.88715543582544</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>705366.9435675646</v>
+        <v>19.94867518296646</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>946161.2177035096</v>
+        <v>19.96225863393676</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>974189.7016899814</v>
+        <v>20.01443726412563</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-657158.0572426162</v>
+        <v>19.64872009420223</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>715548.0457468738</v>
+        <v>19.84414607641574</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1017670.07860208</v>
+        <v>20.081290165003</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1051236.84368732</v>
+        <v>20.14231480587611</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>839533.0657392738</v>
+        <v>19.95491146918317</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>955100.2213071857</v>
+        <v>20.00695677712138</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-852578.3793594196</v>
+        <v>19.6517761486473</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>665243.2428832395</v>
+        <v>19.84683743597172</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>989797.4250605057</v>
+        <v>20.08272371528838</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1039665.268555461</v>
+        <v>20.14310998634867</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>785378.9454457858</v>
+        <v>19.85592338291113</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1057717.000464413</v>
+        <v>19.90589423971457</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1148273.882907463</v>
+        <v>19.63047563879008</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>837916.6084524608</v>
+        <v>19.78686813763583</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1204330.684328544</v>
+        <v>19.95517651919495</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1444987.575753004</v>
+        <v>20.01321536223833</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-942714.8512254065</v>
+        <v>19.51285660225911</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-496162.7796416417</v>
+        <v>19.59021860513843</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-326874.3303275292</v>
+        <v>19.63593826643758</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-262888.6168528178</v>
+        <v>19.66120081276008</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-444613.2666383701</v>
+        <v>19.47645005313669</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-139461.0043357329</v>
+        <v>19.58256959322181</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-1264617.065477276</v>
+        <v>19.53481808372522</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-345443.2693569468</v>
+        <v>19.63050466359438</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>222644.4609630135</v>
+        <v>19.71369221830086</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>267254.7832027363</v>
+        <v>19.73804237200062</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-578492.3227615108</v>
+        <v>19.52024580998749</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>195021.3569452402</v>
+        <v>19.6515710375805</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1579651.068818624</v>
+        <v>19.53326809264507</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-727879.1189828139</v>
+        <v>19.62942428054513</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-49038.89956301192</v>
+        <v>19.71199958577077</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>125112.5018051112</v>
+        <v>19.73649835329327</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-884821.3842762363</v>
+        <v>19.51677283268737</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-197764.3776026898</v>
+        <v>19.64871363695438</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2339377.135378634</v>
+        <v>19.54422352956907</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1423509.302747609</v>
+        <v>19.61997281810278</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-426081.0639658113</v>
+        <v>19.67242807331648</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-6796.5852786884</v>
+        <v>19.69715463493614</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1267995.07911133</v>
+        <v>19.5195581932785</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-719039.3682232692</v>
+        <v>19.62345082939869</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-170576.9480842861</v>
+        <v>19.63956484645001</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-23892.75499861298</v>
+        <v>19.69541595366967</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-541230.419192501</v>
+        <v>19.48817907419556</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-239476.5005346526</v>
+        <v>19.61711107516851</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-86590.28568177993</v>
+        <v>19.71322375032301</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>197357.2969426241</v>
+        <v>19.77838438634614</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>341965.255500496</v>
+        <v>19.76250091509671</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>583021.8892943907</v>
+        <v>19.81945297243135</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-423106.0355096145</v>
+        <v>19.56053208001182</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>445954.011377185</v>
+        <v>19.71800647594985</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>703603.5143159999</v>
+        <v>19.88193419067598</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>923319.4755051066</v>
+        <v>19.94771744301943</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>52769.86379277675</v>
+        <v>19.75810965240006</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>486134.7676222924</v>
+        <v>19.81484859253542</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-645362.9217974282</v>
+        <v>19.56410760412184</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>262054.1843714422</v>
+        <v>19.7219073557839</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>557453.5969230537</v>
+        <v>19.88568654308739</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>906135.6284133766</v>
+        <v>19.95078387900782</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-341679.5166697818</v>
+        <v>19.68916663244154</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>329413.9453075685</v>
+        <v>19.74255653962542</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-952909.8041828582</v>
+        <v>19.55355671436865</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-14912.59154223653</v>
+        <v>19.67883952662993</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>357644.3386483881</v>
+        <v>19.78752218502886</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1003690.723375019</v>
+        <v>19.84890304251434</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-2050869.730396071</v>
+        <v>19.55983278201115</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-932636.6564659545</v>
+        <v>19.6419934619556</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-630251.3244173699</v>
+        <v>19.70387544364549</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-596556.6627384732</v>
+        <v>19.72546802006336</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-624821.8315299324</v>
+        <v>19.54603516165475</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>442893.6986746532</v>
+        <v>19.65800895690532</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-2156725.57972834</v>
+        <v>19.58376368687444</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-576076.0230944724</v>
+        <v>19.68409329606207</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38263.55708872384</v>
+        <v>19.78301672351782</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-13235.39289952133</v>
+        <v>19.80334683095746</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-810814.7579167216</v>
+        <v>19.59159967712889</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>710812.9363389236</v>
+        <v>19.72849611827903</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-2332237.730043625</v>
+        <v>19.58211871254416</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-713825.1951549657</v>
+        <v>19.68266102479853</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-26500.53740808485</v>
+        <v>19.78075643328236</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-14204.47009132338</v>
+        <v>19.80122723240622</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-997070.6734199136</v>
+        <v>19.58757053646635</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>537766.2899054151</v>
+        <v>19.72475692057203</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3251648.482888979</v>
+        <v>19.58777059794567</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1036608.982190777</v>
+        <v>19.66755873129829</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56579.96264769065</v>
+        <v>19.73463254987849</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>264988.1760841396</v>
+        <v>19.75582626150328</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1328294.999844834</v>
+        <v>19.58302218021421</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>527775.7481008477</v>
+        <v>19.69180628705822</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>515810.00065236</v>
+        <v>19.74161537795036</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>578814.412109123</v>
+        <v>19.79014856119191</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-566161.1683834955</v>
+        <v>19.55803749827225</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>465079.8363618967</v>
+        <v>19.69192322958261</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>515357.6108227525</v>
+        <v>19.81234220684248</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>730839.2187204823</v>
+        <v>19.8699051226025</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1024254.443643751</v>
+        <v>19.86546583744558</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1071947.176902858</v>
+        <v>19.91435968718721</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-609870.9429259615</v>
+        <v>19.63016330630881</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1002882.628298343</v>
+        <v>19.79215638925659</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1237107.047898811</v>
+        <v>19.97888010267415</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1254792.390324412</v>
+        <v>20.03633721300561</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>916944.1324168198</v>
+        <v>19.85971698382815</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1074867.485686956</v>
+        <v>19.9084286514355</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-775912.2720484489</v>
+        <v>19.63273425864927</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>974736.4234264632</v>
+        <v>19.79473236105303</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1220721.032083933</v>
+        <v>19.98075390502386</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1273589.313900784</v>
+        <v>20.03756477288395</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>969971.4355707202</v>
+        <v>19.78137869064766</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1304858.66649212</v>
+        <v>19.8278190465083</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1014045.437662574</v>
+        <v>19.61597967982979</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1213887.810790615</v>
+        <v>19.74529335267216</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1537412.627599016</v>
+        <v>19.87534661551566</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1793745.073599563</v>
+        <v>19.92952685837847</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1010620.78812498</v>
+        <v>19.5338432734107</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-99917.9965608249</v>
+        <v>19.6045201669153</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24133.02537525161</v>
+        <v>19.65180052489247</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>84445.73426752287</v>
+        <v>19.67203339380898</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-632760.3129600956</v>
+        <v>19.48830853170479</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-402033.3621365869</v>
+        <v>19.58497549775428</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-1260768.671647091</v>
+        <v>19.5519827967399</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47521.19140368708</v>
+        <v>19.63921250295691</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>606214.0743199423</v>
+        <v>19.72018690390859</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>652320.9136094429</v>
+        <v>19.73926181881857</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-919588.1760031373</v>
+        <v>19.52379589449403</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-214720.1718838012</v>
+        <v>19.64320016004902</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1501265.884451311</v>
+        <v>19.55044282831017</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-218749.3653043971</v>
+        <v>19.63808115893366</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>420121.730723287</v>
+        <v>19.71834975783068</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>570356.6291325679</v>
+        <v>19.73759070626498</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1178345.152867462</v>
+        <v>19.52084112186343</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-554877.848434494</v>
+        <v>19.64079053869207</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2816046.373670042</v>
+        <v>19.56137170748918</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1061990.426658801</v>
+        <v>19.63051839710576</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>104112.9077337433</v>
+        <v>19.68325837309415</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>465732.9875340418</v>
+        <v>19.70318802549908</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1606906.678594065</v>
+        <v>19.52754666417852</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1001302.463540036</v>
+        <v>19.62213392384585</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-349964.8040467348</v>
+        <v>19.64150756097284</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-155003.5286716874</v>
+        <v>19.68738039325466</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-565365.0152451404</v>
+        <v>19.50665389241498</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-36629.12708394496</v>
+        <v>19.6242356340897</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>40532.96139080797</v>
+        <v>19.71843700423565</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>317901.4683802063</v>
+        <v>19.77221957746744</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>120494.1174282402</v>
+        <v>19.7478828129392</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>420768.0534815472</v>
+        <v>19.79418153547729</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-588533.7390841346</v>
+        <v>19.56828423384189</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>521632.2968567712</v>
+        <v>19.71163706283024</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>876970.8596252539</v>
+        <v>19.86662982180764</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1021916.404681646</v>
+        <v>19.92034844893865</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-128786.9834109657</v>
+        <v>19.7439526962342</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>344152.1401500083</v>
+        <v>19.79012207407589</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-814400.2707818622</v>
+        <v>19.57139743173168</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>390237.9760267653</v>
+        <v>19.71502422387691</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>784270.1401909926</v>
+        <v>19.86966045313666</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1001487.757800285</v>
+        <v>19.9228308656798</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-495057.2333796262</v>
+        <v>19.68596765590398</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>174140.1976566376</v>
+        <v>19.7299486362266</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-1239112.74680821</v>
+        <v>19.5650926204781</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>284353.04490903</v>
+        <v>19.67927670784875</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>719781.1959934798</v>
+        <v>19.78399038614602</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1147729.063109852</v>
+        <v>19.83472722402158</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-1011228.048304899</v>
+        <v>19.49383571501218</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-988684.2392169574</v>
+        <v>19.56327246073857</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-767216.2768445835</v>
+        <v>19.59761419006842</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-824767.4552305563</v>
+        <v>19.61854612590512</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-538445.5438954629</v>
+        <v>19.44808935080442</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-582678.4571492701</v>
+        <v>19.54321589594265</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1215511.02531999</v>
+        <v>19.50848150696198</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-868915.4901508727</v>
+        <v>19.59468435443423</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-410604.3969293726</v>
+        <v>19.66207544499276</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-485732.4215142339</v>
+        <v>19.6818313883043</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-834217.0970106455</v>
+        <v>19.48055227122299</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-517168.1143215713</v>
+        <v>19.59872321203652</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1302995.97284432</v>
+        <v>19.50792689359293</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1045184.002849984</v>
+        <v>19.59465288122069</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-584996.6415327288</v>
+        <v>19.66171618723816</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-581296.663742291</v>
+        <v>19.68164152049323</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1020980.194458531</v>
+        <v>19.47842849326108</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-801278.6706661924</v>
+        <v>19.59729551092229</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2329638.648174716</v>
+        <v>19.52584686386948</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-1953941.211582648</v>
+        <v>19.5940609312365</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1029565.290510179</v>
+        <v>19.63546988539619</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-872904.4546892605</v>
+        <v>19.65608492357452</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1365778.872997924</v>
+        <v>19.49187474889588</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1241491.148121139</v>
+        <v>19.58532384756471</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-534308.870438206</v>
+        <v>19.58657590531597</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-519047.3368693539</v>
+        <v>19.63409140451847</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-403985.7649415238</v>
+        <v>19.46961587278463</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-204104.9830931298</v>
+        <v>19.58601779253829</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-128322.8036170482</v>
+        <v>19.66819932281627</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10674.98405348344</v>
+        <v>19.72421497838423</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-220786.316385939</v>
+        <v>19.68988911892592</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-123198.6633573149</v>
+        <v>19.7378824911653</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-434796.2391894097</v>
+        <v>19.52934269545052</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>212251.4616354933</v>
+        <v>19.67188320462577</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>536688.3471831965</v>
+        <v>19.8149131917565</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>586460.6634585834</v>
+        <v>19.87093828355263</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-431120.4223617125</v>
+        <v>19.68728968727313</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-205065.7196477472</v>
+        <v>19.73514286770621</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-585318.1643238346</v>
+        <v>19.5333923799849</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>101098.6983527521</v>
+        <v>19.67635509017658</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>459230.9225462209</v>
+        <v>19.81941069387767</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>568615.8515656091</v>
+        <v>19.87485532026983</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-772836.3705370389</v>
+        <v>19.63766768310396</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-430250.9098846803</v>
+        <v>19.68321120720656</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-897345.3465417858</v>
+        <v>19.53292329451779</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-28215.28183056507</v>
+        <v>19.64631280136847</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>382666.354681396</v>
+        <v>19.74078634203594</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>634236.6718479166</v>
+        <v>19.79360916328191</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-392988.7362781101</v>
+        <v>19.55119013724727</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>689825.7150542528</v>
+        <v>19.62511381774662</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>451450.5847000367</v>
+        <v>19.68318921215873</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>665087.4567400445</v>
+        <v>19.70659111512814</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-98211.88937015037</v>
+        <v>19.51226392763494</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>254619.3884712079</v>
+        <v>19.61350837641446</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-679883.9421119444</v>
+        <v>19.57820222928551</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1210335.790539597</v>
+        <v>19.66925426386529</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1764744.015378399</v>
+        <v>19.76552363124116</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1827064.571015129</v>
+        <v>19.78810056238696</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-594412.2809140093</v>
+        <v>19.56017452375638</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>481756.4337215308</v>
+        <v>19.68496198455669</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-882335.2977987167</v>
+        <v>19.57774888706797</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1063154.087198789</v>
+        <v>19.66919466393201</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1660881.016672075</v>
+        <v>19.76499950429189</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1835295.561265008</v>
+        <v>19.78772755175919</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-912083.0393267918</v>
+        <v>19.5587819927433</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>131133.9883917057</v>
+        <v>19.6840902597307</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2222850.929097864</v>
+        <v>19.58192084615865</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>193972.231959964</v>
+        <v>19.65416923468526</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>1102525.141345606</v>
+        <v>19.71823942957213</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1662564.735776544</v>
+        <v>19.74119345473714</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1204765.776389625</v>
+        <v>19.55608794758741</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-88454.87093752973</v>
+        <v>19.65504144643124</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-153986.1929089357</v>
+        <v>19.6843198306034</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-86657.73751527528</v>
+        <v>19.73614990286289</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-160034.1954835641</v>
+        <v>19.52123498875005</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>344503.3961316756</v>
+        <v>19.64366184162944</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>99287.90640115793</v>
+        <v>19.75152763248093</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>273166.9941967629</v>
+        <v>19.8118268318238</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>733561.2069424776</v>
+        <v>19.80996778943823</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>859383.1374631753</v>
+        <v>19.86286430627345</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-300479.1337839554</v>
+        <v>19.59525050755347</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1003384.534779199</v>
+        <v>19.74433419939857</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1317873.854171352</v>
+        <v>19.91935407080692</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1422537.732698368</v>
+        <v>19.98022413443101</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>511002.3305181328</v>
+        <v>19.80791562168407</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>839434.0948153926</v>
+        <v>19.86062684645737</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-555248.2517689774</v>
+        <v>19.60052254788464</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>880234.8529314515</v>
+        <v>19.74986162702779</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1247794.145415804</v>
+        <v>19.92498827308657</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1482230.923938962</v>
+        <v>19.98523760562241</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>78651.87155069306</v>
+        <v>19.73394082511861</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>684498.1643571736</v>
+        <v>19.78354161906266</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-783639.05119605</v>
+        <v>19.58614857061589</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>973754.5182682582</v>
+        <v>19.70497094309743</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1140422.045912396</v>
+        <v>19.82450087317628</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1641447.921307776</v>
+        <v>19.8813707485061</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-687942.6274776519</v>
+        <v>19.57954984557581</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1895812.57512146</v>
+        <v>19.6524928258576</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1643452.563403136</v>
+        <v>19.70977801404937</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1806407.981838675</v>
+        <v>19.731548934001</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-659844.9819193688</v>
+        <v>19.54663602397909</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>412010.6782969685</v>
+        <v>19.64601231152358</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-1122839.431214337</v>
+        <v>19.60244309968321</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1781676.439498645</v>
+        <v>19.69190994406897</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2110849.179162014</v>
+        <v>19.78333355535243</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2176163.320232776</v>
+        <v>19.8041626315544</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-864792.2985798619</v>
+        <v>19.58790209706077</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>696693.8697577196</v>
+        <v>19.70994293998753</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-1433934.400841388</v>
+        <v>19.5998769094272</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1500020.53042641</v>
+        <v>19.6896155794392</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1939855.312454208</v>
+        <v>19.78008232919114</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2131011.015261932</v>
+        <v>19.80101373724885</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1154717.349366058</v>
+        <v>19.58362365881199</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>353195.2464542352</v>
+        <v>19.70603413904623</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-2109882.50742096</v>
+        <v>19.60249951751041</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1853888.126072224</v>
+        <v>19.67352816700224</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2610570.267325721</v>
+        <v>19.73515236690867</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>3145054.157131859</v>
+        <v>19.75641503377651</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1592358.870818762</v>
+        <v>19.57977738776025</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>107957.3922913788</v>
+        <v>19.67658704266642</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>438048.4438693233</v>
+        <v>19.71515671743518</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>550801.3062116193</v>
+        <v>19.76280167244715</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-773816.5989523182</v>
+        <v>19.55529011433457</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>238799.0226409725</v>
+        <v>19.67475741939158</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>366221.8223391754</v>
+        <v>19.77757170080377</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>761177.5886723617</v>
+        <v>19.83345609611066</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1016317.934117066</v>
+        <v>19.82763241037847</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1179542.878446398</v>
+        <v>19.87596302988621</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-827620.0492228889</v>
+        <v>19.62105817875012</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>866155.4951074227</v>
+        <v>19.76611773249762</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1210764.533238224</v>
+        <v>19.92946991209327</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1383800.249526564</v>
+        <v>19.98561143772179</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>774961.6074922734</v>
+        <v>19.82188940771737</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1134766.474314538</v>
+        <v>19.87001260430058</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1107086.926873982</v>
+        <v>19.62296035797741</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>693344.9517218545</v>
+        <v>19.76813085406335</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1075921.957098386</v>
+        <v>19.93087093772582</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1348672.744070502</v>
+        <v>19.9863830622846</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>620170.5304816808</v>
+        <v>19.7515612219525</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1263479.820555737</v>
+        <v>19.79706569283484</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-1488676.12546165</v>
+        <v>19.60803507423173</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>643294.7963663902</v>
+        <v>19.72367573658637</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1135584.622195643</v>
+        <v>19.83573782664511</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1797189.711346467</v>
+        <v>19.88830693981203</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1548905.04006611</v>
+        <v>19.5957779986747</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2051607.743991938</v>
+        <v>19.66482915266867</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1491660.11460247</v>
+        <v>19.72637142602475</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1649606.032357917</v>
+        <v>19.74605954099393</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-541655.7298550737</v>
+        <v>19.56976658332661</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>874931.187363552</v>
+        <v>19.66389369258368</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-2205469.063406861</v>
+        <v>19.62161474111284</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2336149.60484768</v>
+        <v>19.70573362784335</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>3043017.63264357</v>
+        <v>19.80085775516731</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2933989.739903179</v>
+        <v>19.81978625423025</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1316623.128332528</v>
+        <v>19.61377457755904</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1075949.795129062</v>
+        <v>19.72857466095312</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-2657037.956741952</v>
+        <v>19.62077034903541</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2104837.363176454</v>
+        <v>19.70503210254683</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2986940.95721494</v>
+        <v>19.79952420190402</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2973640.430232582</v>
+        <v>19.81856355010817</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-1824093.068892478</v>
+        <v>19.61196278534287</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>606316.1715662125</v>
+        <v>19.72695772222322</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-4299388.226059052</v>
+        <v>19.61985452445008</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2096750.533949683</v>
+        <v>19.68682519978655</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3373722.23723769</v>
+        <v>19.75250278510337</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3770358.548458736</v>
+        <v>19.77178226167063</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-2317668.495505493</v>
+        <v>19.60427656561302</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>610582.9030032195</v>
+        <v>19.69560536418362</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>594528.8486169784</v>
+        <v>19.74019155237504</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>728651.3501405617</v>
+        <v>19.78365686971066</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-721660.7470840559</v>
+        <v>19.57221376739845</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>618280.6804744269</v>
+        <v>19.68438420943076</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>559402.0644732642</v>
+        <v>19.79058341952815</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>879530.8098055781</v>
+        <v>19.84136742006053</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1663973.97707238</v>
+        <v>19.85230855866709</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1799681.682487744</v>
+        <v>19.89655914546029</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-1173380.587186899</v>
+        <v>19.63748923753202</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1271385.028692953</v>
+        <v>19.77298038971671</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1916778.418268995</v>
+        <v>19.93733601112476</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>2044605.870493272</v>
+        <v>19.9884893599162</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1378870.171034963</v>
+        <v>19.84934326713636</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1759035.47063111</v>
+        <v>19.89341743406021</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-1612581.267065148</v>
+        <v>19.64144378278749</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1073067.705350197</v>
+        <v>19.77690130334609</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1795031.984671805</v>
+        <v>19.9410326335284</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2063955.150565232</v>
+        <v>19.9916335693101</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>1225410.590002821</v>
+        <v>19.77741209384067</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1992587.274689846</v>
+        <v>19.81896895230996</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-1965628.049135129</v>
+        <v>19.62505835693216</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1430783.275879413</v>
+        <v>19.73330499219957</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2080737.122456407</v>
+        <v>19.84817528456086</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>2740561.14744018</v>
+        <v>19.89601458882178</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1684509.953784808</v>
+        <v>19.60526076402528</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3537208.20370028</v>
+        <v>19.65367559917794</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3379316.930206504</v>
+        <v>19.69581777973266</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3427583.294387875</v>
+        <v>19.71072813472516</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-94936.95481738896</v>
+        <v>19.59027632559513</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1856758.125756303</v>
+        <v>19.65641347444671</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-2886807.913819387</v>
+        <v>19.62408964561637</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4100478.226922216</v>
+        <v>19.68344353327444</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>5716906.021610623</v>
+        <v>19.75027800538941</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>5437568.173863431</v>
+        <v>19.76468348381442</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1473135.727405319</v>
+        <v>19.62313077637334</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2091117.675379426</v>
+        <v>19.70428857067014</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-3085189.729869726</v>
+        <v>19.62369917407545</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4313695.975562083</v>
+        <v>19.68324997876332</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>5861220.105132723</v>
+        <v>19.74973743982459</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>5749062.036649296</v>
+        <v>19.76422760863554</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2096832.041855822</v>
+        <v>19.62193920119467</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1541563.272615764</v>
+        <v>19.70336034784209</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-4878821.600774486</v>
+        <v>19.62387001679179</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5063440.9768049</v>
+        <v>19.67104668067699</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>7224222.199731092</v>
+        <v>19.7166700453708</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7570864.404349055</v>
+        <v>19.73127160965829</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-2509269.613841336</v>
+        <v>19.61630807602343</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1983733.2346625</v>
+        <v>19.6807685582362</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1288092.344124028</v>
+        <v>19.70993517110882</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1485083.808207121</v>
+        <v>19.74293564743618</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-720517.2026821781</v>
+        <v>19.59284684051785</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1145757.603923426</v>
+        <v>19.67224048459217</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1207777.696990903</v>
+        <v>19.74822262023208</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1504483.009402901</v>
+        <v>19.7865861332542</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2994818.880866887</v>
+        <v>19.79287312387414</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3287986.434823734</v>
+        <v>19.8265747875014</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1379910.188636796</v>
+        <v>19.6416845293262</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2245228.886344087</v>
+        <v>19.73805042244373</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3506008.856286413</v>
+        <v>19.85712778437942</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3664760.771729839</v>
+        <v>19.89587911683008</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2669725.192606198</v>
+        <v>19.79106721980435</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>3364605.511865747</v>
+        <v>19.82463276712451</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1916112.458887919</v>
+        <v>19.64477072489274</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2080230.164507144</v>
+        <v>19.74123400144374</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>3424323.502500088</v>
+        <v>19.86026626685097</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3840267.659627845</v>
+        <v>19.89860672587062</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2759776.831415373</v>
+        <v>19.73878881918712</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3969567.068403851</v>
+        <v>19.77033341471768</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-2301288.597484507</v>
+        <v>19.63245673297919</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>2843755.890593674</v>
+        <v>19.709351419971</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>4105035.02629116</v>
+        <v>19.79216650409722</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4990554.43360789</v>
+        <v>19.82831830370229</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1427991.897963655</v>
+        <v>19.57748345684093</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1200932.453459362</v>
+        <v>19.64808658305043</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>816324.7531533829</v>
+        <v>19.70217037627632</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>1123911.716426092</v>
+        <v>19.72273847545969</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-870338.3524193383</v>
+        <v>19.54553815982256</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>394205.698336303</v>
+        <v>19.64174401039421</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1742690.474177326</v>
+        <v>19.6013101360667</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1895403.589590556</v>
+        <v>19.68759011002651</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2306600.462767594</v>
+        <v>19.77471487896043</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2382127.152855836</v>
+        <v>19.79443972816419</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1233021.510038114</v>
+        <v>19.58728679724904</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>925734.2664670249</v>
+        <v>19.70499594023793</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-2181336.225633811</v>
+        <v>19.59995259757427</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1559590.427302027</v>
+        <v>19.68641945866191</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2181661.786996897</v>
+        <v>19.77288098173127</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>2408229.860702288</v>
+        <v>19.79270871916135</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-1657741.581472785</v>
+        <v>19.58467950215721</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>483915.0780974765</v>
+        <v>19.70264276155515</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-3442866.908822658</v>
+        <v>19.60151652539336</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1091315.920061735</v>
+        <v>19.67008969528029</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>2203401.983571364</v>
+        <v>19.72871089788419</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>3034524.752160867</v>
+        <v>19.7488172519293</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-2314348.264769296</v>
+        <v>19.57989315605462</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-29796.9412721605</v>
+        <v>19.67337141538745</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>272477.2140264836</v>
+        <v>19.707453906075</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>303010.3893544162</v>
+        <v>19.75225831210555</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-912530.3365558808</v>
+        <v>19.54925017211044</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>153875.5896841216</v>
+        <v>19.66418956199043</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>245228.543314954</v>
+        <v>19.7602328375321</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>597426.753820245</v>
+        <v>19.81295804581455</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1276563.966551032</v>
+        <v>19.8175364749614</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>1306641.387724567</v>
+        <v>19.86303368206356</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-1025979.68935747</v>
+        <v>19.61348036176726</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1137983.879943677</v>
+        <v>19.75266701327675</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1546303.468008399</v>
+        <v>19.90665002640871</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1626196.949872829</v>
+        <v>19.95967932372981</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>995043.9193763766</v>
+        <v>19.81377047191085</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1264165.865911543</v>
+        <v>19.85908574412571</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1418813.216123371</v>
+        <v>19.61681230753323</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>914607.3138547525</v>
+        <v>19.75601406582822</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1386971.100795242</v>
+        <v>19.90976851221815</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1604439.839171253</v>
+        <v>19.96221617569449</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>568695.1404156779</v>
+        <v>19.74513585486354</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1225690.355412065</v>
+        <v>19.7879638899252</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-2033873.814439098</v>
+        <v>19.6024223227732</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>577403.5914879016</v>
+        <v>19.71346341820705</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1192406.623518145</v>
+        <v>19.81888386946104</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1912116.194768055</v>
+        <v>19.8685180401583</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-992468.3038057666</v>
+        <v>19.55130307292698</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-401194.3070135798</v>
+        <v>19.6148264964326</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-110146.5457953778</v>
+        <v>19.6609109473481</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>81139.61698122867</v>
+        <v>19.68036313888274</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-551903.1408332136</v>
+        <v>19.52486492279577</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>125193.8979430494</v>
+        <v>19.61222549277293</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-1539926.589071678</v>
+        <v>19.5722318991002</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-53408.50505269778</v>
+        <v>19.65049692631581</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>897649.9301883824</v>
+        <v>19.72857264512178</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>976000.34676559</v>
+        <v>19.7472669941708</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-897459.035714381</v>
+        <v>19.56445292282422</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>624727.2727588055</v>
+        <v>19.67211534672378</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-1978723.127835111</v>
+        <v>19.57190731457984</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-505412.180849624</v>
+        <v>19.6505048217409</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>537805.4405210059</v>
+        <v>19.72815919520474</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>780033.6048657208</v>
+        <v>19.74700879797207</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-1390127.281673188</v>
+        <v>19.56303249815756</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>67317.86781521201</v>
+        <v>19.67112477882204</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-2995162.643266943</v>
+        <v>19.57878694946494</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-1238818.995617762</v>
+        <v>19.64085672369577</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>385963.8881005952</v>
+        <v>19.69230383463288</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1091956.491513155</v>
+        <v>19.71144943079823</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1586754.073631923</v>
+        <v>19.56281569319123</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-94360.10177526833</v>
+        <v>19.64815335046208</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-74529.93508194678</v>
+        <v>19.67108532637566</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>130552.8230122433</v>
+        <v>19.71495400871789</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-688913.0062490647</v>
+        <v>19.52788342007092</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-18871.14487273987</v>
+        <v>19.63352583297416</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-128444.1141999734</v>
+        <v>19.72238622210255</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>198717.21009994</v>
+        <v>19.77356038841135</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>914826.4350957418</v>
+        <v>19.77684683998272</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>1210524.380432301</v>
+        <v>19.82158488627651</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-531033.3633809939</v>
+        <v>19.58976237053735</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1138676.670787808</v>
+        <v>19.71839167094787</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1395953.789955443</v>
+        <v>19.86416056171876</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1621857.809161908</v>
+        <v>19.91578537790962</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>512184.363041944</v>
+        <v>19.77472878906154</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1093940.560957734</v>
+        <v>19.81933727712093</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-933181.1105888588</v>
+        <v>19.59418264296099</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>879059.1795242896</v>
+        <v>19.72301269325427</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1180411.469054531</v>
+        <v>19.86880210977853</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1595257.381723816</v>
+        <v>19.91992318018636</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>250232.9663437996</v>
+        <v>19.71394067468825</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1286068.240098181</v>
+        <v>19.75598144819809</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-1425016.990756297</v>
+        <v>19.58434845144972</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>606851.7858555054</v>
+        <v>19.68683399143062</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>839202.0974543797</v>
+        <v>19.78584626340674</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1748675.790262419</v>
+        <v>19.83415927425577</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-3537505.851830952</v>
+        <v>19.59312994924759</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-106287.7656404201</v>
+        <v>19.64026015593068</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>643023.8865479475</v>
+        <v>19.6782945024361</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>908467.6664496278</v>
+        <v>19.69341762060646</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-1049715.297402791</v>
+        <v>19.57421995767945</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>136758.5740984951</v>
+        <v>19.63869272949337</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-4192084.179130904</v>
+        <v>19.61082392138439</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1250828.40578771</v>
+        <v>19.6687535496712</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>3385800.469795906</v>
+        <v>19.73103004825448</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>3381899.646683591</v>
+        <v>19.745696208424</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-2237733.874865283</v>
+        <v>19.60559553099207</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>679087.3015345249</v>
+        <v>19.68490655952903</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-4231849.644839051</v>
+        <v>19.61075541027137</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1553765.164332722</v>
+        <v>19.66891253995227</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>3476080.837775358</v>
+        <v>19.73094195555458</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>3688969.582303758</v>
+        <v>19.74569030326189</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-2855020.910219643</v>
+        <v>19.60485104469939</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>95422.93936088932</v>
+        <v>19.68446437803682</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-6748329.124014436</v>
+        <v>19.6128105751918</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>766385.1890408859</v>
+        <v>19.65881737278167</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>3639253.050605315</v>
+        <v>19.70067585338385</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>4424305.297559218</v>
+        <v>19.71547527673361</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-3571124.736915271</v>
+        <v>19.60171258085759</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-148568.192702944</v>
+        <v>19.66465608834478</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-231148.526077161</v>
+        <v>19.68648853477545</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>391275.8249786886</v>
+        <v>19.71987614757166</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1891565.166740195</v>
+        <v>19.57692077640347</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-599567.097440804</v>
+        <v>19.65457065005555</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-319353.4568906612</v>
+        <v>19.72480082779279</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>271529.0575480316</v>
+        <v>19.76352262514674</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1616134.372998235</v>
+        <v>19.76715102764353</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>2375133.839908571</v>
+        <v>19.80131545012895</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-2157623.580843892</v>
+        <v>19.62429853405257</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1004360.120940092</v>
+        <v>19.71872845961166</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2332053.065555602</v>
+        <v>19.83143484934098</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>2826419.12009453</v>
+        <v>19.87062373218231</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1215564.927880944</v>
+        <v>19.76598022993126</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>2431923.934479693</v>
+        <v>19.800002594033</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-2666124.27258079</v>
+        <v>19.62781776813153</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>850025.5701477792</v>
+        <v>19.72238580038015</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>2222253.568135282</v>
+        <v>19.83519289074512</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3019773.159944128</v>
+        <v>19.87396692163859</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>751402.0820868685</v>
+        <v>19.71745212127642</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2665942.460810794</v>
+        <v>19.74935429519223</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-3560958.224492918</v>
+        <v>19.61793163514881</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>802610.1126703067</v>
+        <v>19.69323674574655</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2189308.06292336</v>
+        <v>19.77078796483341</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3598423.147838322</v>
+        <v>19.8072735034601</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-1293404.040224934</v>
+        <v>19.5983937460267</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1834329.1756281</v>
+        <v>19.67266255460411</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1769636.090377803</v>
+        <v>19.74210116121898</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>1932976.403575364</v>
+        <v>19.7611979758299</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-539155.9182258178</v>
+        <v>19.56921973106025</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>686904.0087800283</v>
+        <v>19.67057934556109</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-1765626.447542886</v>
+        <v>19.62444366032112</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1777223.909025688</v>
+        <v>19.71509282622546</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2630653.814488109</v>
+        <v>19.82052991808256</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2579146.190280833</v>
+        <v>19.8385047591652</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-947303.2463909407</v>
+        <v>19.61422239848875</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>866702.9422925694</v>
+        <v>19.73806661979025</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-2057827.727185154</v>
+        <v>19.62249058319282</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1663492.197702446</v>
+        <v>19.71333835704075</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2681331.141504219</v>
+        <v>19.81778293299756</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>2685293.56997668</v>
+        <v>19.83594175251862</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1214720.266513098</v>
+        <v>19.61103647489905</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>640420.318696318</v>
+        <v>19.73514706760358</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-3472442.023146208</v>
+        <v>19.62194336434976</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1845341.103136613</v>
+        <v>19.69407096483488</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>3399219.801901883</v>
+        <v>19.76723321325068</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>3629582.338840628</v>
+        <v>19.78610451664641</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-1618767.105940487</v>
+        <v>19.6038414486872</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>783803.8831293755</v>
+        <v>19.70230989664019</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>676561.039008085</v>
+        <v>19.75571947702373</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>712555.5932625664</v>
+        <v>19.799619060098</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-734352.8179015026</v>
+        <v>19.57241225528099</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>387688.4893234384</v>
+        <v>19.69389988662396</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>558336.0909228943</v>
+        <v>19.81209365389106</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>847168.7948378101</v>
+        <v>19.86329726786878</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1388723.716576253</v>
+        <v>19.8740768149245</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1416170.237810187</v>
+        <v>19.9183986982778</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-874728.264157955</v>
+        <v>19.64086402722244</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>996799.4993756234</v>
+        <v>19.78776864630026</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1571852.405588456</v>
+        <v>19.9686223157395</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>1630112.16719002</v>
+        <v>20.0197367438571</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>1264239.693297332</v>
+        <v>19.86933148290585</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1446988.531739882</v>
+        <v>19.91355483662945</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-1109281.092940857</v>
+        <v>19.64395620163031</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>965517.186860697</v>
+        <v>19.79086726783103</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1557240.872950736</v>
+        <v>19.97110780324853</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1682725.775915167</v>
+        <v>20.0217338804822</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>1353190.211435014</v>
+        <v>19.79258887819255</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>1718051.531186784</v>
+        <v>19.83473547427343</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-1529679.140401242</v>
+        <v>19.62699545061353</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>1183371.200708337</v>
+        <v>19.74432343136706</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1772186.222620759</v>
+        <v>19.87105851557338</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>2180713.215803411</v>
+        <v>19.91944605911394</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-1845331.837068256</v>
+        <v>19.57756835627752</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>568430.4617785538</v>
+        <v>19.65038724861497</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>607020.4694174245</v>
+        <v>19.70684792019699</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>815149.6771101671</v>
+        <v>19.72772427592458</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-772223.0986846673</v>
+        <v>19.54463491142545</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>391285.4635134714</v>
+        <v>19.64380505186601</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-1842224.639858515</v>
+        <v>19.60242745892692</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1694638.36242716</v>
+        <v>19.69129260625617</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>2201196.86799967</v>
+        <v>19.78168094137235</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>2173994.273575305</v>
+        <v>19.80170704401134</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-1191279.893800935</v>
+        <v>19.58782378893085</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>882120.5194938952</v>
+        <v>19.70900007618945</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-2171067.896502751</v>
+        <v>19.601235324415</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1509974.232389963</v>
+        <v>19.69026493328489</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>2147400.493798855</v>
+        <v>19.7799988387967</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>2251279.047986746</v>
+        <v>19.80013475020894</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-1602248.881546657</v>
+        <v>19.585449650568</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>468906.7715570334</v>
+        <v>19.70685131087291</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-3520002.326718293</v>
+        <v>19.60247909318693</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>883746.4193254454</v>
+        <v>19.67313898477504</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>2238745.924687027</v>
+        <v>19.73423016162257</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>2855261.622382182</v>
+        <v>19.75465109585786</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-2125322.89674762</v>
+        <v>19.5802779777127</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>69861.81314916431</v>
+        <v>19.67655054078119</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>339460.7427472837</v>
+        <v>19.71217827847025</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>433577.7626373403</v>
+        <v>19.75787075952036</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-906194.6351799249</v>
+        <v>19.54545104000247</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>50166.86367840117</v>
+        <v>19.66366717822359</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>159837.9455327448</v>
+        <v>19.76215123237485</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>519255.6450688444</v>
+        <v>19.8159383026792</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1237720.73622129</v>
+        <v>19.82538368413644</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>1305047.547746337</v>
+        <v>19.87180446863824</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-1004739.59720152</v>
+        <v>19.61126011436035</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1051240.913416648</v>
+        <v>19.75427598036453</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1404688.64888421</v>
+        <v>19.91201514773939</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>1506126.294672322</v>
+        <v>19.96613602774401</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>965184.6961254721</v>
+        <v>19.82183585478733</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1260012.433864248</v>
+        <v>19.86807291014686</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-1380487.827889187</v>
+        <v>19.61501615997895</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>844384.7191319069</v>
+        <v>19.75801512231198</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1246118.699351592</v>
+        <v>19.91558140371799</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1484309.056151333</v>
+        <v>19.96911155093204</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>684955.031841948</v>
+        <v>19.75113914998394</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>1382242.030398621</v>
+        <v>19.79482256506583</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-1989885.790289052</v>
+        <v>19.60054280989683</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>454713.5711375735</v>
+        <v>19.7146724658974</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>1041574.600071508</v>
+        <v>19.8228276134459</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1781672.141028048</v>
+        <v>19.87347076954196</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.696</v>
+        <v>16.725</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.98</v>
+        <v>15.554</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.946</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.413</v>
+        <v>4.394</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.33645100726376</v>
+        <v>9.802784560200909</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.67948682003312</v>
+        <v>16.537471385779</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.64477802379601</v>
+        <v>15.95976851078756</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.36719067112061</v>
+        <v>16.4931579852173</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.92633859954461</v>
+        <v>19.77265410033358</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.40041234116872</v>
+        <v>28.0169670383993</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-7.222027017174593</v>
+        <v>7.34944383473189</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.78488402404877</v>
+        <v>18.9534586848007</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.46033919401832</v>
+        <v>27.43513609453516</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.9605624885394</v>
+        <v>26.73825074887285</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.680024996040974</v>
+        <v>15.12719296876799</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.03164527789905</v>
+        <v>35.80697422413947</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-10.27094388660777</v>
+        <v>5.426643590727402</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.40389092460059</v>
+        <v>17.26926162077188</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.37817113081703</v>
+        <v>23.48501725149812</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.10329043667545</v>
+        <v>24.7553612520664</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-6.020999233826618</v>
+        <v>9.963957145245754</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.49298535761351</v>
+        <v>27.99736309279301</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-13.08219905827944</v>
+        <v>2.857570153171604</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.11241804682343</v>
+        <v>15.46870927443604</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.24379942650075</v>
+        <v>21.16253447266669</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.65671631205277</v>
+        <v>23.0937731361406</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-2.111044386517221</v>
+        <v>12.18832146824069</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.40371316655868</v>
+        <v>27.24691292977284</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.44141189021826</v>
+        <v>25.87488951953249</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.40641811238052</v>
+        <v>29.02047250579153</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.276324921767944</v>
+        <v>17.87839093394892</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.18472566318827</v>
+        <v>27.97970067539956</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.94984410823265</v>
+        <v>25.95080203557136</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.85619587910151</v>
+        <v>28.39309635774196</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>54.86643583542654</v>
+        <v>47.1480312032527</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>64.38679995492619</v>
+        <v>52.65082233140324</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.334892281242306</v>
+        <v>20.66763087656277</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.95886805526672</v>
+        <v>48.58439519590144</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>74.78928022599274</v>
+        <v>61.15470365978238</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>82.160365265122</v>
+        <v>62.84656225591496</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.88343941495001</v>
+        <v>35.81843593598003</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.5219457104569</v>
+        <v>46.0389616017914</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.457559807347334</v>
+        <v>16.1234568754207</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.00543409774564</v>
+        <v>43.13970288018175</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68.07933206503752</v>
+        <v>52.92496623842715</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>80.76831583224644</v>
+        <v>58.32895165426918</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.88826275006309</v>
+        <v>28.65691342441558</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>52.47021856987351</v>
+        <v>40.06497436778499</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.8379142061442231</v>
+        <v>17.37661428406571</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.69358660667707</v>
+        <v>41.52609633212182</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>57.78481628381297</v>
+        <v>48.9407094070172</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>74.60067373791227</v>
+        <v>56.57483240405234</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.844742907967035</v>
+        <v>13.94036376770778</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>39.05601188600072</v>
+        <v>38.51848379772063</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>41.76083934047529</v>
+        <v>33.85676881141389</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>45.78039140781101</v>
+        <v>36.62084068003652</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.735361493993985</v>
+        <v>14.59682899233841</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.57076359502003</v>
+        <v>31.64740871680648</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-4.55570754324685</v>
+        <v>12.96902569831343</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.03745995316</v>
+        <v>42.0270531431582</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.44015486164987</v>
+        <v>46.89247868345488</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>62.30896776350508</v>
+        <v>46.45600333566755</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-5.123787593421987</v>
+        <v>14.60141761611372</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.50491174311124</v>
+        <v>42.94331310253639</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-8.066700592395673</v>
+        <v>11.26631661655339</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.39835796918452</v>
+        <v>39.94169345048401</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>57.8902175440283</v>
+        <v>45.86462858143406</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>60.27320232504965</v>
+        <v>45.62538332241796</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-11.23562230499675</v>
+        <v>12.0221783569596</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.92676796645118</v>
+        <v>36.6888723993123</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-11.27728904749117</v>
+        <v>8.996736440669093</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.63049425713032</v>
+        <v>38.3025748990499</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>54.40717138925189</v>
+        <v>42.94384660699802</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>61.16005722817262</v>
+        <v>45.9864897728085</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-11.66682368125425</v>
+        <v>12.63836324960024</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.28781957423227</v>
+        <v>32.40010348075306</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>36.84354366977887</v>
+        <v>28.92252202311852</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.57468503438437</v>
+        <v>31.29383369691092</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.340282697523879</v>
+        <v>15.17437162024199</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.35757784309847</v>
+        <v>33.98666136190572</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.23324910138466</v>
+        <v>32.77544060111832</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>55.45086450260895</v>
+        <v>39.0949855512864</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>63.19763283406259</v>
+        <v>47.4419717276066</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>71.44909044815839</v>
+        <v>50.71402391523833</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-4.976268694133672</v>
+        <v>15.66094997621068</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>47.70713579345389</v>
+        <v>51.84403124471058</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>77.67397729623841</v>
+        <v>57.93642544792311</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>84.41675996767235</v>
+        <v>59.42268325947294</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>53.45751939227894</v>
+        <v>40.8519146217022</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>67.30022179282074</v>
+        <v>47.59382421837665</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-11.45287935663239</v>
+        <v>12.93897238736517</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42.58445792313387</v>
+        <v>47.89518127623015</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.94911361129871</v>
+        <v>52.86316656563919</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>79.86332085256531</v>
+        <v>56.11411570736222</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40.57809543714046</v>
+        <v>33.16005664324344</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>58.68724094351413</v>
+        <v>42.06888337399566</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-11.02398043763872</v>
+        <v>13.81328685023462</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.09316030690152</v>
+        <v>43.32785736622485</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>61.55183777489081</v>
+        <v>49.21295052202985</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>78.82837349724461</v>
+        <v>55.95652817250949</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.04524107848669</v>
+        <v>14.66853149721298</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.00457117272392</v>
+        <v>35.56664519944692</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.86437258493828</v>
+        <v>33.61604474873914</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40.85623931437135</v>
+        <v>33.90911841440439</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6.173642350702313</v>
+        <v>15.65097794849161</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.10548565298195</v>
+        <v>34.52185394035632</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.2752337053895637</v>
+        <v>15.84127046518077</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.89525558115972</v>
+        <v>43.97253738454997</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>60.47254169192145</v>
+        <v>52.1104916615832</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>59.94714279335858</v>
+        <v>50.22197628435913</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-1.03097699102408</v>
+        <v>15.69716622116448</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.64837267419537</v>
+        <v>45.51747984537317</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-3.092496407867767</v>
+        <v>12.59199418237112</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>37.09328996993371</v>
+        <v>41.60668758001647</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>57.1607273584311</v>
+        <v>47.71201477994257</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>58.14768094167977</v>
+        <v>46.46760526664393</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-6.199461700764346</v>
+        <v>13.7555642299092</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.6973493252563</v>
+        <v>41.43440584248421</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-6.56196061469165</v>
+        <v>11.97534504243863</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.46306742375875</v>
+        <v>41.99997982422826</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.74032303547096</v>
+        <v>46.9816043644018</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.38719336052695</v>
+        <v>47.63789094263233</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-5.862099554081102</v>
+        <v>13.59468886423873</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.09012284287397</v>
+        <v>38.99364002534785</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>44.76546485160971</v>
+        <v>35.52290343262489</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>47.82245832118979</v>
+        <v>36.38483089815985</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2.698197469328775</v>
+        <v>16.99358233080871</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.87073439722206</v>
+        <v>35.03696616708413</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.22971690305805</v>
+        <v>38.23072784910367</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>57.4205089702066</v>
+        <v>43.29421044657964</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>72.85374344708305</v>
+        <v>56.03624613885682</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.28241358249213</v>
+        <v>57.46457912729019</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-2.907834375951751</v>
+        <v>18.30589482509389</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.91455078297842</v>
+        <v>53.31272224950705</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.57883137664622</v>
+        <v>67.01127260062688</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.29218584892384</v>
+        <v>67.44994478707372</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>64.61503636144474</v>
+        <v>50.53620496133632</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>73.14439378735059</v>
+        <v>54.34201242859123</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-8.751892710477218</v>
+        <v>15.54180247454041</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>48.20683744553802</v>
+        <v>51.11019687595996</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>81.16672229219061</v>
+        <v>62.43191515887904</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>84.54777609063373</v>
+        <v>63.72063593527175</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.77375315240015</v>
+        <v>42.19569420358933</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.68500293485519</v>
+        <v>46.38236711039001</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-7.440803583387368</v>
+        <v>16.72431239277507</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43.97799067153682</v>
+        <v>50.18255873751943</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>73.10824205708177</v>
+        <v>58.68929186990115</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>83.72597709189685</v>
+        <v>61.53226718942875</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8.12069770253396</v>
+        <v>13.15977679654573</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.41491148743534</v>
+        <v>17.0649955326377</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.68296768530271</v>
+        <v>28.4774890837572</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.46367825668255</v>
+        <v>29.03201601946797</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>17.22734172084934</v>
+        <v>18.85445056406007</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.74669034876703</v>
+        <v>27.12776943794515</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.6426665435870582</v>
+        <v>11.16657362601403</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.79954462160084</v>
+        <v>22.37295657229647</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.48483451514781</v>
+        <v>41.94822370782207</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.95936042987499</v>
+        <v>41.10619601119208</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.433773017043071</v>
+        <v>17.30058330004318</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.62426611744515</v>
+        <v>37.91215227526286</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-3.144002168148209</v>
+        <v>9.185959801595907</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18.00267440111185</v>
+        <v>20.76117337223262</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.0931000774157</v>
+        <v>37.53964466132953</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.49064918519834</v>
+        <v>38.4560976371399</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-0.4674101253097689</v>
+        <v>11.56806829478049</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.83633096077399</v>
+        <v>29.00198014206005</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-6.588256732199518</v>
+        <v>7.357337147429931</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.23803556308665</v>
+        <v>18.60561482704247</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.75058973535643</v>
+        <v>35.52219440419603</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.82434559517688</v>
+        <v>37.19883328904849</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.09294466324578465</v>
+        <v>11.8287898011654</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>19.92691716173962</v>
+        <v>26.57772397349428</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.12578541083737</v>
+        <v>20.3455351710337</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.85765729005722</v>
+        <v>22.39344900405214</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.798676831217318</v>
+        <v>15.8229349383849</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.84584751943048</v>
+        <v>25.29832587082466</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.60635865777919</v>
+        <v>22.87872097970543</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>32.42281936512408</v>
+        <v>25.7972729483906</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.50749997814927</v>
+        <v>46.28123357175765</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>61.97116487248562</v>
+        <v>52.55619176176495</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6.838880942176756</v>
+        <v>22.41438063321141</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.57127307949418</v>
+        <v>47.85647316913092</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.35883043400796</v>
+        <v>61.65283367429653</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.71593821462028</v>
+        <v>64.82836711842991</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.40753839081961</v>
+        <v>34.76186993714704</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>58.3158432387463</v>
+        <v>45.94446812066967</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.551697895825658</v>
+        <v>17.14945521704371</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.63446942690237</v>
+        <v>40.27743055978183</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>65.69794679359394</v>
+        <v>51.7195971241719</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>80.96364833620925</v>
+        <v>58.82208537369879</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.94709383121893</v>
+        <v>23.32005687941804</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.05843109347151</v>
+        <v>34.68341910562393</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.02887969480922337</v>
+        <v>15.30888708744736</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.11254665112813</v>
+        <v>36.4745866995908</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.68966816211974</v>
+        <v>43.6130475014595</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>69.69811544704932</v>
+        <v>52.01252850784557</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.47521724142304</v>
+        <v>8.815712329764171</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.52110552154435</v>
+        <v>30.19290262800818</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.93153972707118</v>
+        <v>26.82106135568089</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>40.50314887354791</v>
+        <v>26.1857556261159</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.27093009608263</v>
+        <v>20.34824445097451</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.11444612207829</v>
+        <v>38.0054804595221</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.834341102819625</v>
+        <v>14.90103933279439</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.23106357555498</v>
+        <v>45.59941926825165</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>66.33900931879515</v>
+        <v>52.33132998703967</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>65.24755354990099</v>
+        <v>50.6699684992635</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2.740956930477903</v>
+        <v>16.0679027715255</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.47291493898349</v>
+        <v>45.63268369693219</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-0.4139009971402956</v>
+        <v>13.33432609591514</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>40.96930535005473</v>
+        <v>44.24682335917613</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.28280792688997</v>
+        <v>52.03481599794966</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>64.76296632597752</v>
+        <v>52.0438022903877</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-3.075476383078932</v>
+        <v>13.24794892098567</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.43224181512178</v>
+        <v>41.49877463049035</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2.706569354309895</v>
+        <v>12.15777211772776</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.39178926434954</v>
+        <v>44.57509290977181</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>58.42203457229442</v>
+        <v>52.74819743366359</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>62.03154054641486</v>
+        <v>52.5260799029939</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-1.141230222972279</v>
+        <v>15.0718690048907</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.72454119386725</v>
+        <v>43.48421030544799</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.27612055286728</v>
+        <v>39.42762491590556</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.14182717292016</v>
+        <v>39.13821455089454</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>8.537920358379374</v>
+        <v>17.21010995983002</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.77097981913058</v>
+        <v>32.43785508178239</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.90549131185961</v>
+        <v>36.73312869198159</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>48.86038937448822</v>
+        <v>40.64409077249074</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>80.5786068009797</v>
+        <v>63.13648002404181</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>83.5909511223434</v>
+        <v>64.41944362021013</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.3276614311626638</v>
+        <v>18.74905184354231</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.40194076653532</v>
+        <v>49.54130039070394</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>85.58865115753217</v>
+        <v>68.72532173834978</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>90.33071725133603</v>
+        <v>70.17698520460127</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>72.61945384133671</v>
+        <v>57.20367142826168</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-5.484583824382607</v>
+        <v>15.5655232285543</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.44418139205361</v>
+        <v>45.5937879896705</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>80.03190481297455</v>
+        <v>62.90628179815593</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>88.75682718619198</v>
+        <v>66.65102000203697</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.5427548476391</v>
+        <v>50.16952868274213</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>72.05613469153992</v>
+        <v>53.29942305851293</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-1.408463825907422</v>
+        <v>17.16485029696494</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.21383276562123</v>
+        <v>48.89269787005838</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>74.19154541750598</v>
+        <v>63.0313348317584</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>86.54243578157761</v>
+        <v>67.01029395510893</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-2.082694174492268</v>
+        <v>9.145791161369957</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.86311902341383</v>
+        <v>35.60799792808044</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.02817736163169</v>
+        <v>27.70985998405168</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.26342805272328</v>
+        <v>28.16072849643012</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.960647658033476</v>
+        <v>17.29308938172353</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.61544285837267</v>
+        <v>39.60477780862414</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-6.36194477359269</v>
+        <v>12.87100840903435</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>41.8501950719855</v>
+        <v>42.24769073288542</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>62.75682051541303</v>
+        <v>47.84519582533554</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>60.32490266484992</v>
+        <v>47.04948824755574</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-4.591602628246243</v>
+        <v>15.71297282975956</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>48.95009530186846</v>
+        <v>48.18807132934037</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-9.168290925281692</v>
+        <v>10.62191842147394</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.56221427057412</v>
+        <v>40.05776829355319</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>62.19617260295371</v>
+        <v>50.71578841020389</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>60.305934304291</v>
+        <v>49.93742736225083</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-9.602453402428157</v>
+        <v>13.37867080150613</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.92609543890084</v>
+        <v>45.16677795813659</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-10.08898126345525</v>
+        <v>9.969006378579319</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>39.5158250701116</v>
+        <v>44.30827140933777</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>61.41253344856149</v>
+        <v>53.52195384717952</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>62.93591560130433</v>
+        <v>54.11245648570365</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-8.569080837162829</v>
+        <v>14.10874383970731</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>40.01466386798005</v>
+        <v>43.2284661691359</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>50.24708575972376</v>
+        <v>39.23286945847352</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.13624070118485</v>
+        <v>40.87192538545026</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3.270386850359257</v>
+        <v>16.1752420392766</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.66542084860544</v>
+        <v>35.72265987863831</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>46.54989140835426</v>
+        <v>37.45870445562473</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>57.25483510625588</v>
+        <v>42.02498850505044</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>78.15071192565779</v>
+        <v>57.17068316357135</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>79.61088675375734</v>
+        <v>57.92434567342868</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-2.510329077862803</v>
+        <v>17.81051471571506</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>82.55212116495427</v>
+        <v>59.41791789379651</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>84.6209247197918</v>
+        <v>60.28804609644445</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>71.78465792297223</v>
+        <v>53.14187573408435</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>76.83137104252668</v>
+        <v>55.48747557826617</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-7.121620255867558</v>
+        <v>16.51234879479367</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>49.79324884866703</v>
+        <v>48.39291242640673</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>79.24865716112545</v>
+        <v>57.40175638767813</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>82.16381052969952</v>
+        <v>58.81190897050368</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>60.65496454932334</v>
+        <v>45.0223137503751</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>69.92106758660262</v>
+        <v>49.25119198552456</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.185960650194303</v>
+        <v>16.20326652228406</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>49.64580661279285</v>
+        <v>49.15892507523971</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>75.45578494363129</v>
+        <v>55.60568837728588</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>84.11754003813019</v>
+        <v>57.95974531917483</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>3.109181283976152</v>
+        <v>8.048093020729603</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.21140644545162</v>
+        <v>14.27840959418806</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.37479676463938</v>
+        <v>17.63986539629752</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.47621976459892</v>
+        <v>17.92252332067318</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>9.199589103656564</v>
+        <v>14.94988469638758</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.99910945790222</v>
+        <v>25.52612721071007</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-5.724109098001243</v>
+        <v>4.849744566108257</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.85592719560357</v>
+        <v>15.38588581876434</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.65760078333427</v>
+        <v>27.64639987071601</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.20061398570022</v>
+        <v>27.14067946135503</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.3430643547051275</v>
+        <v>14.28432650953757</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.76433573706444</v>
+        <v>33.96301586776808</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-11.12411676086427</v>
+        <v>1.329298462948113</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5.54602909185108</v>
+        <v>12.28558553649794</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.6039481976254</v>
+        <v>23.11127879245235</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.25019425617636</v>
+        <v>23.49177891940884</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-6.491840635157192</v>
+        <v>11.21609256073607</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>23.65023412112952</v>
+        <v>28.27125819247411</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-15.04094484088993</v>
+        <v>0.8346401689667573</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1.603833368024873</v>
+        <v>11.67796540059497</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.23026498040069</v>
+        <v>18.62253261926615</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.60787416964848</v>
+        <v>20.2486981222818</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-4.057099036605138</v>
+        <v>11.60186806424078</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>20.46905121743256</v>
+        <v>26.48609807048533</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.54802543809394</v>
+        <v>24.63485393537513</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.1677812018107</v>
+        <v>26.52475968949729</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2.721676996503502</v>
+        <v>14.2098530197293</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.08581857272468</v>
+        <v>25.84717820620453</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.33053609675152</v>
+        <v>28.70802428176216</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>41.25610360222764</v>
+        <v>31.42341296954817</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>51.2048880256349</v>
+        <v>41.00055810876904</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>59.98800208483679</v>
+        <v>44.66315563736156</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1.666291400706413</v>
+        <v>19.23761076245949</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.22381990683839</v>
+        <v>44.67543000309941</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>74.86246081209627</v>
+        <v>57.41931892662537</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>80.80906153375116</v>
+        <v>59.15543619439813</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>40.07115479294147</v>
+        <v>33.53572028959887</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>55.38637022376572</v>
+        <v>40.31725132185969</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-3.733107477528907</v>
+        <v>15.99967768731081</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.8910333326638</v>
+        <v>42.2594460264626</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>69.29739006126017</v>
+        <v>51.41829316122916</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>78.83102790331922</v>
+        <v>54.93388239307518</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.17224165537807</v>
+        <v>26.9272365627045</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>47.43008166098929</v>
+        <v>33.47710507531659</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1.964425850133061</v>
+        <v>16.65156236726872</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.90291158517772</v>
+        <v>43.02564551970026</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>61.2400598607358</v>
+        <v>48.79580465086875</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>74.23624803148508</v>
+        <v>52.57621390390524</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1.086569035951403</v>
+        <v>9.680224408767973</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>8.160306054808814</v>
+        <v>14.12510106481172</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.360107294287475</v>
+        <v>12.00563368939479</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.58270394979952</v>
+        <v>11.50172245591149</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>4.528307369339903</v>
+        <v>14.9010417037266</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>9.748996543582063</v>
+        <v>16.41958644111506</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-11.25153480397392</v>
+        <v>7.437126886303709</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.27274717416248</v>
+        <v>17.31382952424714</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.90628504032578</v>
+        <v>21.67877459659873</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.61984701693284</v>
+        <v>20.25817729546884</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-12.82792739619705</v>
+        <v>3.383327051152779</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.41539228031312</v>
+        <v>12.90352556235494</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-14.06796342120122</v>
+        <v>4.935703606464113</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>7.068875384473456</v>
+        <v>14.48290158068576</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.86735928215116</v>
+        <v>17.04598910520569</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.30946763590848</v>
+        <v>17.09644476452344</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-19.97990736337477</v>
+        <v>1.2142260143155</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.539495145361393</v>
+        <v>8.29336064634278</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-17.2490827501086</v>
+        <v>2.806376653687561</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2.627281935182925</v>
+        <v>11.05996285473613</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.95318461866453</v>
+        <v>11.45381551550856</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.9737209806208</v>
+        <v>12.14608133309797</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-17.39254611106883</v>
+        <v>3.466570308447164</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-0.7976237324963122</v>
+        <v>10.13012211094368</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.04533583581548</v>
+        <v>14.93917120437905</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.96694206040873</v>
+        <v>15.78023394062846</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.3110438170431635</v>
+        <v>6.876578863881257</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>7.494280804842997</v>
+        <v>8.046867242550697</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.15899526581224</v>
+        <v>14.99042092869689</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.89774161612275</v>
+        <v>22.65894677643387</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.67802873111122</v>
+        <v>22.90099991289285</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.96680269077097</v>
+        <v>27.60765920573591</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-9.651905643205719</v>
+        <v>6.544174673489987</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.89096478126081</v>
+        <v>20.54312477182847</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>46.69967895649797</v>
+        <v>32.56841327528355</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>61.66198015373308</v>
+        <v>42.43997782437059</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.05626655202078</v>
+        <v>15.23339554324578</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.30591689630101</v>
+        <v>23.35128662709726</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-15.96755585301433</v>
+        <v>5.132416255353931</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>14.97023146996809</v>
+        <v>16.98478627720039</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>39.2030128388546</v>
+        <v>25.9883350375044</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>58.50813433782538</v>
+        <v>39.76097861764566</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>11.1198213421416</v>
+        <v>9.40815655105078</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.73073237197829</v>
+        <v>14.18484858733899</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-13.12380483345384</v>
+        <v>4.973512145146074</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.18808954245039</v>
+        <v>15.50456112173987</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.84847048215816</v>
+        <v>23.14105909645337</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>55.66596197697737</v>
+        <v>38.1362469285232</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-2.05918476666216</v>
+        <v>14.02931815414157</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>40.15439031554723</v>
+        <v>38.86911028824309</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.18194574174817</v>
+        <v>39.11049253617931</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>49.98985103612141</v>
+        <v>40.6907280680077</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.6596737472948035</v>
+        <v>15.84989095837738</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.06521770831758</v>
+        <v>32.74638684421703</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-6.178116850053559</v>
+        <v>14.90901317032156</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.49771225308623</v>
+        <v>44.93429849607494</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>73.95613748882033</v>
+        <v>56.77932654476458</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>72.97270607186701</v>
+        <v>56.16042159688687</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-7.712527865169552</v>
+        <v>16.12926205080038</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.83629307706214</v>
+        <v>42.39654040541539</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-11.3524329879232</v>
+        <v>10.37551534002941</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.21851152874266</v>
+        <v>41.55796946142766</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>71.35489961779535</v>
+        <v>52.53742314985494</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>70.96175330572802</v>
+        <v>52.12502911009345</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-13.62654160898514</v>
+        <v>13.77232900586324</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.82628947162676</v>
+        <v>38.74937565620006</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-17.6889883246737</v>
+        <v>6.43878686324215</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.7384458022664</v>
+        <v>38.88585412781155</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>64.36030045137214</v>
+        <v>47.65128360152342</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>67.42032230111283</v>
+        <v>49.20280657335609</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-14.37591025045196</v>
+        <v>12.63874473807739</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.58706856514421</v>
+        <v>35.05600298942282</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>39.65629047318796</v>
+        <v>32.22392383033043</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.74155711700472</v>
+        <v>32.67483755825101</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.05890642075515018</v>
+        <v>16.34336048621323</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.20834322605818</v>
+        <v>33.36264882978976</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>42.58080388782994</v>
+        <v>36.64783309162138</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>54.85900220757803</v>
+        <v>41.5212999164571</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>68.32045727978222</v>
+        <v>51.67181849929631</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>69.80513835661021</v>
+        <v>51.89016136442636</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-7.241734662252348</v>
+        <v>18.3048237514963</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>45.90676597848704</v>
+        <v>49.01500690622532</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>79.52532329565882</v>
+        <v>61.88779716412247</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>81.54801612104872</v>
+        <v>61.9270170672881</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>60.53209774322146</v>
+        <v>46.37221142363627</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>66.35911914918486</v>
+        <v>48.64178510744048</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-13.2192858779489</v>
+        <v>16.03620798689373</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.71947117970712</v>
+        <v>47.36718856712558</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>74.9752665627136</v>
+        <v>57.90872115765004</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>77.83561971776459</v>
+        <v>58.54143837460354</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>46.59320295416189</v>
+        <v>35.92706803825765</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>56.43807274976595</v>
+        <v>39.67905555596726</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-12.13843317724125</v>
+        <v>15.85740345031268</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.34260664707689</v>
+        <v>45.7598558120556</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>67.72821537248149</v>
+        <v>53.15863552277976</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>77.62483383489692</v>
+        <v>55.93150287049198</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3.796825508999719</v>
+        <v>9.456646752306181</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.62064358180523</v>
+        <v>14.26201851330489</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.42843933333038</v>
+        <v>13.24009018857141</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.9501964460732</v>
+        <v>13.9622902738382</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.447224764838072</v>
+        <v>11.71016022145989</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.51515302148247</v>
+        <v>18.7945173712542</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-4.204892560659776</v>
+        <v>7.445200508208114</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.08170625650924</v>
+        <v>17.21644210110755</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.34210889467132</v>
+        <v>22.69997875207957</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.57230717654538</v>
+        <v>22.78215007154355</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0.4677272640394818</v>
+        <v>12.8900025929519</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.18096550942929</v>
+        <v>28.78082306762055</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-8.439811247468143</v>
+        <v>5.039067125491318</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>5.926151036648609</v>
+        <v>14.01955061222264</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.91513071478484</v>
+        <v>18.92611630392226</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.48648997460352</v>
+        <v>20.37031987897424</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-7.617735197025436</v>
+        <v>8.165016342573203</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.4313362341514</v>
+        <v>18.6638122899378</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-10.0852973922002</v>
+        <v>2.984905254934528</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.9894454271354682</v>
+        <v>10.30095496879954</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.18387662138836</v>
+        <v>13.36456912034551</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.07459641828012</v>
+        <v>16.71480464846216</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-8.325778238768816</v>
+        <v>5.518610315476145</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.159149144779652</v>
+        <v>13.05648199800146</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.18313826444752</v>
+        <v>15.20784307950419</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.21895078772274</v>
+        <v>16.59867699908796</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>1.92379500407306</v>
+        <v>13.72189660889786</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.9996015882298</v>
+        <v>18.76208046543776</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.14869770196581</v>
+        <v>16.89742529542918</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.4403043749859</v>
+        <v>19.66543035457762</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.51790903754063</v>
+        <v>31.7680341973094</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>46.0192623724055</v>
+        <v>36.54019497319678</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.446541338806105</v>
+        <v>21.76531229764556</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.75469848387667</v>
+        <v>38.98690771643079</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>56.39142655855323</v>
+        <v>48.38130961216</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>68.31697456561524</v>
+        <v>53.69096818881495</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.59861448393184</v>
+        <v>20.00964917189164</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.28029687739305</v>
+        <v>29.82114927750128</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-3.221353514305427</v>
+        <v>16.91064495186217</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.90144605040396</v>
+        <v>31.30745804764796</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.00267581632975</v>
+        <v>38.63872002474413</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>65.0172885183957</v>
+        <v>49.07180884582241</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>7.076822582255753</v>
+        <v>10.8344321024975</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.92830705692248</v>
+        <v>19.31813093002248</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-4.476884685519568</v>
+        <v>15.87911589009733</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.84749363376175</v>
+        <v>28.26105268980967</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.44974146069483</v>
+        <v>31.2955260016855</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>55.38006213985348</v>
+        <v>42.3376118239937</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-9.465342128605617</v>
+        <v>4.787879745045704</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5.620555037512776</v>
+        <v>6.711572773480768</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4.969426775083203</v>
+        <v>5.2509002441947</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.676894939898649</v>
+        <v>6.159295166377181</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3.618138541788886</v>
+        <v>15.27115408242233</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.54022921409325</v>
+        <v>30.17053726766628</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-15.53480029544849</v>
+        <v>4.449836211421129</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.191084191686024</v>
+        <v>8.730375475059244</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.13395924746332</v>
+        <v>11.51224876262526</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>17.88017846583605</v>
+        <v>12.212599733058</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-3.742261587152893</v>
+        <v>13.95958642737525</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.44043198547547</v>
+        <v>38.97856027513676</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-16.52445707346972</v>
+        <v>4.793143279310758</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>7.573714927791164</v>
+        <v>8.612446943785745</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>17.58830075337342</v>
+        <v>10.07228647151835</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.87325037890188</v>
+        <v>12.01023763010058</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-7.484475344273775</v>
+        <v>12.96376726609652</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>32.056485493472</v>
+        <v>36.21563914976793</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-16.51000851903848</v>
+        <v>2.663290280035437</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.136433181203188</v>
+        <v>8.31644178858356</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.14260134758203</v>
+        <v>9.394291782268247</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.60523180692218</v>
+        <v>13.62527188142762</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-6.331522937548865</v>
+        <v>12.97905862311341</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.95069810348129</v>
+        <v>33.8077797261294</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.94029072828656</v>
+        <v>30.47016058186116</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>39.22908555501463</v>
+        <v>31.91757192071884</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>3.169010378152393</v>
+        <v>15.47654802975492</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.55169125599684</v>
+        <v>30.01103576954166</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.49973481515963</v>
+        <v>31.02655101470596</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>48.40471569669346</v>
+        <v>36.04919192014596</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>61.34615858801023</v>
+        <v>45.83191489830705</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>63.3550920328057</v>
+        <v>47.11074651188402</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-0.5749276404226542</v>
+        <v>18.61628575166397</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.07987229464558</v>
+        <v>49.32146263815797</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>77.48187978116127</v>
+        <v>58.32130160372474</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>78.32932901097689</v>
+        <v>59.42489158871989</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>54.96713994063678</v>
+        <v>41.82069935707585</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>61.29910220160617</v>
+        <v>44.98341525856501</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-4.5373725223814</v>
+        <v>17.83019077983302</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>46.7689459807001</v>
+        <v>49.29353177289276</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>73.88150941744151</v>
+        <v>56.54625694343154</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>76.29293595966904</v>
+        <v>58.18706438395189</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>46.08537939011233</v>
+        <v>35.82541951724262</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.71213629353397</v>
+        <v>39.73085710709933</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.104359281243109</v>
+        <v>17.99931500755678</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.70831792034276</v>
+        <v>48.56815054313603</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>68.47802308240038</v>
+        <v>55.3761947581969</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>76.86049057835842</v>
+        <v>57.67436657809131</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>5.861849605175372</v>
+        <v>13.48721889373093</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.9825179221695</v>
+        <v>18.3037949183558</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.66114242310648</v>
+        <v>16.89019197030795</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.80736787279668</v>
+        <v>16.41378076229351</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>4.833935770033058</v>
+        <v>9.476775961811992</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.708576904014606</v>
+        <v>12.82822940917043</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>0.3514040991322176</v>
+        <v>11.52191229117111</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.87544062664224</v>
+        <v>21.39603425440679</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.56116035611084</v>
+        <v>26.63006297424623</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.5771844243962</v>
+        <v>25.76857210306987</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-4.325209405668737</v>
+        <v>7.382231994070644</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.9422940583568</v>
+        <v>17.89995121239181</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-2.030752645292377</v>
+        <v>10.33990141443788</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>15.25440099649327</v>
+        <v>20.34731374312786</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.01482916726147</v>
+        <v>25.2915930540156</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.16611717156218</v>
+        <v>25.37732684014162</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-9.274804013846644</v>
+        <v>5.50508029506728</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.263510575807162</v>
+        <v>13.58488935539332</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-9.008017395434102</v>
+        <v>6.406509916241163</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.940947253517743</v>
+        <v>16.26196394809596</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.76828341630532</v>
+        <v>18.90443386621431</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.20653458963632</v>
+        <v>20.76064746415017</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-8.662063993275108</v>
+        <v>4.933871568270103</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.462555815989607</v>
+        <v>11.6467534383282</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.694889140062026</v>
+        <v>10.60217670958311</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.105503787329</v>
+        <v>13.06661038764555</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.614266003988341</v>
+        <v>13.56229903303964</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.3220548888088</v>
+        <v>21.45585521666176</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.7183315770732</v>
+        <v>20.02623172816696</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.09350447638021</v>
+        <v>24.10597658493898</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.79619132721577</v>
+        <v>21.37817648219277</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>34.24463320193322</v>
+        <v>26.88549254152687</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.800974761137439</v>
+        <v>16.74075518194758</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>32.73928362887884</v>
+        <v>35.64134747994187</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>56.23857888813278</v>
+        <v>46.10812568971683</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>62.52524648773375</v>
+        <v>49.21048887965506</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.5282874409879</v>
+        <v>15.60064219132183</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.69205455198317</v>
+        <v>23.55443695318417</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-3.401187880515597</v>
+        <v>14.02451502598975</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.55418622705276</v>
+        <v>32.89127293834634</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>50.58083473424963</v>
+        <v>40.55560490206489</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>59.5487045847163</v>
+        <v>45.25088957548402</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>5.321294817616897</v>
+        <v>10.18075725983497</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.73339237983757</v>
+        <v>16.83141458553181</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-5.363589326211411</v>
+        <v>12.89794557976537</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.61047509222692</v>
+        <v>31.29835841686137</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.50743917732779</v>
+        <v>34.39131610761039</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>52.17446257452022</v>
+        <v>39.22404699415205</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>4.560291588804512</v>
+        <v>8.251530782295056</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>4.86442638284872</v>
+        <v>8.662196656080493</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2.093649464679228</v>
+        <v>8.193200422842423</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>0.8852792206405056</v>
+        <v>8.105059509115847</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.634291357277057</v>
+        <v>7.615614915533939</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.601828455290361</v>
+        <v>8.132858604902751</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-0.8115099543108322</v>
+        <v>6.976143286182449</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.610236523509428</v>
+        <v>10.01304726836396</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.205930338821796</v>
+        <v>12.4964724807854</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>6.37688191341392</v>
+        <v>11.95800789744345</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-4.375643434386468</v>
+        <v>4.561881944419294</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>4.205253949967105</v>
+        <v>9.789411985053086</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1.199041358263838</v>
+        <v>7.038008371923212</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.639780365477659</v>
+        <v>9.664915350704533</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.645686531341907</v>
+        <v>11.39328842116777</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.731429985625629</v>
+        <v>11.67889537575805</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-8.100440073836886</v>
+        <v>3.416510776686923</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2.440419136209265</v>
+        <v>5.814356349152288</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-6.667180977250627</v>
+        <v>4.420313988912348</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-2.656459033689991</v>
+        <v>7.817653477829943</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1.096673239288926</v>
+        <v>9.372656990247961</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>3.699538898728964</v>
+        <v>11.20298841414559</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-7.023862077277752</v>
+        <v>3.461943519658842</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-4.728228001029166</v>
+        <v>5.681995872950573</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1.207937054947077</v>
+        <v>5.39804191801117</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-0.6535231929243928</v>
+        <v>5.234736601327661</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.475275643257401</v>
+        <v>13.8349869287735</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.78273688440543</v>
+        <v>18.35461634405755</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.89903399282273</v>
+        <v>15.63374750450813</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.6432487954557</v>
+        <v>17.29130795758958</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.902026074850287</v>
+        <v>10.93739730551613</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.01265439432807</v>
+        <v>12.16270791768392</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.815418127734475</v>
+        <v>16.26812787660976</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.73726155513145</v>
+        <v>27.51741403267927</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.9190980048379</v>
+        <v>36.49712816234487</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.30409627508126</v>
+        <v>37.59060493068584</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0.9162746983990679</v>
+        <v>5.660014299908894</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>9.979974378400783</v>
+        <v>8.967111933180277</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.048375218444786</v>
+        <v>15.0677715555581</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.16521663465857</v>
+        <v>25.39276708337392</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.14844454982045</v>
+        <v>32.93613530352457</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.13770677080515</v>
+        <v>35.60151530179154</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-4.013834702397833</v>
+        <v>3.360095740963157</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>5.834217548720526</v>
+        <v>6.153422528989051</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-0.6522913394289773</v>
+        <v>13.57889054659638</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.60961358692686</v>
+        <v>25.79194229049581</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.71603372117782</v>
+        <v>28.12927826412747</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.94277223789096</v>
+        <v>30.72037271142428</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.4038064918312</v>
+        <v>16.32942937951729</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.62614474933554</v>
+        <v>26.81550070486757</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.78218806329797</v>
+        <v>22.69965909933225</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.84229453541662</v>
+        <v>25.06146954162863</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.12750908011309</v>
+        <v>17.43732817591825</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.5818868811552</v>
+        <v>22.31710578773041</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>8.576133382816788</v>
+        <v>18.92891740136086</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.33969730053138</v>
+        <v>36.67195944714163</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>57.09087182807804</v>
+        <v>47.15743143650606</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>58.46418618776104</v>
+        <v>47.37712447055235</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>3.640786868888405</v>
+        <v>13.80038369865547</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.00422924284386</v>
+        <v>29.48063842227458</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>6.310902315227514</v>
+        <v>18.27366379369716</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.53129201477918</v>
+        <v>36.16232748915257</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>53.04067200028331</v>
+        <v>44.70857577290184</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>56.6991459498829</v>
+        <v>46.72585833916773</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-3.065974228488653</v>
+        <v>12.10500416342254</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.26026906673836</v>
+        <v>25.49053119720947</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-3.276131455818419</v>
+        <v>8.610924834806983</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.07697218339922</v>
+        <v>24.87427743652323</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.78298200247542</v>
+        <v>27.16721392437061</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>43.20518019237508</v>
+        <v>32.10934129143706</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1.938987034156817</v>
+        <v>11.71151265364135</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.7237356247851</v>
+        <v>23.61225900131982</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>13.13895528957923</v>
+        <v>13.91358871873723</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.35281433155654</v>
+        <v>13.45187566638114</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>14.35610233735015</v>
+        <v>19.50688679399343</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.48230247292221</v>
+        <v>27.39842431721477</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.91610348632187</v>
+        <v>20.35163301905757</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.42017858494902</v>
+        <v>22.58793616202891</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.17039100587345</v>
+        <v>37.66958834778971</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.96756080710327</v>
+        <v>37.74242042785664</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>9.828532856985053</v>
+        <v>23.89559116878645</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.16484255614163</v>
+        <v>47.55705796140974</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>75.36169556827133</v>
+        <v>60.2033076065603</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>79.90124187670162</v>
+        <v>60.5541816219796</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.74733242441076</v>
+        <v>31.95770995636893</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.66668109619619</v>
+        <v>36.20333403819777</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>3.473323816442168</v>
+        <v>21.19958071770972</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.55230707745002</v>
+        <v>43.96322924235449</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>69.71750972946106</v>
+        <v>55.28649664960621</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>79.39627584934347</v>
+        <v>58.86713026968108</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.24884600667767</v>
+        <v>20.21226765380273</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.01258667394258</v>
+        <v>26.57756625621297</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>3.298846200283144</v>
+        <v>18.23129857138253</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.72187070601439</v>
+        <v>39.63339752203929</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.95817885186129</v>
+        <v>41.49892414411734</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.78827142598027</v>
+        <v>48.05540437764142</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>10.22357902217145</v>
+        <v>17.46990523449885</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40.19109300065453</v>
+        <v>37.48278846326403</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.86882778408982</v>
+        <v>38.21025408220059</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.81037043835231</v>
+        <v>39.39965014814547</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.961159169513911</v>
+        <v>15.10630882463352</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.47043358990815</v>
+        <v>28.13218137524694</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>3.101994219002494</v>
+        <v>16.54590740578172</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.16364011471522</v>
+        <v>40.25351648823514</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>62.38401960082125</v>
+        <v>49.10641934598203</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>63.75109036863751</v>
+        <v>48.9520091020551</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-1.919926383208679</v>
+        <v>14.55946385880284</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.41338900403393</v>
+        <v>36.97175329059486</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-0.1536665830186017</v>
+        <v>14.90126953728588</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.40488601205149</v>
+        <v>38.15529328868022</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.85090419679342</v>
+        <v>46.58796859676124</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.65936649036553</v>
+        <v>47.33246660118746</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-7.372883338024163</v>
+        <v>12.62316348537876</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.02521047550463</v>
+        <v>31.8190146713474</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-1.161679301573638</v>
+        <v>13.26720856721279</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.21754049175971</v>
+        <v>37.45076139558594</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>55.49214599632363</v>
+        <v>46.56450359458765</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.12674930980859</v>
+        <v>49.32853019722636</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-7.083196405677842</v>
+        <v>11.99700058290005</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.91686028336921</v>
+        <v>27.60230653529616</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.88330223800792</v>
+        <v>27.11420970221259</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.40477247787071</v>
+        <v>28.27960834164991</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.537401848141787</v>
+        <v>14.70101336966431</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>23.65384212174027</v>
+        <v>27.46399660752961</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.21370590996689</v>
+        <v>28.39501879012032</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>45.24610039967158</v>
+        <v>34.44993212892772</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>55.00690385251623</v>
+        <v>42.98661765810655</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>60.91789635307993</v>
+        <v>45.20741145686345</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-3.704728480383299</v>
+        <v>16.35781159535467</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.12949216701427</v>
+        <v>43.52540707018058</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>68.08140880108141</v>
+        <v>53.27953531070656</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>75.20988188300862</v>
+        <v>56.35066364219607</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.91583653114026</v>
+        <v>36.75149193813113</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>57.3186307129088</v>
+        <v>42.30524323596938</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-9.69182442753187</v>
+        <v>13.43733225205882</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.67193984823025</v>
+        <v>39.40766196011214</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>60.39316595932557</v>
+        <v>47.15143371596149</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>71.08877194155646</v>
+        <v>52.40074607283425</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.52925365614298</v>
+        <v>28.96145363801403</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>49.42795980375747</v>
+        <v>35.25340671959837</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-8.689417658549591</v>
+        <v>14.15324755261318</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.82320761260589</v>
+        <v>36.13839683306987</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.12861722783875</v>
+        <v>42.28349764018092</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>68.72924818326514</v>
+        <v>49.97487351726923</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>4.747303928201129</v>
+        <v>13.16176003089248</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.0250679957073</v>
+        <v>37.6111345192375</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.36992217347654</v>
+        <v>32.79699561236779</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>40.50535905813071</v>
+        <v>34.45223606792089</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.06144185572998</v>
+        <v>18.18439152912207</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.35286400947607</v>
+        <v>31.90750393621429</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-4.012511406536277</v>
+        <v>11.70038639905695</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.73415380673571</v>
+        <v>40.50221400088989</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>65.90715933766049</v>
+        <v>48.41091622480175</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>64.19795736722936</v>
+        <v>47.64080391617044</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-4.743119546445122</v>
+        <v>12.72426369101998</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.95380851007145</v>
+        <v>39.068125975459</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-7.272970447376398</v>
+        <v>10.23129589179564</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.38382424071149</v>
+        <v>39.07551802085595</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>62.77446344265329</v>
+        <v>47.20222822309738</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>62.5759896177339</v>
+        <v>47.88058282353093</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-12.057146080061</v>
+        <v>9.119273925188558</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.26066158202992</v>
+        <v>34.06279772135811</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-11.35177114134614</v>
+        <v>7.024595062886831</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.61602845215165</v>
+        <v>37.43858786008912</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.296499288417</v>
+        <v>46.76216402777529</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>58.53992220182192</v>
+        <v>48.91384577774258</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-9.362386852162981</v>
+        <v>10.72969818872006</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.46455303166556</v>
+        <v>32.61467302281012</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.10967489826844</v>
+        <v>28.41732150399332</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.24707626453282</v>
+        <v>28.82763144617719</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>5.863495005527085</v>
+        <v>17.06264824910157</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.7739723925214</v>
+        <v>30.67602668015248</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.0884096945478</v>
+        <v>30.1053616047265</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>41.60724042151519</v>
+        <v>34.84727062182309</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>63.33516613168088</v>
+        <v>49.38741407774073</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>67.01603525707047</v>
+        <v>50.1435038339643</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-5.060456563703141</v>
+        <v>15.87682747762894</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.40842354868033</v>
+        <v>47.42788269323788</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>77.34546389487006</v>
+        <v>59.73354928553482</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>81.28964530192485</v>
+        <v>60.41062724052539</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>53.80220283085228</v>
+        <v>40.98075984219189</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>63.61735339933384</v>
+        <v>45.30614693228389</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-12.2291806484076</v>
+        <v>12.09003142092488</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.4528057851176</v>
+        <v>43.19897185488806</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>70.92330351484152</v>
+        <v>52.70714658101443</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>78.82171195568488</v>
+        <v>55.93361961792954</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.88525362349284</v>
+        <v>32.79058965491974</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>55.08594028019402</v>
+        <v>39.20168454131039</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-8.392104038883566</v>
+        <v>13.38208658936124</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.56092217750366</v>
+        <v>41.56708772178141</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>62.01698253210499</v>
+        <v>49.59126799187123</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>75.91103560186372</v>
+        <v>56.1249023944773</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.771284700834556</v>
+        <v>18.95917245620414</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.90753127606811</v>
+        <v>36.44929977223686</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>44.52754348743969</v>
+        <v>34.6380426638658</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>44.903537880958</v>
+        <v>35.24215620254425</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.38053179517653</v>
+        <v>24.74948518469998</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.28228910319235</v>
+        <v>34.83432265141172</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>1.448486988105255</v>
+        <v>16.32732591980526</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.00081142035697</v>
+        <v>42.18652486979532</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>69.8413791181876</v>
+        <v>54.69645719545498</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.31822372142834</v>
+        <v>53.38179708251381</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.410215191416894</v>
+        <v>18.19945145214104</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.20056138137844</v>
+        <v>38.65924878512025</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1.158895832894693</v>
+        <v>16.38739095317079</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.03336888701106</v>
+        <v>44.08854697348663</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>68.59692738579957</v>
+        <v>53.91320134409496</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>67.63260252800903</v>
+        <v>54.18373950238035</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1.839259230852537</v>
+        <v>16.78901758218867</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.93723780333475</v>
+        <v>36.53947080390011</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-1.12092287390313</v>
+        <v>10.42013194251489</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.25770079578213</v>
+        <v>39.98742374766518</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>62.73485719075754</v>
+        <v>51.66928939682489</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>64.87165649878102</v>
+        <v>51.94277612512699</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1.00730464964753</v>
+        <v>16.82186514397179</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.79676665397827</v>
+        <v>37.65731298268254</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.56356785022778</v>
+        <v>31.87869106076517</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38.21862756982598</v>
+        <v>32.20015495098234</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.10442059113639</v>
+        <v>21.32260620504303</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.49021362830392</v>
+        <v>32.62341436860109</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.72085348189788</v>
+        <v>33.81128703660342</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.27009598473138</v>
+        <v>36.72176915510939</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>65.00569094633113</v>
+        <v>50.19788052941939</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>69.58732314144298</v>
+        <v>52.64037791719728</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>2.4397789909431</v>
+        <v>19.77293490700844</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.8501268351575</v>
+        <v>47.04205664221088</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>80.53353977071858</v>
+        <v>63.41272473186096</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>83.35588523781273</v>
+        <v>63.51517666662892</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.91711332983027</v>
+        <v>45.61187297041315</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>68.25407614927512</v>
+        <v>51.02527617062257</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-2.631886298440424</v>
+        <v>18.35089706600584</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.82169199547482</v>
+        <v>45.73758093729523</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>76.15136081071408</v>
+        <v>59.90177177934643</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>83.19026170305148</v>
+        <v>61.91249147480651</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>47.63645503444003</v>
+        <v>39.23553840126146</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>60.53921072004024</v>
+        <v>44.0982408002932</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.262666804157508</v>
+        <v>18.62574384508397</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>40.37162859505202</v>
+        <v>45.56242639205553</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>68.00799348398989</v>
+        <v>57.122154074785</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>78.75177979969926</v>
+        <v>61.5092336364475</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4.580401367346127</v>
+        <v>12.88065793715514</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.65892125273675</v>
+        <v>28.85076176364446</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.32233001726585</v>
+        <v>24.56823075834569</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.88899054336847</v>
+        <v>27.97870911476128</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>3.837665707639683</v>
+        <v>13.12603981430182</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.70888767854207</v>
+        <v>26.61448111093845</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1.073557552850851</v>
+        <v>13.63375520257177</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.1680357854868</v>
+        <v>39.6604139391309</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>57.91077142881274</v>
+        <v>46.09439626588057</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>59.21096701929019</v>
+        <v>46.69855318064648</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-5.394784029429474</v>
+        <v>12.0256311910115</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.91898900344547</v>
+        <v>37.24042622326994</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-4.764249738819114</v>
+        <v>11.51190255193083</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.62330881119181</v>
+        <v>36.81953493759596</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>53.95240403244181</v>
+        <v>43.63107254273211</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>57.66506739992242</v>
+        <v>45.78219565784831</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-11.99608380928543</v>
+        <v>10.14231549348889</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.01785682861636</v>
+        <v>32.3825081312941</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-7.786289545802621</v>
+        <v>8.170094273370669</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.44067242937025</v>
+        <v>28.514648827084</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.08893772702277</v>
+        <v>33.70637399342742</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>53.85324632025537</v>
+        <v>41.45095824331921</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-12.02390977492896</v>
+        <v>9.091078418289054</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.81344689916008</v>
+        <v>27.11653212454395</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.20162306652063</v>
+        <v>23.60665663189798</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.98594232294251</v>
+        <v>24.068027253261</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1.068925931254807</v>
+        <v>13.34162714342574</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.09165836273364</v>
+        <v>25.30967421446179</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.36834834043161</v>
+        <v>24.60309044127997</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.66023348779147</v>
+        <v>28.87869996259994</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>56.22482710551466</v>
+        <v>43.35386474268052</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>57.12068460976595</v>
+        <v>43.80363027542961</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-4.134145069097055</v>
+        <v>14.94869398955159</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.97748936592443</v>
+        <v>44.56501421340867</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>70.59603655479934</v>
+        <v>51.39680181411693</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>73.30308836067553</v>
+        <v>52.64044267278905</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.41337872687436</v>
+        <v>37.46582886886765</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>54.04340578791921</v>
+        <v>41.28091364650644</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-11.19988218675071</v>
+        <v>12.58015071105446</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.1560617191399</v>
+        <v>40.89628616524153</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.93559284100709</v>
+        <v>46.68774745724131</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.94951073391232</v>
+        <v>50.65550220649828</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.76216054932181</v>
+        <v>27.13314535349192</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>43.11669108128307</v>
+        <v>32.71442879867662</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-12.01574288422761</v>
+        <v>11.35313250395052</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.78136187289419</v>
+        <v>34.43912516992967</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>45.7750236589138</v>
+        <v>38.42731185746092</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>62.41721752535123</v>
+        <v>46.03594795686055</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>8.700060294480863</v>
+        <v>12.03360299679627</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.36134716018287</v>
+        <v>17.38660438905191</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.56121444702566</v>
+        <v>17.75587712174732</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.41168743087409</v>
+        <v>18.38716703564391</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.059742963783483</v>
+        <v>14.23562344327213</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.27650221588489</v>
+        <v>22.69665036555314</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1.106278162972917</v>
+        <v>11.77832213543935</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.6097004009231</v>
+        <v>21.97705908065884</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.7127473660689</v>
+        <v>29.3493861748024</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.06653990488472</v>
+        <v>29.00602818135228</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.9636372722416731</v>
+        <v>14.0958138131827</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.20258425741353</v>
+        <v>33.10060500090455</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-2.70799200732888</v>
+        <v>9.857165993129751</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>12.86158644760851</v>
+        <v>19.90285612792009</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.04788971526932</v>
+        <v>25.76101067558543</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.03184145223539</v>
+        <v>26.88411866840234</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-7.214650518635406</v>
+        <v>9.159228134438472</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.43335808846618</v>
+        <v>24.0512330147221</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-4.49031112980802</v>
+        <v>7.064656509933581</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>8.816726613539556</v>
+        <v>16.33573614997592</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.75382881833004</v>
+        <v>21.89376793973187</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.07872905040982</v>
+        <v>24.69453157595023</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-2.597788104548911</v>
+        <v>12.03427360703876</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.96566361167798</v>
+        <v>23.55492785396392</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.28081674548872</v>
+        <v>18.962014771725</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.56834408258833</v>
+        <v>20.20752345130866</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.219722714778616</v>
+        <v>13.62159874728274</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.84687157366627</v>
+        <v>21.92406357619006</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>14.4350623016121</v>
+        <v>17.34521388448515</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.03066622720823</v>
+        <v>20.53002201416708</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.55118739210195</v>
+        <v>38.73939083389732</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.39112531896691</v>
+        <v>41.95757456154082</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>6.598586197076102</v>
+        <v>21.46041961812172</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.08421650718222</v>
+        <v>45.40923648376328</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.67655668858878</v>
+        <v>53.13070322497394</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>73.35921903176042</v>
+        <v>55.31861522713817</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.77723814053833</v>
+        <v>27.99510429817074</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>49.331909045698</v>
+        <v>36.10330766645642</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1.207523513711696</v>
+        <v>16.87250558505097</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.48673476482487</v>
+        <v>39.95676390686825</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>56.41426362481006</v>
+        <v>43.80141907458275</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>69.84355905858882</v>
+        <v>49.56087828134569</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.30768472437583</v>
+        <v>23.23275944936971</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.44061328429952</v>
+        <v>32.79959094140598</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-3.047912747085537</v>
+        <v>14.65269023198001</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>27.25222012919987</v>
+        <v>32.17440889033153</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>37.67944114435373</v>
+        <v>32.72731754418594</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>58.78738886029313</v>
+        <v>43.69089649162483</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>0.567744418695213</v>
+        <v>9.147216349028202</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.6728956077966</v>
+        <v>16.48573485725608</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.19169670472458</v>
+        <v>15.78924812306689</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.25117936545355</v>
+        <v>15.63657394526597</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>9.148695813382457</v>
+        <v>16.38143911517828</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>19.38225900527933</v>
+        <v>21.90831127398056</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-6.029077284788855</v>
+        <v>9.076582946597881</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.43299949562405</v>
+        <v>25.53354146620438</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>48.66229641974658</v>
+        <v>35.82262123265806</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>48.62720351833305</v>
+        <v>34.9571454197992</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-4.177050522735335</v>
+        <v>10.30845077312266</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.99425956229144</v>
+        <v>26.61473441694086</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-5.081643738914952</v>
+        <v>12.58787387296907</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.75183990104966</v>
+        <v>31.67290089735258</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.96944761434182</v>
+        <v>37.01521464051278</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.79247983376591</v>
+        <v>38.08778799405278</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-8.976361916992669</v>
+        <v>9.726115537167342</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.11107483980197</v>
+        <v>25.72942276711389</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-8.417979203816124</v>
+        <v>7.022930005413716</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.22600559669672</v>
+        <v>26.7665622729805</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>40.54583162571049</v>
+        <v>33.49720058066237</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.36563876120046</v>
+        <v>34.289278564417</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-6.1708517336303</v>
+        <v>10.18073946448221</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.18871812228089</v>
+        <v>26.45858077086688</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>15.0997097713434</v>
+        <v>16.36278710932642</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.45501393235715</v>
+        <v>19.92588285052943</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-0.3572848888872429</v>
+        <v>12.45153238417055</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>12.31974287332403</v>
+        <v>17.49816035374844</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.32577775535409</v>
+        <v>14.49304592697553</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.34904265337109</v>
+        <v>18.41274761976179</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>43.35792692078135</v>
+        <v>32.97739621630259</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>55.17186233706933</v>
+        <v>41.15962639345717</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-6.344940126696844</v>
+        <v>13.40181210006754</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.62938341029127</v>
+        <v>35.84261657912876</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>59.49571448437641</v>
+        <v>46.80426167332151</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>68.24935371214129</v>
+        <v>50.20845250133682</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.21241972426327</v>
+        <v>29.1326760521306</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>54.23402698261583</v>
+        <v>40.54972116929098</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-10.67035727418485</v>
+        <v>12.32631353133698</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.4080704491226</v>
+        <v>35.66521694085337</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.6577505574231</v>
+        <v>43.38381258540626</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>69.09962969529387</v>
+        <v>49.09526391924651</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.18432072750362</v>
+        <v>24.57821463488374</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>46.52126656105965</v>
+        <v>34.63784432114805</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-9.445564468143282</v>
+        <v>10.79478508969327</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>24.43439413664522</v>
+        <v>31.10428964720217</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>44.65806539166296</v>
+        <v>35.63640272127584</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>61.68570875511259</v>
+        <v>44.34087057781901</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>4.024847021664479</v>
+        <v>16.50995526738332</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>38.30986298568976</v>
+        <v>37.62229627597738</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>48.39271047278173</v>
+        <v>36.77553599858823</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>51.17931302058064</v>
+        <v>37.72573675426031</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.977129644089626</v>
+        <v>17.15113864142261</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.22999377984058</v>
+        <v>31.55259230391411</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-4.238833972745361</v>
+        <v>15.37043887772013</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>40.79147170530088</v>
+        <v>41.0979134276244</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>70.24074857156238</v>
+        <v>52.38514894104414</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>69.22185083677596</v>
+        <v>51.85674026994685</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-2.629564901343659</v>
+        <v>15.47835933815014</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.26198891084533</v>
+        <v>38.41082884654805</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-6.693954814597625</v>
+        <v>13.15672362623596</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>38.32834945070731</v>
+        <v>39.82900755004329</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>68.69050304717082</v>
+        <v>49.81234026082073</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>68.76511340762148</v>
+        <v>50.21462644731731</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-7.224648942093427</v>
+        <v>14.30934952840697</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.60805567545094</v>
+        <v>35.80249700520661</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-11.91732465878895</v>
+        <v>8.966724487373416</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.20920567383267</v>
+        <v>37.79417004745839</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>64.09137039210236</v>
+        <v>47.38493158501538</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>67.20121730735286</v>
+        <v>49.42752829260215</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-6.091180479343251</v>
+        <v>13.87950338131854</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.96556275643291</v>
+        <v>35.49751524000563</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>38.1723406655826</v>
+        <v>31.19696029870564</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.2347907806717</v>
+        <v>31.31040027196703</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>2.358762147499601</v>
+        <v>14.96783479492674</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.56684969334766</v>
+        <v>29.90427134284998</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.9502094654209</v>
+        <v>31.8434487126577</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>46.64871892622305</v>
+        <v>36.64857929078166</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>65.73191985556275</v>
+        <v>48.59637366839563</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>66.67128942497212</v>
+        <v>49.18583668177251</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-3.680374701572706</v>
+        <v>17.37255830174428</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.13897122867834</v>
+        <v>46.41697820949572</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>79.40163153040733</v>
+        <v>60.15592164090062</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>81.66995383577563</v>
+        <v>60.98015767684871</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>59.38897605409709</v>
+        <v>44.66968938536401</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>65.34261412744777</v>
+        <v>47.54702939724382</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-8.212506414034415</v>
+        <v>15.95259001263622</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.19393470861916</v>
+        <v>45.31897894530906</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>75.91475118107375</v>
+        <v>56.3829297565786</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>80.56532094452632</v>
+        <v>58.37289243746164</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>49.80890040385327</v>
+        <v>38.3328336974417</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>58.33097017197922</v>
+        <v>41.27532140558564</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-7.912912258632634</v>
+        <v>15.57145865664088</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>38.40564255805613</v>
+        <v>43.27669430935726</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>65.29071613406045</v>
+        <v>50.49790592547733</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>76.14559291521185</v>
+        <v>55.05045758058453</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-0.08601766342146533</v>
+        <v>9.302039378146862</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.83625814576801</v>
+        <v>23.67732500569578</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>27.56563759154766</v>
+        <v>21.95351927828773</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.77595531632853</v>
+        <v>24.09016288871259</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>4.960922336329887</v>
+        <v>13.4347808770429</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.91206064989523</v>
+        <v>26.36877787317673</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-2.967710692623861</v>
+        <v>12.98417688674528</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>37.67696513030082</v>
+        <v>38.41325555570189</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>57.57124254997447</v>
+        <v>45.22493536323881</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>57.0847202574366</v>
+        <v>44.64160084206672</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-5.483384605770997</v>
+        <v>11.9244400348047</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.74142978753468</v>
+        <v>36.89518417926865</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-5.545921404089576</v>
+        <v>11.94819701994864</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>34.71974007991543</v>
+        <v>37.30043433504635</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>54.76067729571677</v>
+        <v>44.02463922216545</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>56.52914420786514</v>
+        <v>44.69896004790586</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-12.12133257924863</v>
+        <v>10.21065010610919</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>27.07693660638025</v>
+        <v>32.52648228841161</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-9.402848834061842</v>
+        <v>8.06790684132433</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>25.1334694906697</v>
+        <v>29.1499301495848</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>45.52794821224896</v>
+        <v>35.77099930121076</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>53.05291586209374</v>
+        <v>40.47148680174278</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-10.63562497009181</v>
+        <v>9.500994278020219</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>19.1505459597396</v>
+        <v>27.28606760441476</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>27.26166153753951</v>
+        <v>25.07656748118305</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.77339328639142</v>
+        <v>26.41286104203751</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>0.525577631899889</v>
+        <v>12.12116173433494</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>19.18108477030922</v>
+        <v>22.55326135758241</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>23.05486515516262</v>
+        <v>22.14926075006737</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>33.96654029545255</v>
+        <v>26.88455662736738</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>56.50284956274994</v>
+        <v>43.90160853647313</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>58.58623952723161</v>
+        <v>44.72959178973402</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-4.523194191119931</v>
+        <v>15.51366809308632</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.97985190259912</v>
+        <v>43.87178560731014</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>67.65029100018253</v>
+        <v>51.82638115818777</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>71.22111595652511</v>
+        <v>53.42632116181636</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>46.63196492020187</v>
+        <v>38.17702630775993</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>55.31615827613037</v>
+        <v>42.19904440820206</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-11.51924243773935</v>
+        <v>13.24214156303649</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>36.38193286788842</v>
+        <v>40.32062431233426</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>59.95713629749433</v>
+        <v>46.91118237977918</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>67.93840990566648</v>
+        <v>51.31342129908046</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>32.66727042942679</v>
+        <v>28.64003815018654</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>47.39250317633162</v>
+        <v>34.81451431352021</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-12.51300794979845</v>
+        <v>10.07043966324936</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.22145575738062</v>
+        <v>30.71626888287587</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>43.22474648769125</v>
+        <v>34.89254410298555</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>61.00452888298138</v>
+        <v>43.76079908225778</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.725</v>
+        <v>17.262</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.659</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.554</v>
+        <v>18.318</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.975</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.394</v>
+        <v>2.031</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.802784560200909</v>
+        <v>17.93236695434002</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.537471385779</v>
+        <v>20.39888762172136</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.95976851078756</v>
+        <v>18.74751988851505</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.4931579852173</v>
+        <v>19.15638620407137</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.77265410033358</v>
+        <v>24.78283224493324</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.0169670383993</v>
+        <v>29.37009360702908</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.34944383473189</v>
+        <v>16.16111821039113</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.9534586848007</v>
+        <v>22.30006458903333</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.43513609453516</v>
+        <v>26.51081641604756</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.73825074887285</v>
+        <v>26.50697731755143</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.12719296876799</v>
+        <v>23.15688346883218</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.80697422413947</v>
+        <v>37.38049416432337</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.426643590727402</v>
+        <v>12.94103424982277</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.26926162077188</v>
+        <v>18.10437583311595</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.48501725149812</v>
+        <v>23.38642106084079</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.7553612520664</v>
+        <v>24.15086464451101</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.963957145245754</v>
+        <v>21.13850636637366</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.99736309279301</v>
+        <v>31.77761099317909</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.857570153171604</v>
+        <v>12.61562704412979</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.46870927443604</v>
+        <v>18.06851325554854</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.16253447266669</v>
+        <v>21.61668481777488</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.0937731361406</v>
+        <v>22.52947210970563</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.18832146824069</v>
+        <v>19.6170198207622</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.24691292977284</v>
+        <v>28.49623348995273</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.87488951953249</v>
+        <v>26.200395620823</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.02047250579153</v>
+        <v>28.08702664089265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.87839093394892</v>
+        <v>25.88940771729896</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.97970067539956</v>
+        <v>29.80835703292476</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.95080203557136</v>
+        <v>25.46250750098242</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.39309635774196</v>
+        <v>27.33972925612382</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.1480312032527</v>
+        <v>41.55000046456708</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.65082233140324</v>
+        <v>44.6480813032189</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.66763087656277</v>
+        <v>28.27689149464979</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.58439519590144</v>
+        <v>44.76966080137603</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>61.15470365978238</v>
+        <v>52.15587631639067</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>62.84656225591496</v>
+        <v>54.11776947958634</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.81843593598003</v>
+        <v>32.10512924657696</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.0389616017914</v>
+        <v>39.46308848682376</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.1234568754207</v>
+        <v>23.54008815034583</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43.13970288018175</v>
+        <v>40.11211854253646</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.92496623842715</v>
+        <v>46.19117707407543</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.32895165426918</v>
+        <v>50.18132558738758</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.65691342441558</v>
+        <v>27.5817333272763</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.06497436778499</v>
+        <v>35.72838124465479</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.37661428406571</v>
+        <v>25.22366698073152</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.52609633212182</v>
+        <v>41.38849326129268</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48.9407094070172</v>
+        <v>44.50731575818869</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>56.57483240405234</v>
+        <v>49.02975072364971</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13.94036376770778</v>
+        <v>22.22639079130914</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.51848379772063</v>
+        <v>38.6169510641528</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.85676881141389</v>
+        <v>31.3767176049031</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.62084068003652</v>
+        <v>33.9978827582712</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.59682899233841</v>
+        <v>24.49346500380907</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.64740871680648</v>
+        <v>34.16736122496028</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>12.96902569831343</v>
+        <v>22.49741116337324</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.0270531431582</v>
+        <v>42.15683745493659</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.89247868345488</v>
+        <v>40.73878124826285</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.45600333566755</v>
+        <v>40.831615575943</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.60141761611372</v>
+        <v>22.61986496755944</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.94331310253639</v>
+        <v>41.97949675120243</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.26631661655339</v>
+        <v>20.97665865498871</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.94169345048401</v>
+        <v>39.08613515858835</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>45.86462858143406</v>
+        <v>41.25078432193211</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>45.62538332241796</v>
+        <v>41.07925852689058</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>12.0221783569596</v>
+        <v>21.17644087649316</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.6888723993123</v>
+        <v>36.14887563068186</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.996736440669093</v>
+        <v>21.09227586095857</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.3025748990499</v>
+        <v>40.24459807294441</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.94384660699802</v>
+        <v>39.17071950739458</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>45.9864897728085</v>
+        <v>40.75204175066921</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.63836324960024</v>
+        <v>21.30354408464584</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.40010348075306</v>
+        <v>32.87851414519459</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.92252202311852</v>
+        <v>29.19925210314625</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.29383369691092</v>
+        <v>30.15258652877787</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15.17437162024199</v>
+        <v>23.18857427549726</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.98666136190572</v>
+        <v>33.18790999108219</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.77544060111832</v>
+        <v>31.47857061200279</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.0949855512864</v>
+        <v>36.7493492232995</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47.4419717276066</v>
+        <v>43.19157809303437</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.71402391523833</v>
+        <v>44.9489447929182</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>15.66094997621068</v>
+        <v>23.74547086399781</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>51.84403124471058</v>
+        <v>47.84522331556243</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>57.93642544792311</v>
+        <v>51.64154143960577</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.42268325947294</v>
+        <v>51.83253317379152</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.8519146217022</v>
+        <v>37.762801571003</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47.59382421837665</v>
+        <v>42.27571838846417</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>12.93897238736517</v>
+        <v>21.9052316061607</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47.89518127623015</v>
+        <v>43.53197523359115</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.86316656563919</v>
+        <v>47.25033573541553</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.11411570736222</v>
+        <v>48.50912195174367</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.16005664324344</v>
+        <v>31.56443074443056</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.06888337399566</v>
+        <v>38.29223383207589</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>13.81328685023462</v>
+        <v>23.23250495231174</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43.32785736622485</v>
+        <v>40.49517591089943</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.21295052202985</v>
+        <v>44.09833771202828</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>55.95652817250949</v>
+        <v>49.04646451532599</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.66853149721298</v>
+        <v>21.31735862091048</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.56664519944692</v>
+        <v>34.18023034981857</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.61604474873914</v>
+        <v>29.42900836556075</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.90911841440439</v>
+        <v>29.97611020205122</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>15.65097794849161</v>
+        <v>25.17685753844392</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.52185394035632</v>
+        <v>35.45304777348751</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.84127046518077</v>
+        <v>23.65657872676733</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.97253738454997</v>
+        <v>42.91757275503369</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>52.1104916615832</v>
+        <v>45.7885811984938</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>50.22197628435913</v>
+        <v>45.03010518403961</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15.69716622116448</v>
+        <v>23.83055942102472</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.51747984537317</v>
+        <v>43.13070383298879</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.59199418237112</v>
+        <v>21.30161325833938</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.60668758001647</v>
+        <v>41.04108372843034</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.71201477994257</v>
+        <v>41.94062429218578</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>46.46760526664393</v>
+        <v>41.49150795207768</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>13.7555642299092</v>
+        <v>23.3141137804743</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.43440584248421</v>
+        <v>41.7748832846646</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>11.97534504243863</v>
+        <v>19.5358557357121</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.99997982422826</v>
+        <v>40.25534590897833</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.9816043644018</v>
+        <v>42.5975951045296</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>47.63789094263233</v>
+        <v>43.02416828181622</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13.59468886423873</v>
+        <v>21.72619485918359</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.99364002534785</v>
+        <v>39.60849758373215</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.52290343262489</v>
+        <v>32.42930787142962</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.38483089815985</v>
+        <v>33.0525790317246</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>16.99358233080871</v>
+        <v>24.19745019748553</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.03696616708413</v>
+        <v>33.63919311147154</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.23072784910367</v>
+        <v>33.39332905023419</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.29421044657964</v>
+        <v>38.01975128974851</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>56.03624613885682</v>
+        <v>49.75204991948216</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.46457912729019</v>
+        <v>50.92551285497277</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>18.30589482509389</v>
+        <v>24.53658234419195</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.31272224950705</v>
+        <v>46.15948888823554</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.01127260062688</v>
+        <v>55.15519270283328</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.44994478707372</v>
+        <v>55.56527636837946</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>50.53620496133632</v>
+        <v>46.09390970646875</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.34201242859123</v>
+        <v>47.72087514568</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>15.54180247454041</v>
+        <v>22.88712485005639</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.11019687595996</v>
+        <v>45.16886131747327</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.43191515887904</v>
+        <v>51.7370817378348</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>63.72063593527175</v>
+        <v>52.1770537009187</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.19569420358933</v>
+        <v>38.4167725312103</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.38236711039001</v>
+        <v>41.05167920981663</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.72431239277507</v>
+        <v>23.37264007593124</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.18255873751943</v>
+        <v>46.06568897740597</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.68929186990115</v>
+        <v>49.78137726979826</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>61.53226718942875</v>
+        <v>50.67637819723977</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.15977679654573</v>
+        <v>18.74292279248412</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.0649955326377</v>
+        <v>19.71567253465849</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.4774890837572</v>
+        <v>28.29818778387416</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.03201601946797</v>
+        <v>28.79676877710506</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.85445056406007</v>
+        <v>26.13413230614259</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.12776943794515</v>
+        <v>28.83948451584108</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.16657362601403</v>
+        <v>18.30752937094497</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.37295657229647</v>
+        <v>23.86562172197531</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.94822370782207</v>
+        <v>37.34154261940652</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>41.10619601119208</v>
+        <v>37.42982856674592</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17.30058330004318</v>
+        <v>24.61303361390552</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.91215227526286</v>
+        <v>38.66646651111228</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.185959801595907</v>
+        <v>15.5249718729989</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.76117337223262</v>
+        <v>20.84198482490471</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.53964466132953</v>
+        <v>34.61294544320763</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.4560976371399</v>
+        <v>35.1289981166235</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>11.56806829478049</v>
+        <v>20.93698644517151</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.00198014206005</v>
+        <v>31.2660770555578</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.357337147429931</v>
+        <v>15.99175972810247</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18.60561482704247</v>
+        <v>20.84327959539367</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.52219440419603</v>
+        <v>33.36079073279737</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>37.19883328904849</v>
+        <v>34.17471584956039</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.8287898011654</v>
+        <v>18.5400823604413</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.57772397349428</v>
+        <v>26.45038433739159</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.3455351710337</v>
+        <v>22.05088395434517</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.39344900405214</v>
+        <v>23.07288716237742</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>15.8229349383849</v>
+        <v>20.2794863607319</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.29832587082466</v>
+        <v>24.60282084504511</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.87872097970543</v>
+        <v>22.29738623334572</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.7972729483906</v>
+        <v>23.93531079077572</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>46.28123357175765</v>
+        <v>42.09702378080172</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.55619176176495</v>
+        <v>45.83959581684491</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.41438063321141</v>
+        <v>29.06008860408089</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>47.85647316913092</v>
+        <v>45.35292773260233</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.65283367429653</v>
+        <v>51.81934935436978</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.82836711842991</v>
+        <v>54.55470965162327</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.76186993714704</v>
+        <v>32.35021978166905</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.94446812066967</v>
+        <v>40.10968677687453</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17.14945521704371</v>
+        <v>27.19764254173847</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>40.27743055978183</v>
+        <v>39.84850843965678</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.7195971241719</v>
+        <v>43.72955201943395</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>58.82208537369879</v>
+        <v>49.99780430860425</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.32005687941804</v>
+        <v>23.53031552744953</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.68341910562393</v>
+        <v>32.04176181684303</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>15.30888708744736</v>
+        <v>24.7040819850241</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.4745866995908</v>
+        <v>36.73338650289855</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.6130475014595</v>
+        <v>39.55424473490891</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>52.01252850784557</v>
+        <v>45.46543997822414</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.815712329764171</v>
+        <v>16.10230904200971</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.19290262800818</v>
+        <v>27.8725002387244</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.82106135568089</v>
+        <v>24.77366755537609</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.1857556261159</v>
+        <v>24.86417477777994</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.34824445097451</v>
+        <v>23.33236363078489</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.0054804595221</v>
+        <v>33.0823763353181</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.90103933279439</v>
+        <v>22.52504099942447</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.59941926825165</v>
+        <v>43.28132987761138</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.33132998703967</v>
+        <v>44.33818642567388</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>50.6699684992635</v>
+        <v>43.96235438858792</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.0679027715255</v>
+        <v>25.22518730198921</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.63268369693219</v>
+        <v>45.29157566285713</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>13.33432609591514</v>
+        <v>18.71988190153799</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.24682335917613</v>
+        <v>38.02942544104564</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.03481599794966</v>
+        <v>44.73409826492843</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.0438022903877</v>
+        <v>45.81185642132549</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.24794892098567</v>
+        <v>24.14440135262655</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.49877463049035</v>
+        <v>43.47350026666529</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.15777211772776</v>
+        <v>22.08820733043321</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.57509290977181</v>
+        <v>44.24415019975368</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.74819743366359</v>
+        <v>47.2077451187325</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.5260799029939</v>
+        <v>47.44544954424695</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>15.0718690048907</v>
+        <v>23.5420883878152</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.48421030544799</v>
+        <v>43.1725240551537</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.42762491590556</v>
+        <v>34.23963766463877</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.13821455089454</v>
+        <v>34.86853560055723</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.21010995983002</v>
+        <v>24.31098596007149</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.43785508178239</v>
+        <v>32.82232170710652</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.73312869198159</v>
+        <v>32.89765283165106</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.64409077249074</v>
+        <v>36.45009970456768</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>63.13648002404181</v>
+        <v>54.11022616176113</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>64.41944362021013</v>
+        <v>55.09889019551096</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.74905184354231</v>
+        <v>26.09278490906607</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>49.54130039070394</v>
+        <v>47.06819443938473</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>68.72532173834978</v>
+        <v>57.71875181121958</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>70.17698520460127</v>
+        <v>57.7768929780753</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>57.20367142826168</v>
+        <v>51.21008913037686</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.5655232285543</v>
+        <v>24.91691754298257</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>45.5937879896705</v>
+        <v>43.76300952958944</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>62.90628179815593</v>
+        <v>52.94374910577496</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>66.65102000203697</v>
+        <v>54.35498315980028</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.16952868274213</v>
+        <v>45.89055594511115</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.29942305851293</v>
+        <v>47.07911923977021</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.16485029696494</v>
+        <v>26.60465734574478</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.89269787005838</v>
+        <v>48.17814229399418</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>63.0313348317584</v>
+        <v>55.10740516835355</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>67.01029395510893</v>
+        <v>55.70992746888199</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.145791161369957</v>
+        <v>19.17601838921941</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.60799792808044</v>
+        <v>35.94382699238265</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.70985998405168</v>
+        <v>27.26844804427279</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.16072849643012</v>
+        <v>27.7837190615796</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>17.29308938172353</v>
+        <v>24.01975038918415</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.60477780862414</v>
+        <v>37.42279791240183</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>12.87100840903435</v>
+        <v>22.20966141848361</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.24769073288542</v>
+        <v>42.24064812179115</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>47.84519582533554</v>
+        <v>42.39344171037622</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.04948824755574</v>
+        <v>41.99310002360886</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.71297282975956</v>
+        <v>25.34629168198243</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>48.18807132934037</v>
+        <v>46.71245619380119</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.62191842147394</v>
+        <v>16.82856342430043</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.05776829355319</v>
+        <v>35.52567518993798</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.71578841020389</v>
+        <v>44.31416945118033</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.93742736225083</v>
+        <v>44.13959967344157</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.37867080150613</v>
+        <v>23.49492385388821</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.16677795813659</v>
+        <v>45.22238001520068</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>9.969006378579319</v>
+        <v>17.90063763134451</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.30827140933777</v>
+        <v>41.15116484458552</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.52195384717952</v>
+        <v>47.39495647297746</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.11245648570365</v>
+        <v>47.91948119501265</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.10874383970731</v>
+        <v>23.78937032105481</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.2284661691359</v>
+        <v>43.67974209976308</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.23286945847352</v>
+        <v>35.98340728898583</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.87192538545026</v>
+        <v>37.2954144639779</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.1752420392766</v>
+        <v>24.42548809664792</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.72265987863831</v>
+        <v>35.77416519303886</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.45870445562473</v>
+        <v>35.02830710215509</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.02498850505044</v>
+        <v>38.78855511115305</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>57.17068316357135</v>
+        <v>50.75738807409083</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>57.92434567342868</v>
+        <v>51.84759201824323</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.81051471571506</v>
+        <v>25.25976598059221</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>59.41791789379651</v>
+        <v>51.83803111869437</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.28804609644445</v>
+        <v>52.3049311101921</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.14187573408435</v>
+        <v>46.12844931747546</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>55.48747557826617</v>
+        <v>47.91434375945786</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.51234879479367</v>
+        <v>24.67224132035142</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>48.39291242640673</v>
+        <v>45.83205382155765</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.40175638767813</v>
+        <v>50.0797470640308</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>58.81190897050368</v>
+        <v>50.25097779174438</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.0223137503751</v>
+        <v>40.1448765664551</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>49.25119198552456</v>
+        <v>43.30326318058196</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.20326652228406</v>
+        <v>25.79403712413531</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>49.15892507523971</v>
+        <v>48.22063655078593</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>55.60568837728588</v>
+        <v>48.53155412883252</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>57.95974531917483</v>
+        <v>49.564876389614</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.048093020729603</v>
+        <v>16.9846290906753</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>14.27840959418806</v>
+        <v>19.36521040039137</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.63986539629752</v>
+        <v>19.9019689145547</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.92252332067318</v>
+        <v>20.00127917514578</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.94988469638758</v>
+        <v>22.7711028913525</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.52612721071007</v>
+        <v>29.54488183251494</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4.849744566108257</v>
+        <v>13.97735578234867</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.38588581876434</v>
+        <v>18.91953217452478</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.64639987071601</v>
+        <v>26.5564095440308</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.14067946135503</v>
+        <v>26.59773454212394</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.28432650953757</v>
+        <v>20.776350999378</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.96301586776808</v>
+        <v>35.10832332154426</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1.329298462948113</v>
+        <v>9.956780147529845</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.28558553649794</v>
+        <v>14.28727357788439</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.11127879245235</v>
+        <v>23.220344157962</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.49177891940884</v>
+        <v>23.5434614953665</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.21609256073607</v>
+        <v>20.11060730004775</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.27125819247411</v>
+        <v>30.51425975686072</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.8346401689667573</v>
+        <v>9.844965820282859</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.67796540059497</v>
+        <v>14.06516764279603</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>18.62253261926615</v>
+        <v>19.88506744541936</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.2486981222818</v>
+        <v>20.6528261364822</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>11.60186806424078</v>
+        <v>19.57400727300818</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.48609807048533</v>
+        <v>29.13273492665095</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.63485393537513</v>
+        <v>26.15661753212105</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.52475968949729</v>
+        <v>26.95831527295309</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>14.2098530197293</v>
+        <v>22.65990297464322</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.84717820620453</v>
+        <v>27.49645025978197</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.70802428176216</v>
+        <v>27.13078456285381</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.42341296954817</v>
+        <v>29.28562094411223</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.00055810876904</v>
+        <v>37.84604350313592</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>44.66315563736156</v>
+        <v>38.99952981870939</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.23761076245949</v>
+        <v>24.76016531300978</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.67543000309941</v>
+        <v>42.21174561448273</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.41931892662537</v>
+        <v>49.36797128433355</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>59.15543619439813</v>
+        <v>50.14554432132896</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.53572028959887</v>
+        <v>32.49856888390605</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.31725132185969</v>
+        <v>36.9418660812961</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.99967768731081</v>
+        <v>22.69547961110148</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.2594460264626</v>
+        <v>39.94673644988272</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.41829316122916</v>
+        <v>45.09495281623498</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.93388239307518</v>
+        <v>47.21304676218928</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.9272365627045</v>
+        <v>27.27399824660607</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.47710507531659</v>
+        <v>31.84074036548748</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.65156236726872</v>
+        <v>22.97358025627986</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.02564551970026</v>
+        <v>41.41689079240908</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.79580465086875</v>
+        <v>44.41353709791055</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.57621390390524</v>
+        <v>46.54783373698965</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>9.680224408767973</v>
+        <v>13.40911090212094</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.12510106481172</v>
+        <v>15.67336983328853</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>12.00563368939479</v>
+        <v>16.15744973162273</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.50172245591149</v>
+        <v>16.2848644122799</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.9010417037266</v>
+        <v>20.38580335017503</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.41958644111506</v>
+        <v>20.55960539092634</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>7.437126886303709</v>
+        <v>14.74580779877228</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.31382952424714</v>
+        <v>18.59401773142585</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.67877459659873</v>
+        <v>21.75883135807116</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.25817729546884</v>
+        <v>21.45666849247096</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3.383327051152779</v>
+        <v>10.79212581574534</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.90352556235494</v>
+        <v>15.30728696660796</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>4.935703606464113</v>
+        <v>14.29898775617899</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.48290158068576</v>
+        <v>18.19477004639562</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.04598910520569</v>
+        <v>18.8929092376188</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.09644476452344</v>
+        <v>18.8431515570083</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.2142260143155</v>
+        <v>11.10098596962906</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>8.29336064634278</v>
+        <v>13.08949064390538</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2.806376653687561</v>
+        <v>10.7039197254704</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>11.05996285473613</v>
+        <v>13.31038961850525</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.45381551550856</v>
+        <v>14.49203051589599</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.14608133309797</v>
+        <v>15.03596438356104</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.466570308447164</v>
+        <v>11.82033056787542</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.13012211094368</v>
+        <v>13.95202015390773</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.93917120437905</v>
+        <v>18.87642672439789</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.78023394062846</v>
+        <v>19.93613724956908</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.876578863881257</v>
+        <v>14.93699643821273</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>8.046867242550697</v>
+        <v>15.59852397262422</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.99042092869689</v>
+        <v>20.88713317169414</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.65894677643387</v>
+        <v>23.01136138956594</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.90099991289285</v>
+        <v>22.75263841206482</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.60765920573591</v>
+        <v>26.16619392920581</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.544174673489987</v>
+        <v>17.08021226281575</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.54312477182847</v>
+        <v>24.77313425574896</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.56841327528355</v>
+        <v>30.15790174729816</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.43997782437059</v>
+        <v>37.19015567290692</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.23339554324578</v>
+        <v>18.1332919564773</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.35128662709726</v>
+        <v>24.10871612861068</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>5.132416255353931</v>
+        <v>16.8381736687495</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.98478627720039</v>
+        <v>21.56826545472885</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.9883350375044</v>
+        <v>26.74261994956611</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.76097861764566</v>
+        <v>36.68891249894357</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>9.40815655105078</v>
+        <v>15.04413573352803</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.18484858733899</v>
+        <v>16.95779523951375</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.973512145146074</v>
+        <v>18.71597382934302</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.50456112173987</v>
+        <v>22.67590861763726</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.14105909645337</v>
+        <v>24.54502769262507</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.1362469285232</v>
+        <v>35.84255150098986</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>14.02931815414157</v>
+        <v>22.67089449347074</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.86911028824309</v>
+        <v>36.74604173067269</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.11049253617931</v>
+        <v>35.2812009384407</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>40.6907280680077</v>
+        <v>35.65277924206777</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.84989095837738</v>
+        <v>22.26184600734676</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.74638684421703</v>
+        <v>30.89329717901269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>14.90901317032156</v>
+        <v>24.0375886365526</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.93429849607494</v>
+        <v>40.94319196189886</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>56.77932654476458</v>
+        <v>49.11979602304912</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.16042159688687</v>
+        <v>48.92584354369077</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16.12926205080038</v>
+        <v>21.76375295562235</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.39654040541539</v>
+        <v>37.51595006419159</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>10.37551534002941</v>
+        <v>19.3905798433693</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.55796946142766</v>
+        <v>38.2844671045208</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>52.53742314985494</v>
+        <v>44.4963270529976</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>52.12502911009345</v>
+        <v>45.41883292493981</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.77232900586324</v>
+        <v>21.26229198637233</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.74937565620006</v>
+        <v>36.4167915555803</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>6.43878686324215</v>
+        <v>17.04453826465203</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.88585412781155</v>
+        <v>35.50169879907493</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>47.65128360152342</v>
+        <v>41.82364232227916</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.20280657335609</v>
+        <v>42.47534406545334</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.63874473807739</v>
+        <v>19.96245688970616</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.05600298942282</v>
+        <v>33.57485202439993</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.22392383033043</v>
+        <v>29.40067454487072</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.67483755825101</v>
+        <v>29.94591173448417</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.34336048621323</v>
+        <v>22.65331359670844</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.36264882978976</v>
+        <v>32.17529402549188</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.64783309162138</v>
+        <v>32.07099451167792</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.5212999164571</v>
+        <v>36.25286129624584</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.67181849929631</v>
+        <v>44.19484589617387</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.89016136442636</v>
+        <v>44.13767955330413</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.3048237514963</v>
+        <v>24.19321023802558</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>49.01500690622532</v>
+        <v>43.3320234054263</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.88779716412247</v>
+        <v>51.73960297626115</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>61.9270170672881</v>
+        <v>52.39619943430549</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>46.37221142363627</v>
+        <v>40.63904129155851</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48.64178510744048</v>
+        <v>41.6140689347355</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.03620798689373</v>
+        <v>23.23317397627724</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>47.36718856712558</v>
+        <v>43.10503756256379</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>57.90872115765004</v>
+        <v>49.09501127740189</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>58.54143837460354</v>
+        <v>49.6486249550035</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.92706803825765</v>
+        <v>32.08915328245047</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>39.67905555596726</v>
+        <v>33.81627940165083</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.85740345031268</v>
+        <v>22.78415896532654</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.7598558120556</v>
+        <v>43.36555949810482</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.15863552277976</v>
+        <v>46.80580439816267</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>55.93150287049198</v>
+        <v>47.42413877778173</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.456646752306181</v>
+        <v>14.85370057271311</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.26201851330489</v>
+        <v>15.984784879941</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>13.24009018857141</v>
+        <v>15.95048787702396</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.9622902738382</v>
+        <v>16.09281586296587</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.71016022145989</v>
+        <v>20.4107413099084</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.7945173712542</v>
+        <v>22.6108309909069</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>7.445200508208114</v>
+        <v>14.70542841226887</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.21644210110755</v>
+        <v>18.9101858578821</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.69997875207957</v>
+        <v>21.93944141987993</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.78215007154355</v>
+        <v>22.38004289125083</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>12.8900025929519</v>
+        <v>18.4152567161211</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.78082306762055</v>
+        <v>29.37906554587676</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.039067125491318</v>
+        <v>13.39527910213546</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.01955061222264</v>
+        <v>17.01462435738473</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.92611630392226</v>
+        <v>20.47071038927893</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.37031987897424</v>
+        <v>21.14475483221806</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>8.165016342573203</v>
+        <v>17.29240202192753</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.6638122899378</v>
+        <v>20.88885500127812</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>2.984905254934528</v>
+        <v>11.02342041929782</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.30095496879954</v>
+        <v>14.29395982094099</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.36456912034551</v>
+        <v>16.94095712550732</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.71480464846216</v>
+        <v>17.9071082661081</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.518610315476145</v>
+        <v>13.82481103966422</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.05648199800146</v>
+        <v>15.9950803500427</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>15.20784307950419</v>
+        <v>18.95562246022389</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.59867699908796</v>
+        <v>19.66626455067667</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.72189660889786</v>
+        <v>18.28314381162823</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.76208046543776</v>
+        <v>21.48873916428998</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.89742529542918</v>
+        <v>19.51351938909353</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.66543035457762</v>
+        <v>19.89080649340818</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.7680341973094</v>
+        <v>31.43010401650243</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.54019497319678</v>
+        <v>33.76573769846529</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.76531229764556</v>
+        <v>27.06821479190426</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.98690771643079</v>
+        <v>38.84974878585327</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>48.38130961216</v>
+        <v>43.08818084294833</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>53.69096818881495</v>
+        <v>45.51403436663955</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.00964917189164</v>
+        <v>20.94999253685623</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.82114927750128</v>
+        <v>29.00291664008657</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.91064495186217</v>
+        <v>25.54755768534556</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.30745804764796</v>
+        <v>32.23307920252134</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.63872002474413</v>
+        <v>35.02156999492599</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.07180884582241</v>
+        <v>43.50593262922255</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.8344321024975</v>
+        <v>14.8018954471414</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.31813093002248</v>
+        <v>20.4187972897023</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>15.87911589009733</v>
+        <v>22.36424705668212</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.26105268980967</v>
+        <v>30.29330290698569</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.2955260016855</v>
+        <v>29.49725448273545</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.3376118239937</v>
+        <v>37.67009484938553</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>4.787879745045704</v>
+        <v>10.27412885063649</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>6.711572773480768</v>
+        <v>10.55267982232086</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5.2509002441947</v>
+        <v>11.51732668337599</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.159295166377181</v>
+        <v>11.40010399027001</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.27115408242233</v>
+        <v>21.74509435401904</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.17053726766628</v>
+        <v>30.08294803819807</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>4.449836211421129</v>
+        <v>9.946786550368611</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.730375475059244</v>
+        <v>11.14274391458348</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.51224876262526</v>
+        <v>14.12101525016039</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>12.212599733058</v>
+        <v>14.33515032221075</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.95958642737525</v>
+        <v>20.39463396248195</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.97856027513676</v>
+        <v>35.98849938720482</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>4.793143279310758</v>
+        <v>15.05454566590225</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.612446943785745</v>
+        <v>15.51011976653709</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>10.07228647151835</v>
+        <v>14.67725311607977</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>12.01023763010058</v>
+        <v>16.36547419738328</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>12.96376726609652</v>
+        <v>21.17692386919537</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.21563914976793</v>
+        <v>36.59223812400277</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2.663290280035437</v>
+        <v>13.24076223461049</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.31644178858356</v>
+        <v>14.33522427153725</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>9.394291782268247</v>
+        <v>13.29863572865589</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.62527188142762</v>
+        <v>16.0350445593769</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.97905862311341</v>
+        <v>19.98249926993726</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.8077797261294</v>
+        <v>34.0854965310538</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.47016058186116</v>
+        <v>29.03817009658296</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.91757192071884</v>
+        <v>30.46816669683102</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.47654802975492</v>
+        <v>25.11763157662113</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.01103576954166</v>
+        <v>31.5536796854259</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.02655101470596</v>
+        <v>29.09652932911201</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.04919192014596</v>
+        <v>33.30809405659249</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.83191489830705</v>
+        <v>40.64031859427926</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>47.11074651188402</v>
+        <v>41.25461030364038</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.61628575166397</v>
+        <v>25.10450041776375</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.32146263815797</v>
+        <v>45.45679010967135</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.32130160372474</v>
+        <v>51.03117530681072</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>59.42489158871989</v>
+        <v>51.77481270252646</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.82069935707585</v>
+        <v>39.4503856629607</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>44.98341525856501</v>
+        <v>40.32719111825368</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.83019077983302</v>
+        <v>25.20257195800133</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>49.29353177289276</v>
+        <v>46.26421166256459</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>56.54625694343154</v>
+        <v>48.77912150557609</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>58.18706438395189</v>
+        <v>49.21232064388833</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.82541951724262</v>
+        <v>34.38730615015108</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.73085710709933</v>
+        <v>35.86771136254846</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.99931500755678</v>
+        <v>25.32857809590212</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>48.56815054313603</v>
+        <v>46.18802134621397</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>55.3761947581969</v>
+        <v>48.69379189797267</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>57.67436657809131</v>
+        <v>49.65178015744311</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.48721889373093</v>
+        <v>18.70385558317417</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>18.3037949183558</v>
+        <v>20.12850869136134</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.89019197030795</v>
+        <v>20.91602418885433</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.41378076229351</v>
+        <v>20.12703607581155</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.476775961811992</v>
+        <v>17.82854821234254</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.82822940917043</v>
+        <v>18.96018750162717</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>11.52191229117111</v>
+        <v>15.67881358925809</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.39603425440679</v>
+        <v>21.01938357229758</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.63006297424623</v>
+        <v>25.27793073821989</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.76857210306987</v>
+        <v>25.20962447044746</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>7.382231994070644</v>
+        <v>16.09939325527114</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.89995121239181</v>
+        <v>20.83193060185285</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.33990141443788</v>
+        <v>14.85487363411876</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.34731374312786</v>
+        <v>19.8785349318076</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.2915930540156</v>
+        <v>25.34562891423376</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.37732684014162</v>
+        <v>26.20603008494485</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.50508029506728</v>
+        <v>15.15596570763749</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.58488935539332</v>
+        <v>17.97564661505823</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.406509916241163</v>
+        <v>13.29195250219048</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.26196394809596</v>
+        <v>17.33526229246248</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.90443386621431</v>
+        <v>20.53319170959053</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.76064746415017</v>
+        <v>21.83728974866038</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>4.933871568270103</v>
+        <v>13.10490754823174</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.6467534383282</v>
+        <v>14.98370976799336</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.60217670958311</v>
+        <v>16.63253620627052</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.06661038764555</v>
+        <v>17.36561360956534</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.56229903303964</v>
+        <v>18.18060557819074</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.45585521666176</v>
+        <v>22.6469642446361</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.02623172816696</v>
+        <v>21.67132310189234</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.10597658493898</v>
+        <v>23.5456291310542</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.37817648219277</v>
+        <v>22.07565724903032</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.88549254152687</v>
+        <v>26.75723962374587</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.74075518194758</v>
+        <v>25.22621691052067</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.64134747994187</v>
+        <v>34.44900698323855</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>46.10812568971683</v>
+        <v>40.15644332646801</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>49.21048887965506</v>
+        <v>43.4920789904661</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.60064219132183</v>
+        <v>17.90280979982901</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.55443695318417</v>
+        <v>23.91442049221371</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.02451502598975</v>
+        <v>23.32091932185343</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.89127293834634</v>
+        <v>33.78995340822597</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.55560490206489</v>
+        <v>35.93698895514813</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>45.25088957548402</v>
+        <v>39.63348254962195</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.18075725983497</v>
+        <v>14.47213263812419</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.83141458553181</v>
+        <v>18.37414109552114</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.89794557976537</v>
+        <v>19.86729191581323</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.29835841686137</v>
+        <v>31.71578485219134</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.39131610761039</v>
+        <v>32.40874174110813</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.22404699415205</v>
+        <v>34.29224018556029</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>8.251530782295056</v>
+        <v>10.73247852588406</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.662196656080493</v>
+        <v>10.88768192197412</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.193200422842423</v>
+        <v>12.1127538019554</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>8.105059509115847</v>
+        <v>11.8927630718174</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>7.615614915533939</v>
+        <v>11.22705875236316</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>8.132858604902751</v>
+        <v>11.21060520375753</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>6.976143286182449</v>
+        <v>11.28289106908037</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.01304726836396</v>
+        <v>12.99071645719783</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.4964724807854</v>
+        <v>14.36204874692884</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.95800789744345</v>
+        <v>14.55082431373274</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.561881944419294</v>
+        <v>10.92845699508018</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>9.789411985053086</v>
+        <v>12.2800544141585</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.038008371923212</v>
+        <v>13.22803353923195</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.664915350704533</v>
+        <v>14.61188213805499</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11.39328842116777</v>
+        <v>14.96696562060503</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.67889537575805</v>
+        <v>15.22670034961377</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>3.416510776686923</v>
+        <v>11.23898288873718</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>5.814356349152288</v>
+        <v>11.84965097899953</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>4.420313988912348</v>
+        <v>10.81457090639304</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>7.817653477829943</v>
+        <v>11.83882738152203</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>9.372656990247961</v>
+        <v>12.92236755630782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>11.20298841414559</v>
+        <v>13.9868485301761</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>3.461943519658842</v>
+        <v>10.40186628718698</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.681995872950573</v>
+        <v>11.18750411360804</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>5.39804191801117</v>
+        <v>12.29577715052157</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.234736601327661</v>
+        <v>12.1259182713049</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.8349869287735</v>
+        <v>17.73920197549791</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.35461634405755</v>
+        <v>21.17199022567337</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.63374750450813</v>
+        <v>17.76587469708327</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>17.29130795758958</v>
+        <v>18.54087540479738</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.93739730551613</v>
+        <v>13.88533726033631</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.16270791768392</v>
+        <v>14.24602763685047</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.26812787660976</v>
+        <v>21.27809466413051</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.51741403267927</v>
+        <v>25.97949530579386</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.49712816234487</v>
+        <v>33.05412426271484</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.59060493068584</v>
+        <v>33.89362506921315</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.660014299908894</v>
+        <v>11.94122341144627</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>8.967111933180277</v>
+        <v>12.70781964292258</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.0677715555581</v>
+        <v>20.61360368891325</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.39276708337392</v>
+        <v>25.5699801942704</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.93613530352457</v>
+        <v>31.62883672759705</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.60151530179154</v>
+        <v>32.39314740687421</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>3.360095740963157</v>
+        <v>12.06254380577627</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.153422528989051</v>
+        <v>12.28328114061913</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>13.57889054659638</v>
+        <v>19.44258855326547</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.79194229049581</v>
+        <v>26.80760559629574</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.12927826412747</v>
+        <v>28.66759913396648</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.72037271142428</v>
+        <v>29.08932846171105</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.32942937951729</v>
+        <v>24.0659076982077</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.81550070486757</v>
+        <v>29.21745296570626</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.69965909933225</v>
+        <v>23.59523528857006</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.06146954162863</v>
+        <v>25.05894401626669</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.43732817591825</v>
+        <v>22.12898566264131</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.31710578773041</v>
+        <v>23.74329588469623</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.92891740136086</v>
+        <v>25.33661038324683</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.67195944714163</v>
+        <v>37.70191098297926</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>47.15743143650606</v>
+        <v>41.80131035587415</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.37712447055235</v>
+        <v>42.0290466533622</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.80038369865547</v>
+        <v>21.53070226126131</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.48063842227458</v>
+        <v>30.0495408645803</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.27366379369716</v>
+        <v>25.44082187809175</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.16232748915257</v>
+        <v>37.59092702971699</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.70857577290184</v>
+        <v>41.35745101509355</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.72585833916773</v>
+        <v>42.58041160897092</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.10500416342254</v>
+        <v>22.45765355116438</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.49053119720947</v>
+        <v>30.32775944209518</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>8.610924834806983</v>
+        <v>17.85839362380512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.87427743652323</v>
+        <v>25.59000250843347</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.16721392437061</v>
+        <v>25.88423745029076</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.10934129143706</v>
+        <v>30.04982263820182</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>11.71151265364135</v>
+        <v>18.76154443909251</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.61225900131982</v>
+        <v>26.36766103178403</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>13.91358871873723</v>
+        <v>16.43136987064675</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>13.45187566638114</v>
+        <v>16.82885674217009</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.50688679399343</v>
+        <v>25.84476033376344</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.39842431721477</v>
+        <v>28.47067236683936</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.35163301905757</v>
+        <v>20.69889596536941</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.58793616202891</v>
+        <v>22.71444927490507</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.66958834778971</v>
+        <v>33.12226867317543</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.74242042785664</v>
+        <v>32.96058751724983</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.89559116878645</v>
+        <v>29.01462435456776</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.55705796140974</v>
+        <v>43.39916889798216</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.2033076065603</v>
+        <v>50.680446754596</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>60.5541816219796</v>
+        <v>50.72216747862359</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.95770995636893</v>
+        <v>31.53220052805075</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.20333403819777</v>
+        <v>33.1806239191602</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.19958071770972</v>
+        <v>27.92444655211546</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.96322924235449</v>
+        <v>42.41432808903684</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.28649664960621</v>
+        <v>49.42997077837043</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>58.86713026968108</v>
+        <v>50.84544986961869</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.21226765380273</v>
+        <v>22.45337575730698</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.57756625621297</v>
+        <v>25.40029632640938</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>18.23129857138253</v>
+        <v>24.49415416023288</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.63339752203929</v>
+        <v>39.24687694313818</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.49892414411734</v>
+        <v>38.75736576522259</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.05540437764142</v>
+        <v>42.15129992930787</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>17.46990523449885</v>
+        <v>24.30607878377048</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.48278846326403</v>
+        <v>38.4437285272482</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.21025408220059</v>
+        <v>35.17926915854952</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.39965014814547</v>
+        <v>36.18351299376901</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>15.10630882463352</v>
+        <v>23.12374561348722</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.13218137524694</v>
+        <v>31.63585620390923</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>16.54590740578172</v>
+        <v>23.24117627066602</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.25351648823514</v>
+        <v>37.99347780155569</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.10641934598203</v>
+        <v>43.84077248777535</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.9520091020551</v>
+        <v>44.6744448028542</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.55946385880284</v>
+        <v>21.54052416471997</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.97175329059486</v>
+        <v>37.62879834900511</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>14.90126953728588</v>
+        <v>20.53079235114922</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.15529328868022</v>
+        <v>34.79355122955283</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.58796859676124</v>
+        <v>40.51401006801542</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>47.33246660118746</v>
+        <v>42.32357623607806</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.62316348537876</v>
+        <v>20.85158648883654</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.8190146713474</v>
+        <v>34.26287051516973</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>13.26720856721279</v>
+        <v>20.38475195047764</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>37.45076139558594</v>
+        <v>37.53137705994336</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.56450359458765</v>
+        <v>42.68616964435542</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>49.32853019722636</v>
+        <v>44.08118385463614</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>11.99700058290005</v>
+        <v>20.50677171311627</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.60230653529616</v>
+        <v>31.21485151038994</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.11420970221259</v>
+        <v>27.97624402071203</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.27960834164991</v>
+        <v>27.84586393546289</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>14.70101336966431</v>
+        <v>20.5958348352054</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.46399660752961</v>
+        <v>27.32980357694271</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.39501879012032</v>
+        <v>27.55261694503568</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.44993212892772</v>
+        <v>32.48587855827821</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.98661765810655</v>
+        <v>40.79541410222204</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.20741145686345</v>
+        <v>40.68493070707905</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.35781159535467</v>
+        <v>22.10824064616433</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.52540707018058</v>
+        <v>40.86037390564143</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.27953531070656</v>
+        <v>47.78745267063088</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.35066364219607</v>
+        <v>47.99540534578499</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.75149193813113</v>
+        <v>34.94015313098033</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.30524323596938</v>
+        <v>38.22282494158718</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.43733225205882</v>
+        <v>21.13435598166893</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.40766196011214</v>
+        <v>36.72480496922552</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.15143371596149</v>
+        <v>41.43215478259661</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.40074607283425</v>
+        <v>45.01107753847203</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.96145363801403</v>
+        <v>27.76670967387465</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.25340671959837</v>
+        <v>32.05903667497391</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>14.15324755261318</v>
+        <v>21.91167480089786</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.13839683306987</v>
+        <v>35.98590072902323</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.28349764018092</v>
+        <v>38.7033429638476</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.97487351726923</v>
+        <v>43.90741281745377</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.16176003089248</v>
+        <v>21.67770338413734</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>37.6111345192375</v>
+        <v>39.26371517349596</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.79699561236779</v>
+        <v>30.62659943646647</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.45223606792089</v>
+        <v>31.53268130665008</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.18439152912207</v>
+        <v>24.10741712320592</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.90750393621429</v>
+        <v>30.4438394285517</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.70038639905695</v>
+        <v>21.67706716677356</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.50221400088989</v>
+        <v>38.32004877876756</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>48.41091622480175</v>
+        <v>40.71369717967465</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.64080391617044</v>
+        <v>40.57983060861483</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>12.72426369101998</v>
+        <v>21.20968663860884</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.068125975459</v>
+        <v>36.34971537859546</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.23129589179564</v>
+        <v>19.03343889954978</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.07551802085595</v>
+        <v>35.56205521211214</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>47.20222822309738</v>
+        <v>42.24006539977208</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>47.88058282353093</v>
+        <v>43.06450361692791</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>9.119273925188558</v>
+        <v>20.54472046023562</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.06279772135811</v>
+        <v>35.51988958171175</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>7.024595062886831</v>
+        <v>15.93043634352475</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.43858786008912</v>
+        <v>34.49769963840914</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>46.76216402777529</v>
+        <v>41.42901488439425</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>48.91384577774258</v>
+        <v>42.94041377794391</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.72969818872006</v>
+        <v>19.97122815877932</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.61467302281012</v>
+        <v>33.82778606351376</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.41732150399332</v>
+        <v>26.24353479758758</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.82763144617719</v>
+        <v>27.47703792955339</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>17.06264824910157</v>
+        <v>22.93263403600453</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.67602668015248</v>
+        <v>29.78518706806691</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.1053616047265</v>
+        <v>28.58385604053976</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.84727062182309</v>
+        <v>32.97748732458003</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.38741407774073</v>
+        <v>42.22284222622651</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>50.1435038339643</v>
+        <v>42.52439388835071</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>15.87682747762894</v>
+        <v>23.32953368551936</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.42788269323788</v>
+        <v>42.12860262444804</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>59.73354928553482</v>
+        <v>50.19460409691179</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.41062724052539</v>
+        <v>50.14794182130106</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.98075984219189</v>
+        <v>37.15806237706032</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>45.30614693228389</v>
+        <v>38.56914648900896</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.09003142092488</v>
+        <v>21.89200500825961</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.19897185488806</v>
+        <v>41.05652187068711</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>52.70714658101443</v>
+        <v>46.67350036664025</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>55.93361961792954</v>
+        <v>47.54565517143526</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.79058965491974</v>
+        <v>31.09104384231811</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.20168454131039</v>
+        <v>34.05652205063618</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>13.38208658936124</v>
+        <v>22.24385137536643</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.56708772178141</v>
+        <v>40.57733317431106</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.59126799187123</v>
+        <v>43.64371785335682</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.1249023944773</v>
+        <v>46.33019138115934</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>18.95917245620414</v>
+        <v>24.73148545739697</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.44929977223686</v>
+        <v>37.59057435096698</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.6380426638658</v>
+        <v>31.4476756769636</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.24215620254425</v>
+        <v>32.13717542272147</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.74948518469998</v>
+        <v>28.8141466826061</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.83432265141172</v>
+        <v>34.62364650458811</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.32732591980526</v>
+        <v>22.84791192027222</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.18652486979532</v>
+        <v>39.4330250024589</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>54.69645719545498</v>
+        <v>45.23036988228353</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.38179708251381</v>
+        <v>44.97267857077654</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.19945145214104</v>
+        <v>24.17464933239744</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.65924878512025</v>
+        <v>37.75029309006902</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.38739095317079</v>
+        <v>21.41649570204991</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.08854697348663</v>
+        <v>38.34702056008365</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>53.91320134409496</v>
+        <v>46.06204041079821</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>54.18373950238035</v>
+        <v>46.96145277970898</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.78901758218867</v>
+        <v>23.4785453917896</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.53947080390011</v>
+        <v>37.03403019467287</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.42013194251489</v>
+        <v>17.29528626714123</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.98742374766518</v>
+        <v>37.70147996909999</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.66928939682489</v>
+        <v>46.08065575498972</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>51.94277612512699</v>
+        <v>45.90467312114656</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.82186514397179</v>
+        <v>22.53727622505801</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.65731298268254</v>
+        <v>37.24074767742848</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.87869106076517</v>
+        <v>29.64877127901167</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.20015495098234</v>
+        <v>29.97820515098615</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.32260620504303</v>
+        <v>25.14160167933297</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.62341436860109</v>
+        <v>31.67319930128167</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.81128703660342</v>
+        <v>32.20805965555276</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.72176915510939</v>
+        <v>34.46089137864464</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.19788052941939</v>
+        <v>44.65449013371598</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.64037791719728</v>
+        <v>44.83632012312766</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.77293490700844</v>
+        <v>25.41940155339875</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.04205664221088</v>
+        <v>42.13283556000494</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>63.41272473186096</v>
+        <v>53.19681186641597</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>63.51517666662892</v>
+        <v>53.08776039106148</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.61187297041315</v>
+        <v>42.37478609460395</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.02527617062257</v>
+        <v>43.61443919908388</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.35089706600584</v>
+        <v>25.73625558533346</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>45.73758093729523</v>
+        <v>42.68685696978569</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>59.90177177934643</v>
+        <v>52.3329294801724</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>61.91249147480651</v>
+        <v>52.78977251239674</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.23553840126146</v>
+        <v>35.79874408206103</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>44.0982408002932</v>
+        <v>37.19967116150092</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.62574384508397</v>
+        <v>25.05619096482481</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.56242639205553</v>
+        <v>43.17416706349485</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>57.122154074785</v>
+        <v>49.96164820600679</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.5092336364475</v>
+        <v>51.32952263063648</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.88065793715514</v>
+        <v>22.20821320055197</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.85076176364446</v>
+        <v>31.2420394732311</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.56823075834569</v>
+        <v>24.18195047485363</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.97870911476128</v>
+        <v>25.84212212619154</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>13.12603981430182</v>
+        <v>20.30338381520586</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.61448111093845</v>
+        <v>26.53612434044355</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.63375520257177</v>
+        <v>20.60244486574675</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.6604139391309</v>
+        <v>38.85924368095364</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.09439626588057</v>
+        <v>41.63996468625005</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>46.69855318064648</v>
+        <v>42.24997230298759</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.0256311910115</v>
+        <v>20.34973288413936</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.24042622326994</v>
+        <v>36.56611711326954</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>11.51190255193083</v>
+        <v>18.10968179966451</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.81953493759596</v>
+        <v>35.24077010951207</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.63107254273211</v>
+        <v>40.47155872916084</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.78219565784831</v>
+        <v>41.24693142547777</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>10.14231549348889</v>
+        <v>20.69843576257083</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.3825081312941</v>
+        <v>34.7303094255214</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>8.170094273370669</v>
+        <v>17.04850001068189</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.514648827084</v>
+        <v>29.00616318508222</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.70637399342742</v>
+        <v>33.2227711713829</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.45095824331921</v>
+        <v>38.80631966181945</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.091078418289054</v>
+        <v>18.96849529052903</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.11653212454395</v>
+        <v>29.39329962832809</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.60665663189798</v>
+        <v>23.14906184985315</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.068027253261</v>
+        <v>23.6448981455813</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.34162714342574</v>
+        <v>21.07592950229481</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.30967421446179</v>
+        <v>26.48480472240004</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.60309044127997</v>
+        <v>26.11535551503844</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.87869996259994</v>
+        <v>28.72489867753021</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.35386474268052</v>
+        <v>38.80200626212899</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.80363027542961</v>
+        <v>38.05894666975996</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.94869398955159</v>
+        <v>21.99313886983007</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.56501421340867</v>
+        <v>41.85217368543587</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>51.39680181411693</v>
+        <v>44.60237773264382</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.64044267278905</v>
+        <v>44.26496578780401</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.46582886886765</v>
+        <v>35.82823717663944</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>41.28091364650644</v>
+        <v>37.53959978815326</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>12.58015071105446</v>
+        <v>21.75796557778586</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.89628616524153</v>
+        <v>38.24134234716435</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>46.68774745724131</v>
+        <v>42.89956568940796</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>50.65550220649828</v>
+        <v>45.37383527133967</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.13314535349192</v>
+        <v>27.23890432225665</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.71442879867662</v>
+        <v>30.89854355521661</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>11.35313250395052</v>
+        <v>20.32271956359165</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.43912516992967</v>
+        <v>32.47762955448405</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.42731185746092</v>
+        <v>35.72818295531799</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.03594795686055</v>
+        <v>41.54186285223845</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>12.03360299679627</v>
+        <v>17.64159796634513</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.38660438905191</v>
+        <v>20.33314709665546</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>17.75587712174732</v>
+        <v>20.52468865184292</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>18.38716703564391</v>
+        <v>20.55396993112032</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.23562344327213</v>
+        <v>20.37522332987638</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.69665036555314</v>
+        <v>23.29688726713072</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.77832213543935</v>
+        <v>16.9006246566595</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.97705908065884</v>
+        <v>22.20477951780952</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.3493861748024</v>
+        <v>26.631420605687</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.00602818135228</v>
+        <v>26.89341346478979</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.0958138131827</v>
+        <v>20.13289170694765</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.10060500090455</v>
+        <v>33.94826088816281</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>9.857165993129751</v>
+        <v>16.16982840945017</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.90285612792009</v>
+        <v>20.27432864727</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.76101067558543</v>
+        <v>24.28610383756874</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.88411866840234</v>
+        <v>24.78467620466542</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>9.159228134438472</v>
+        <v>18.92075537235953</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.0512330147221</v>
+        <v>26.34051103816715</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>7.064656509933581</v>
+        <v>13.94049933635331</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.33573614997592</v>
+        <v>18.42461069215752</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.89376793973187</v>
+        <v>23.61183875082751</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.69453157595023</v>
+        <v>24.54427537175281</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.03427360703876</v>
+        <v>18.79790182956877</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.55492785396392</v>
+        <v>25.19643015211927</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.962014771725</v>
+        <v>19.52738358146456</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.20752345130866</v>
+        <v>20.21366194451635</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.62159874728274</v>
+        <v>19.37093499592315</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.92406357619006</v>
+        <v>22.19659966722453</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.34521388448515</v>
+        <v>20.01686625484124</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.53002201416708</v>
+        <v>21.2486961132843</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.73939083389732</v>
+        <v>36.44714467254688</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.95757456154082</v>
+        <v>37.55521860325535</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>21.46041961812172</v>
+        <v>25.85424535090599</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>45.40923648376328</v>
+        <v>42.72268990584354</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.13070322497394</v>
+        <v>48.55139054425744</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.31861522713817</v>
+        <v>49.08344739141239</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>27.99510429817074</v>
+        <v>27.54566870961736</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.10330766645642</v>
+        <v>33.63891716466829</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.87250558505097</v>
+        <v>22.9192911611652</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.95676390686825</v>
+        <v>37.27125611246232</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>43.80141907458275</v>
+        <v>39.43014412866079</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>49.56087828134569</v>
+        <v>43.34278609431029</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.23275944936971</v>
+        <v>24.26463953400461</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.79959094140598</v>
+        <v>31.64905876978229</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.65269023198001</v>
+        <v>22.46677908076496</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.17440889033153</v>
+        <v>32.71509869114561</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.72731754418594</v>
+        <v>30.67408179941678</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.69089649162483</v>
+        <v>39.10370141987013</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.147216349028202</v>
+        <v>15.07957764140168</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.48573485725608</v>
+        <v>17.00657453004034</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>15.78924812306689</v>
+        <v>17.85350110911004</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>15.63657394526597</v>
+        <v>17.54911500166751</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.38143911517828</v>
+        <v>23.2984176273546</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.90831127398056</v>
+        <v>24.87755793381833</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>9.076582946597881</v>
+        <v>17.45291339253001</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.53354146620438</v>
+        <v>26.11906438977067</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>35.82262123265806</v>
+        <v>32.4135296183896</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.9571454197992</v>
+        <v>32.20677409807074</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>10.30845077312266</v>
+        <v>19.4656191832996</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.61473441694086</v>
+        <v>28.95039844905448</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>12.58787387296907</v>
+        <v>21.33127680241303</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.67290089735258</v>
+        <v>32.35797871208624</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.01521464051278</v>
+        <v>34.64962852094038</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>38.08778799405278</v>
+        <v>35.89809871004982</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>9.726115537167342</v>
+        <v>20.0675082825025</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.72942276711389</v>
+        <v>30.04768106855402</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>7.022930005413716</v>
+        <v>18.26114490550847</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.7665622729805</v>
+        <v>30.1772116498699</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.49720058066237</v>
+        <v>31.40817084315308</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.289278564417</v>
+        <v>32.25161871025503</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.18073946448221</v>
+        <v>18.77213685532512</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.45858077086688</v>
+        <v>27.80691608702998</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>16.36278710932642</v>
+        <v>20.45774037062639</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.92588285052943</v>
+        <v>23.11446356826682</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>12.45153238417055</v>
+        <v>18.90387305557007</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>17.49816035374844</v>
+        <v>20.14718075173268</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.49304592697553</v>
+        <v>18.03461950045712</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>18.41274761976179</v>
+        <v>20.38565561606998</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.97739621630259</v>
+        <v>30.26931625976322</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.15962639345717</v>
+        <v>36.16425814191238</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>13.40181210006754</v>
+        <v>21.49642334546914</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>35.84261657912876</v>
+        <v>34.77969820313334</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>46.80426167332151</v>
+        <v>41.83705505805801</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>50.20845250133682</v>
+        <v>44.76339322273654</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.1326760521306</v>
+        <v>28.9504388761332</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.54972116929098</v>
+        <v>35.9841204109873</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>12.32631353133698</v>
+        <v>21.70262054279958</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.66521694085337</v>
+        <v>36.45476172249066</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>43.38381258540626</v>
+        <v>40.58500829298028</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>49.09526391924651</v>
+        <v>44.19163138781477</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.57821463488374</v>
+        <v>25.64178516395417</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.63784432114805</v>
+        <v>32.66871967318185</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>10.79478508969327</v>
+        <v>20.31079578898557</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.10428964720217</v>
+        <v>31.318832636442</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>35.63640272127584</v>
+        <v>31.92295602076269</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>44.34087057781901</v>
+        <v>39.35713777460857</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>16.50995526738332</v>
+        <v>23.47558746393126</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.62229627597738</v>
+        <v>38.67746671304951</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.77553599858823</v>
+        <v>34.02031092468339</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.72573675426031</v>
+        <v>34.64323986786189</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>17.15113864142261</v>
+        <v>23.37959775104261</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.55259230391411</v>
+        <v>31.86400135750693</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.37043887772013</v>
+        <v>22.0488180894784</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.0979134276244</v>
+        <v>38.25717705887848</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.38514894104414</v>
+        <v>44.80152428507756</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.85674026994685</v>
+        <v>44.43822332187054</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>15.47835933815014</v>
+        <v>22.57163901714773</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.41082884654805</v>
+        <v>37.8205725186166</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>13.15672362623596</v>
+        <v>19.61719677617304</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>39.82900755004329</v>
+        <v>36.57091349151836</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>49.81234026082073</v>
+        <v>43.90027514555063</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.21462644731731</v>
+        <v>44.05660393308149</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.30934952840697</v>
+        <v>21.89471966825803</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.80249700520661</v>
+        <v>36.43910720951282</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>8.966724487373416</v>
+        <v>16.6904876338138</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.79417004745839</v>
+        <v>35.50501205231684</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.38493158501538</v>
+        <v>42.48539852916045</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.42752829260215</v>
+        <v>43.19266096260547</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>13.87950338131854</v>
+        <v>20.23502423034357</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.49751524000563</v>
+        <v>35.83679305318709</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.19696029870564</v>
+        <v>29.2115136582733</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.31040027196703</v>
+        <v>30.05365636878938</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>14.96783479492674</v>
+        <v>22.32582967527689</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.90427134284998</v>
+        <v>29.62773012922111</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.8434487126577</v>
+        <v>29.65012229030546</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.64857929078166</v>
+        <v>33.44940175256531</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.59637366839563</v>
+        <v>43.11940234703643</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.18583668177251</v>
+        <v>43.09303634645168</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>17.37255830174428</v>
+        <v>22.87953579553172</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>46.41697820949572</v>
+        <v>41.86128725942047</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>60.15592164090062</v>
+        <v>51.73757316886634</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>60.98015767684871</v>
+        <v>51.30443583298369</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>44.66968938536401</v>
+        <v>41.83994458013505</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>47.54702939724382</v>
+        <v>42.73193124141973</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>15.95259001263622</v>
+        <v>22.82204332636068</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.31897894530906</v>
+        <v>41.90860546209439</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>56.3829297565786</v>
+        <v>48.47768455303539</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>58.37289243746164</v>
+        <v>48.92127679930343</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.3328336974417</v>
+        <v>36.70937803187945</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.27532140558564</v>
+        <v>37.5894305743989</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>15.57145865664088</v>
+        <v>22.02255452251812</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>43.27669430935726</v>
+        <v>41.22208820791224</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>50.49790592547733</v>
+        <v>44.84807726550939</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>55.05045758058453</v>
+        <v>46.25830845484764</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>9.302039378146862</v>
+        <v>20.45761994695865</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.67732500569578</v>
+        <v>27.07056760646765</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>21.95351927828773</v>
+        <v>22.92666220790089</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.09016288871259</v>
+        <v>23.99934404723222</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>13.4347808770429</v>
+        <v>17.65975762676857</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.36877787317673</v>
+        <v>23.94825671501306</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>12.98417688674528</v>
+        <v>20.16560300377998</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.41325555570189</v>
+        <v>38.07094580276073</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.22493536323881</v>
+        <v>41.34489675766465</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>44.64160084206672</v>
+        <v>40.844644141493</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>11.9244400348047</v>
+        <v>20.0122225778117</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.89518417926865</v>
+        <v>36.21227791702936</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>11.94819701994864</v>
+        <v>18.62321244742137</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.30043433504635</v>
+        <v>36.00313659429133</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>44.02463922216545</v>
+        <v>40.87789748898478</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>44.69896004790586</v>
+        <v>40.58708245509949</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>10.21065010610919</v>
+        <v>21.20508927357818</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.52648228841161</v>
+        <v>36.07276212024547</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>8.06790684132433</v>
+        <v>15.81993896771051</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.1499301495848</v>
+        <v>29.64446105273655</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>35.77099930121076</v>
+        <v>35.34637858957124</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>40.47148680174278</v>
+        <v>37.92203510238474</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>9.500994278020219</v>
+        <v>18.01780765172551</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.28606760441476</v>
+        <v>28.3341306550345</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>25.07656748118305</v>
+        <v>24.30065457791627</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.41286104203751</v>
+        <v>26.29705656936586</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>12.12116173433494</v>
+        <v>22.5213227528967</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.55326135758241</v>
+        <v>27.25195247109076</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>22.14926075006737</v>
+        <v>25.00126661921108</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.88455662736738</v>
+        <v>27.43346637551174</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>43.90160853647313</v>
+        <v>38.39318873001187</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>44.72959178973402</v>
+        <v>38.22399251823263</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>15.51366809308632</v>
+        <v>22.79547787415005</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>43.87178560731014</v>
+        <v>42.40554210657841</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>51.82638115818777</v>
+        <v>45.08000787506981</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>53.42632116181636</v>
+        <v>45.12669662182597</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.17702630775993</v>
+        <v>36.76389406983194</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.19904440820206</v>
+        <v>38.38491717092369</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>13.24214156303649</v>
+        <v>22.06457975738016</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.32062431233426</v>
+        <v>38.73621125948556</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>46.91118237977918</v>
+        <v>42.2253598517849</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>51.31342129908046</v>
+        <v>45.01825603255175</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>28.64003815018654</v>
+        <v>28.34235180843591</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.81451431352021</v>
+        <v>32.61937460413677</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>10.07043966324936</v>
+        <v>20.23761185835062</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.71626888287587</v>
+        <v>30.49029519407112</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>34.89254410298555</v>
+        <v>32.75052086396212</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.76079908225778</v>
+        <v>40.05573459472855</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.543</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.262</v>
+        <v>16.596</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.527</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.318</v>
+        <v>15.373</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.995</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.031</v>
+        <v>8.472</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.93236695434002</v>
+        <v>5.405008038066242</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.39888762172136</v>
+        <v>17.05520923244324</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.74751988851505</v>
+        <v>16.0122268468659</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.15638620407137</v>
+        <v>17.16733298998905</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.78283224493324</v>
+        <v>12.41383950661196</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.37009360702908</v>
+        <v>24.75253468256946</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.16111821039113</v>
+        <v>3.215285899882264</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.30006458903333</v>
+        <v>22.81727223402453</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.51081641604756</v>
+        <v>32.43262007679374</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.50697731755143</v>
+        <v>32.97120489322347</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.15688346883218</v>
+        <v>11.441615912774</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.38049416432337</v>
+        <v>34.71670317617077</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.94103424982277</v>
+        <v>0.2374757812086656</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.10437583311595</v>
+        <v>20.97655797645145</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.38642106084079</v>
+        <v>31.90693312173989</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.15086464451101</v>
+        <v>33.00329722258409</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.13850636637366</v>
+        <v>7.506050098482206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.77761099317909</v>
+        <v>31.45368249712605</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.61562704412979</v>
+        <v>-1.387262262682793</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.06851325554854</v>
+        <v>16.96565564490009</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.61668481777488</v>
+        <v>23.88470787926289</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.52947210970563</v>
+        <v>26.56350597225959</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.6170198207622</v>
+        <v>8.289821046046725</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.49623348995273</v>
+        <v>27.66014805861333</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.200395620823</v>
+        <v>23.45992091092618</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.08702664089265</v>
+        <v>28.02606126692824</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.88940771729896</v>
+        <v>8.697206585423341</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.80835703292476</v>
+        <v>23.79167313391145</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.46250750098242</v>
+        <v>27.74713760371186</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.33972925612382</v>
+        <v>34.11822646486482</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.55000046456708</v>
+        <v>43.6666519895695</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.6480813032189</v>
+        <v>49.13070019696178</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.27689149464979</v>
+        <v>13.72446369700971</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.76966080137603</v>
+        <v>42.93441061418747</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.15587631639067</v>
+        <v>59.7627871074092</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.11776947958634</v>
+        <v>64.24555000170714</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.10512924657696</v>
+        <v>39.66522635810316</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.46308848682376</v>
+        <v>46.77367725329353</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.54008815034583</v>
+        <v>11.02844474328667</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.11211854253646</v>
+        <v>42.22920883702285</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46.19117707407543</v>
+        <v>59.09289627950621</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50.18132558738758</v>
+        <v>64.43090456897392</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.5817333272763</v>
+        <v>29.32858487924661</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.72838124465479</v>
+        <v>37.93642614379564</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.22366698073152</v>
+        <v>10.96755786746847</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.38849326129268</v>
+        <v>37.96892773571486</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>44.50731575818869</v>
+        <v>48.51644764554732</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>49.02975072364971</v>
+        <v>57.42628370267526</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.22639079130914</v>
+        <v>11.73156909880338</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.6169510641528</v>
+        <v>37.03474996077507</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.3767176049031</v>
+        <v>34.44152287233831</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.9978827582712</v>
+        <v>36.15349637433164</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.49346500380907</v>
+        <v>10.17580989274522</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.16736122496028</v>
+        <v>30.44439840013427</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.49741116337324</v>
+        <v>9.608763130359858</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.15683745493659</v>
+        <v>42.08976205451542</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.73878124826285</v>
+        <v>49.03600656665597</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>40.831615575943</v>
+        <v>49.68561131201432</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.61986496755944</v>
+        <v>9.433539207226449</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.97949675120243</v>
+        <v>39.93165405196679</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.97665865498871</v>
+        <v>6.986686512137592</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.08613515858835</v>
+        <v>40.01273501842272</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.25078432193211</v>
+        <v>48.48497498532416</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>41.07925852689058</v>
+        <v>49.53940318676801</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.17644087649316</v>
+        <v>6.165752815882747</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.14887563068186</v>
+        <v>36.79458616994594</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.09227586095857</v>
+        <v>7.286533900096618</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.24459807294441</v>
+        <v>38.33196682520735</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.17071950739458</v>
+        <v>43.5680133666304</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40.75204175066921</v>
+        <v>46.59819784853129</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.30354408464584</v>
+        <v>6.196633702149274</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.87851414519459</v>
+        <v>31.94455381051452</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.19925210314625</v>
+        <v>31.51116872388641</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.15258652877787</v>
+        <v>35.51377550836028</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.18857427549726</v>
+        <v>7.786061001602317</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.18790999108219</v>
+        <v>32.14614783409606</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.47857061200279</v>
+        <v>35.15192304145186</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.7493492232995</v>
+        <v>41.67237770228552</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.19157809303437</v>
+        <v>49.92766869364914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.9489447929182</v>
+        <v>54.23098274660889</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>23.74547086399781</v>
+        <v>10.54784754663876</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>47.84522331556243</v>
+        <v>48.28092100229594</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.64154143960577</v>
+        <v>61.57831876521833</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.83253317379152</v>
+        <v>65.11015607966382</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>37.762801571003</v>
+        <v>46.15947891923267</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.27571838846417</v>
+        <v>51.78232159295619</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.9052316061607</v>
+        <v>7.906525437133208</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>43.53197523359115</v>
+        <v>47.03211534315041</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.25033573541553</v>
+        <v>60.34512911544239</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>48.50912195174367</v>
+        <v>64.35377246512097</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.56443074443056</v>
+        <v>35.4963742441421</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.29223383207589</v>
+        <v>42.63897045251787</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.23250495231174</v>
+        <v>9.029921029824056</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.49517591089943</v>
+        <v>43.71448271711814</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.09833771202828</v>
+        <v>52.08702780182665</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>49.04646451532599</v>
+        <v>59.87199029827518</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.31735862091048</v>
+        <v>10.01026932230139</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.18023034981857</v>
+        <v>32.2001779743395</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.42900836556075</v>
+        <v>31.31610406595259</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.97611020205122</v>
+        <v>32.10443363314598</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.17685753844392</v>
+        <v>12.30163865846077</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.45304777348751</v>
+        <v>33.24738711071657</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.65657872676733</v>
+        <v>9.719104335417894</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.91757275503369</v>
+        <v>39.70335399558285</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>45.7885811984938</v>
+        <v>48.29654124194086</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>45.03010518403961</v>
+        <v>47.97400255265712</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.83055942102472</v>
+        <v>12.56840405576452</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.13070383298879</v>
+        <v>44.24132510415602</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.30161325833938</v>
+        <v>7.356915705624598</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.04108372843034</v>
+        <v>38.11837320603023</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.94062429218578</v>
+        <v>48.19491362989385</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.49150795207768</v>
+        <v>48.24184498825691</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.3141137804743</v>
+        <v>9.796051622825155</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.7748832846646</v>
+        <v>41.81935093675278</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>19.5358557357121</v>
+        <v>6.580135791398469</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.25534590897833</v>
+        <v>35.06556906450849</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.5975951045296</v>
+        <v>42.18392983678721</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>43.02416828181622</v>
+        <v>44.15710940594742</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.72619485918359</v>
+        <v>9.628559137338202</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.60849758373215</v>
+        <v>36.79945784141976</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.42930787142962</v>
+        <v>35.58364663819003</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.0525790317246</v>
+        <v>37.83728668389474</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.19745019748553</v>
+        <v>9.087288176925885</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.63919311147154</v>
+        <v>33.55927907311975</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.39332905023419</v>
+        <v>37.81252721319056</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.01975128974851</v>
+        <v>42.67356607244605</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.75204991948216</v>
+        <v>55.86885639536529</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.92551285497277</v>
+        <v>58.13126129427866</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.53658234419195</v>
+        <v>12.59490463196962</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.15948888823554</v>
+        <v>50.94767844213403</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.15519270283328</v>
+        <v>65.67766424065843</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.56527636837946</v>
+        <v>67.51633292879502</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>46.09390970646875</v>
+        <v>52.88146223155649</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.72087514568</v>
+        <v>56.32286896392184</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.88712485005639</v>
+        <v>10.39101364427212</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.16886131747327</v>
+        <v>50.35049690834197</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>51.7370817378348</v>
+        <v>65.10393494208078</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>52.1770537009187</v>
+        <v>67.31955379206114</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>38.4167725312103</v>
+        <v>41.87102443695579</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.05167920981663</v>
+        <v>46.76116862631136</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.37264007593124</v>
+        <v>11.2797984690004</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>46.06568897740597</v>
+        <v>46.76383413719071</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.78137726979826</v>
+        <v>56.59807373584023</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>50.67637819723977</v>
+        <v>62.3064132587858</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.74292279248412</v>
+        <v>6.601370589067319</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.71567253465849</v>
+        <v>16.74399878812484</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.29818778387416</v>
+        <v>16.74048266935948</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.79676877710506</v>
+        <v>17.71115206022802</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.13413230614259</v>
+        <v>13.03752980052619</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.83948451584108</v>
+        <v>23.34545073289141</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.30752937094497</v>
+        <v>4.619910041882139</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.86562172197531</v>
+        <v>22.42414258360558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.34154261940652</v>
+        <v>32.10699673995713</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.42982856674592</v>
+        <v>32.60860722988853</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.61303361390552</v>
+        <v>12.79248109933623</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.66646651111228</v>
+        <v>33.54736986745063</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15.5249718729989</v>
+        <v>1.850493404565572</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.84198482490471</v>
+        <v>20.74461572756333</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.61294544320763</v>
+        <v>31.49999666060293</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.1289981166235</v>
+        <v>32.55322808420645</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20.93698644517151</v>
+        <v>9.16917399444014</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.2660770555578</v>
+        <v>30.61559966112987</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.99175972810247</v>
+        <v>0.8269733314450214</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20.84327959539367</v>
+        <v>17.4291495214115</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.36079073279737</v>
+        <v>24.38869312273862</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.17471584956039</v>
+        <v>26.82710480529624</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>18.5400823604413</v>
+        <v>9.367497253749715</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.45038433739159</v>
+        <v>26.51341305364276</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.05088395434517</v>
+        <v>20.59084043046213</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.07288716237742</v>
+        <v>25.42033692744254</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.2794863607319</v>
+        <v>8.91558415728327</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.60282084504511</v>
+        <v>21.62652762883379</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.29738623334572</v>
+        <v>24.38724362298371</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23.93531079077572</v>
+        <v>30.92162184617872</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.09702378080172</v>
+        <v>39.96975631360294</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.83959581684491</v>
+        <v>45.83301379795947</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.06008860408089</v>
+        <v>15.4261879730445</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.35292773260233</v>
+        <v>41.23444196640082</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.81934935436978</v>
+        <v>55.80850291626098</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.55470965162327</v>
+        <v>60.80531011537656</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.35021978166905</v>
+        <v>36.31750773478537</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.10968677687453</v>
+        <v>43.68355017933018</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.19764254173847</v>
+        <v>13.03756295740039</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.84850843965678</v>
+        <v>40.67802493157925</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>43.72955201943395</v>
+        <v>55.20906170092032</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.99780430860425</v>
+        <v>61.00808209251088</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.53031552744953</v>
+        <v>26.37221847707387</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.04176181684303</v>
+        <v>34.90103512294267</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.7040819850241</v>
+        <v>11.80571638273711</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.73338650289855</v>
+        <v>35.69368074097487</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.55424473490891</v>
+        <v>44.64471663400157</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.46543997822414</v>
+        <v>53.55019811913253</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.10230904200971</v>
+        <v>12.53007326964119</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.8725002387244</v>
+        <v>31.36988709961719</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.77366755537609</v>
+        <v>29.79585094854833</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.86417477777994</v>
+        <v>30.81598226070191</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.33236363078489</v>
+        <v>17.4867433862835</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.0823763353181</v>
+        <v>34.92091837466304</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.52504099942447</v>
+        <v>12.89321909002482</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43.28132987761138</v>
+        <v>40.17606765844491</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.33818642567388</v>
+        <v>48.76951336563522</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>43.96235438858792</v>
+        <v>49.22942400967271</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.22518730198921</v>
+        <v>17.22356739741095</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.29157566285713</v>
+        <v>45.5954722595322</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.71988190153799</v>
+        <v>10.79490737387371</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>38.02942544104564</v>
+        <v>39.1741125299033</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>44.73409826492843</v>
+        <v>49.16790746462732</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.81185642132549</v>
+        <v>50.14969331793585</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.14440135262655</v>
+        <v>13.94855805528326</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.47350026666529</v>
+        <v>43.05867093238295</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.08820733043321</v>
+        <v>9.393737826250407</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.24415019975368</v>
+        <v>35.33149348983763</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>47.2077451187325</v>
+        <v>41.50297843876008</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.44544954424695</v>
+        <v>43.93478536147636</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.5420883878152</v>
+        <v>14.86106487752562</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.1725240551537</v>
+        <v>39.71298339188536</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.23963766463877</v>
+        <v>38.43203346911832</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.86853560055723</v>
+        <v>41.29663846353097</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.31098596007149</v>
+        <v>11.27175585195005</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.82232170710652</v>
+        <v>30.29975192855365</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.89765283165106</v>
+        <v>36.02002161443711</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.45009970456768</v>
+        <v>41.5907845358188</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>54.11022616176113</v>
+        <v>59.32103003284996</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>55.09889019551096</v>
+        <v>62.76785298989674</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.09278490906607</v>
+        <v>15.05515892642865</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.06819443938473</v>
+        <v>47.83850095204355</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>57.71875181121958</v>
+        <v>65.75576604813963</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>57.7768929780753</v>
+        <v>69.15016535904971</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>51.21008913037686</v>
+        <v>56.16396272056313</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.91691754298257</v>
+        <v>12.63822999239019</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43.76300952958944</v>
+        <v>47.27279983237802</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>52.94374910577496</v>
+        <v>65.29819507190834</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>54.35498315980028</v>
+        <v>69.36277969192835</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.89055594511115</v>
+        <v>46.26415759600775</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.07911923977021</v>
+        <v>52.53274977593165</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.60465734574478</v>
+        <v>13.85386553044732</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.17814229399418</v>
+        <v>44.64100455562858</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.10740516835355</v>
+        <v>57.04853142987303</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>55.70992746888199</v>
+        <v>64.51187742604118</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.17601838921941</v>
+        <v>9.388755194624514</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.94382699238265</v>
+        <v>34.59298464627096</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.26844804427279</v>
+        <v>32.07791951038522</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.7837190615796</v>
+        <v>32.69084946338936</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.01975038918415</v>
+        <v>13.41135407426805</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.42279791240183</v>
+        <v>38.65746711392563</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.20966141848361</v>
+        <v>9.46597872845496</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.24064812179115</v>
+        <v>40.81056846071944</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.39344171037622</v>
+        <v>46.94961693213633</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.99310002360886</v>
+        <v>46.77666149006235</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.34629168198243</v>
+        <v>14.18789227445882</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.71245619380119</v>
+        <v>48.5932544599285</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.82856342430043</v>
+        <v>7.855493824617238</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.52567518993798</v>
+        <v>39.73589307904113</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.31416945118033</v>
+        <v>47.52188531372761</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>44.13959967344157</v>
+        <v>47.61303238998386</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.49492385388821</v>
+        <v>11.97503982755344</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.22238001520068</v>
+        <v>46.73415145624763</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.90063763134451</v>
+        <v>8.119031454186501</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.15116484458552</v>
+        <v>38.91975470596702</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.39495647297746</v>
+        <v>43.72312959356749</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.91948119501265</v>
+        <v>45.16534570878389</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.78937032105481</v>
+        <v>12.15267162043004</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.67974209976308</v>
+        <v>43.3460503160715</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.98340728898583</v>
+        <v>41.01186376257785</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.2954144639779</v>
+        <v>43.14725292809361</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.42548809664792</v>
+        <v>10.505547940444</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.77416519303886</v>
+        <v>36.82767676548163</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.02830710215509</v>
+        <v>40.09914493443252</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.78855511115305</v>
+        <v>43.87990061885814</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>50.75738807409083</v>
+        <v>58.87457760980924</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>51.84759201824323</v>
+        <v>60.97423143772286</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.25976598059221</v>
+        <v>13.51050705544199</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>51.83803111869437</v>
+        <v>63.7365229720354</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>52.3049311101921</v>
+        <v>64.91598220930923</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>46.12844931747546</v>
+        <v>56.47458343641858</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.91434375945786</v>
+        <v>59.5145569047519</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.67224132035142</v>
+        <v>11.74561007244743</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>45.83205382155765</v>
+        <v>50.86403763337096</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>50.0797470640308</v>
+        <v>63.42577389632646</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>50.25097779174438</v>
+        <v>64.83646539836964</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>40.1448765664551</v>
+        <v>47.83390891577427</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43.30326318058196</v>
+        <v>52.1221498329792</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.79403712413531</v>
+        <v>13.19178475486534</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>48.22063655078593</v>
+        <v>49.33353295414467</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.53155412883252</v>
+        <v>57.63300404505163</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>49.564876389614</v>
+        <v>61.75368606380763</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.9846290906753</v>
+        <v>2.941787111675463</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19.36521040039137</v>
+        <v>12.81286262429041</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.9019689145547</v>
+        <v>15.94005606991889</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.00127917514578</v>
+        <v>16.27604683863444</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.7711028913525</v>
+        <v>9.991323719635023</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.54488183251494</v>
+        <v>23.70846752558622</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>13.97735578234867</v>
+        <v>-0.272653059847844</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.91953217452478</v>
+        <v>15.31476661656469</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.5564095440308</v>
+        <v>27.08131893391588</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.59773454212394</v>
+        <v>26.73982803777115</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.776350999378</v>
+        <v>10.89708860476712</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.10832332154426</v>
+        <v>33.51224397659787</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>9.956780147529845</v>
+        <v>-3.408520673175801</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>14.28727357788439</v>
+        <v>12.87393821837658</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.220344157962</v>
+        <v>25.83664606982607</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.5434614953665</v>
+        <v>25.83320759754498</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.11060730004775</v>
+        <v>7.90289749166984</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.51425975686072</v>
+        <v>30.72696650467366</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.844965820282859</v>
+        <v>-4.597308696074734</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.06516764279603</v>
+        <v>10.30049558953831</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.88506744541936</v>
+        <v>20.32289767696754</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.6528261364822</v>
+        <v>21.65531013769172</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.57400727300818</v>
+        <v>7.272004192554469</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.13273492665095</v>
+        <v>26.18308265764653</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.15661753212105</v>
+        <v>23.83727970187357</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.95831527295309</v>
+        <v>27.50934950701017</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.65990297464322</v>
+        <v>7.115990243491808</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.49645025978197</v>
+        <v>24.71824352605774</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.13078456285381</v>
+        <v>29.56906303530393</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.28562094411223</v>
+        <v>34.37451426107273</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.84604350313592</v>
+        <v>41.48985693533393</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.99952981870939</v>
+        <v>45.906534872835</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.76016531300978</v>
+        <v>13.28109657506044</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.21174561448273</v>
+        <v>42.92825961826946</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>49.36797128433355</v>
+        <v>57.43703860131082</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50.14554432132896</v>
+        <v>60.54796532129684</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.49856888390605</v>
+        <v>38.01789176228489</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.9418660812961</v>
+        <v>43.75163429410736</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.69547961110148</v>
+        <v>11.72161907919252</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.94673644988272</v>
+        <v>42.89554462135767</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.09495281623498</v>
+        <v>57.28731563317108</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>47.21304676218928</v>
+        <v>60.9926982251326</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.27399824660607</v>
+        <v>28.45030465843326</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.84074036548748</v>
+        <v>35.09674581384105</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.97358025627986</v>
+        <v>11.39458208300428</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.41689079240908</v>
+        <v>38.95070745164379</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>44.41353709791055</v>
+        <v>48.52992252762114</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.54783373698965</v>
+        <v>54.79883114512678</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.40911090212094</v>
+        <v>1.23867934845196</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.67336983328853</v>
+        <v>11.84772650263582</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.15744973162273</v>
+        <v>10.03401822694718</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.2848644122799</v>
+        <v>11.19123917818336</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.38580335017503</v>
+        <v>2.809985801156774</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.55960539092634</v>
+        <v>11.96030393099893</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.74580779877228</v>
+        <v>-0.9913999907891977</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.59401773142585</v>
+        <v>17.1255918875683</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.75883135807116</v>
+        <v>24.42493045074145</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.45666849247096</v>
+        <v>25.09733754449373</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.79212581574534</v>
+        <v>-0.9889984230168665</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.30728696660796</v>
+        <v>18.23011308857749</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>14.29898775617899</v>
+        <v>-3.544738875295714</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18.19477004639562</v>
+        <v>15.63944238155351</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.8929092376188</v>
+        <v>24.16405293206474</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>18.8431515570083</v>
+        <v>25.35752780677337</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>11.10098596962906</v>
+        <v>-4.527497899204871</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>13.08949064390538</v>
+        <v>15.35237178096063</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10.7039197254704</v>
+        <v>-4.903734210247947</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.31038961850525</v>
+        <v>12.10499932408274</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.49203051589599</v>
+        <v>17.58761357499238</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.03596438356104</v>
+        <v>20.18581595836734</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11.82033056787542</v>
+        <v>-2.705704437637483</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.95202015390773</v>
+        <v>13.07251776286553</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.87642672439789</v>
+        <v>12.47904077470549</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.93613724956908</v>
+        <v>16.03255912925754</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.93699643821273</v>
+        <v>-0.2326758266820903</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.59852397262422</v>
+        <v>11.48182303408481</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.88713317169414</v>
+        <v>15.12627119146597</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.01136138956594</v>
+        <v>22.64667683205175</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.75263841206482</v>
+        <v>27.87999861034636</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.16619392920581</v>
+        <v>32.21119216994087</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.08021226281575</v>
+        <v>2.429307740969548</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.77313425574896</v>
+        <v>27.1572926203904</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.15790174729816</v>
+        <v>41.44238540067386</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.19015567290692</v>
+        <v>47.34319293925299</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.1332919564773</v>
+        <v>24.33399120906267</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.10871612861068</v>
+        <v>30.09862012989176</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.8381736687495</v>
+        <v>0.09861089407372603</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.56826545472885</v>
+        <v>26.6466844462336</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.74261994956611</v>
+        <v>40.80708829789113</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.68891249894357</v>
+        <v>47.44650694310236</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.04413573352803</v>
+        <v>16.20783833159911</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.95779523951375</v>
+        <v>23.21550172727257</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.71597382934302</v>
+        <v>1.100096115160991</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.67590861763726</v>
+        <v>23.90291201900586</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.54502769262507</v>
+        <v>33.24224567923872</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.84255150098986</v>
+        <v>43.08045434260997</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.67089449347074</v>
+        <v>11.74573004352516</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.74604173067269</v>
+        <v>39.21739252775529</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.2812009384407</v>
+        <v>40.24280278740437</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.65277924206777</v>
+        <v>40.95229048905792</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.26184600734676</v>
+        <v>8.349275055751423</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.89329717901269</v>
+        <v>30.92265420683142</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.0375886365526</v>
+        <v>11.15453699124317</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>40.94319196189886</v>
+        <v>45.44722857651004</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.11979602304912</v>
+        <v>56.39143637593146</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.92584354369077</v>
+        <v>56.11557380280593</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.76375295562235</v>
+        <v>9.129627527870333</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.51595006419159</v>
+        <v>41.12428063655904</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.3905798433693</v>
+        <v>8.604761962055143</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.2844671045208</v>
+        <v>43.61685525312487</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.4963270529976</v>
+        <v>56.29871613683896</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.41883292493981</v>
+        <v>56.30773494946519</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>21.26229198637233</v>
+        <v>6.674658228386921</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.4167915555803</v>
+        <v>39.0606755574145</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.04453826465203</v>
+        <v>7.088275515994475</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.50169879907493</v>
+        <v>40.68135594520733</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.82364232227916</v>
+        <v>50.37960000666331</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.47534406545334</v>
+        <v>51.91173365347171</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.96245688970616</v>
+        <v>6.031540226576347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.57485202439993</v>
+        <v>34.61513936179527</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.40067454487072</v>
+        <v>31.79902739779757</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.94591173448417</v>
+        <v>33.79553631028038</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.65331359670844</v>
+        <v>7.283836684927358</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.17529402549188</v>
+        <v>32.7633746484226</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.07099451167792</v>
+        <v>37.19114003565424</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.25286129624584</v>
+        <v>41.51162324515261</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.19484589617387</v>
+        <v>51.23345246692374</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>44.13767955330413</v>
+        <v>53.16012930718742</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.19321023802558</v>
+        <v>10.36399114130922</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>43.3320234054263</v>
+        <v>48.12687400255723</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>51.73960297626115</v>
+        <v>62.51173045921882</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>52.39619943430549</v>
+        <v>63.93502933264664</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.63904129155851</v>
+        <v>48.68230389883871</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.6140689347355</v>
+        <v>51.68722572034296</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.23317397627724</v>
+        <v>8.587974407060496</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>43.10503756256379</v>
+        <v>47.92349560556136</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>49.09501127740189</v>
+        <v>62.44247242651601</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.6486249550035</v>
+        <v>64.11773671660566</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.08915328245047</v>
+        <v>37.91700089346715</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.81627940165083</v>
+        <v>42.3020041124181</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.78415896532654</v>
+        <v>9.849205428854471</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>43.36555949810482</v>
+        <v>45.79929947253657</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.80580439816267</v>
+        <v>55.59710515650002</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>47.42413877778173</v>
+        <v>60.38338047686123</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>14.85370057271311</v>
+        <v>4.562828760059528</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.984784879941</v>
+        <v>12.1954669885855</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.95048787702396</v>
+        <v>10.20548055129707</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.09281586296587</v>
+        <v>11.4287798893398</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.4107413099084</v>
+        <v>6.082212734202038</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.6108309909069</v>
+        <v>15.03272459648684</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>14.70542841226887</v>
+        <v>2.146479270468593</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.9101858578821</v>
+        <v>15.80164596044769</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.93944141987993</v>
+        <v>21.42561796244113</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.38004289125083</v>
+        <v>22.0459202451068</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.4152567161211</v>
+        <v>7.894989590007764</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.37906554587676</v>
+        <v>25.47819962256298</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.39527910213546</v>
+        <v>-0.6774775764602694</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.01462435738473</v>
+        <v>13.48448297801401</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.47071038927893</v>
+        <v>20.06098040192865</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.14475483221806</v>
+        <v>21.15749801646092</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.29240202192753</v>
+        <v>4.479719233908096</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.88885500127812</v>
+        <v>22.00113693589807</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.02342041929782</v>
+        <v>-2.177203056675651</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>14.29395982094099</v>
+        <v>9.716908848755027</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.94095712550732</v>
+        <v>13.47856261178158</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.9071082661081</v>
+        <v>16.15722605864047</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.82481103966422</v>
+        <v>0.9928035559336514</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>15.9950803500427</v>
+        <v>13.94040640348902</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.95562246022389</v>
+        <v>12.75669940751953</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.66626455067667</v>
+        <v>17.06245123931954</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.28314381162823</v>
+        <v>6.651099769717714</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.48873916428998</v>
+        <v>17.26371062492258</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.51351938909353</v>
+        <v>19.04845586733249</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.89080649340818</v>
+        <v>25.9165319831733</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.43010401650243</v>
+        <v>30.25653346430239</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.76573769846529</v>
+        <v>35.71586746524508</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.06821479190426</v>
+        <v>13.77561735292059</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.84974878585327</v>
+        <v>35.86938806642698</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.08818084294833</v>
+        <v>46.46738726938952</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>45.51403436663955</v>
+        <v>52.17367162505127</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.94999253685623</v>
+        <v>26.05677251349441</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.00291664008657</v>
+        <v>33.06743838208073</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.54755768534556</v>
+        <v>11.54896129302674</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.23307920252134</v>
+        <v>34.75843121736772</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.02156999492599</v>
+        <v>45.03489272515753</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.50593262922255</v>
+        <v>51.71044390109914</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>14.8018954471414</v>
+        <v>13.41890109267938</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>20.4187972897023</v>
+        <v>21.37739482082259</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.36424705668212</v>
+        <v>8.35389563778536</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.29330290698569</v>
+        <v>27.19921615347948</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.49725448273545</v>
+        <v>32.56969688314769</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.67009484938553</v>
+        <v>42.16977219056672</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.27412885063649</v>
+        <v>-1.896731186526075</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.55267982232086</v>
+        <v>12.46050803014994</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.51732668337599</v>
+        <v>8.86655381763434</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.40010399027001</v>
+        <v>9.359838673623056</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.74509435401904</v>
+        <v>10.32483208104378</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.08294803819807</v>
+        <v>28.41547542431643</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.946786550368611</v>
+        <v>-3.338602225317707</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.14274391458348</v>
+        <v>17.5602426720444</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.12101525016039</v>
+        <v>21.64888018431619</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.33515032221075</v>
+        <v>21.26703444076549</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>20.39463396248195</v>
+        <v>9.755567903009053</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.98849938720482</v>
+        <v>37.55649852853646</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>15.05454566590225</v>
+        <v>-4.829300460099077</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>15.51011976653709</v>
+        <v>16.76233887542779</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.67725311607977</v>
+        <v>22.01804629413738</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.36547419738328</v>
+        <v>22.00722959422331</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.17692386919537</v>
+        <v>7.46007348951737</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.59223812400277</v>
+        <v>35.59240341692971</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.24076223461049</v>
+        <v>-3.856636287407351</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.33522427153725</v>
+        <v>15.93922438091826</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>13.29863572865589</v>
+        <v>18.70369109440046</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.0350445593769</v>
+        <v>20.36299372942678</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.98249926993726</v>
+        <v>8.107578414634141</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.0854965310538</v>
+        <v>31.9052781835568</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.03817009658296</v>
+        <v>31.05109524512421</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.46816669683102</v>
+        <v>33.08997333027894</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.11763157662113</v>
+        <v>10.52379521923413</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.5536796854259</v>
+        <v>32.24721863932976</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.09652932911201</v>
+        <v>35.03344645057908</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.30809405659249</v>
+        <v>39.48794415501193</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.64031859427926</v>
+        <v>47.85824079885234</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>41.25461030364038</v>
+        <v>49.97577253840804</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.10450041776375</v>
+        <v>14.02369365158998</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>45.45679010967135</v>
+        <v>48.27873600356918</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.03117530681072</v>
+        <v>60.56924744629482</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>51.77481270252646</v>
+        <v>62.32465275016821</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>39.4503856629607</v>
+        <v>45.27486675657831</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.32719111825368</v>
+        <v>48.44095022660058</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.20257195800133</v>
+        <v>12.16566472833103</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>46.26421166256459</v>
+        <v>47.83573333487092</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.77912150557609</v>
+        <v>60.13794532331571</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.21232064388833</v>
+        <v>62.23401213477337</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.38730615015108</v>
+        <v>36.91972778130709</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.86771136254846</v>
+        <v>41.29943627648828</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.32857809590212</v>
+        <v>13.03364092317022</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.18802134621397</v>
+        <v>44.82472990397633</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.69379189797267</v>
+        <v>52.91075414584702</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>49.65178015744311</v>
+        <v>58.06029192010796</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.70385558317417</v>
+        <v>6.856738269843191</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>20.12850869136134</v>
+        <v>16.3009449319676</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.91602418885433</v>
+        <v>15.46455981077526</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.12703607581155</v>
+        <v>16.57478684281313</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.82854821234254</v>
+        <v>4.272199243816139</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.96018750162717</v>
+        <v>11.57881877321354</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>15.67881358925809</v>
+        <v>4.316050512617391</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.01938357229758</v>
+        <v>19.37854559760328</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.27793073821989</v>
+        <v>26.24193661128995</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.20962447044746</v>
+        <v>26.92967129075248</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.09939325527114</v>
+        <v>2.184306597506513</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.83193060185285</v>
+        <v>17.66393802848831</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.85487363411876</v>
+        <v>1.994149302871453</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.8785349318076</v>
+        <v>17.67404949948047</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.34562891423376</v>
+        <v>25.53222772630177</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.20603008494485</v>
+        <v>26.65423696779367</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.15596570763749</v>
+        <v>-0.8609660921002558</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.97564661505823</v>
+        <v>14.81927300504723</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.29195250219048</v>
+        <v>0.7475981163215089</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.33526229246248</v>
+        <v>14.95256408184419</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.53319170959053</v>
+        <v>19.86132066664298</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.83728974866038</v>
+        <v>22.38509949691813</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.10490754823174</v>
+        <v>-0.4681915965331314</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.98370976799336</v>
+        <v>11.47959183896103</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.63253620627052</v>
+        <v>9.885081365887556</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.36561360956534</v>
+        <v>13.71060499050497</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.18060557819074</v>
+        <v>7.173944592243885</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.6469642446361</v>
+        <v>19.79531487243919</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.67132310189234</v>
+        <v>20.75844505209329</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.5456291310542</v>
+        <v>26.00685191703153</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.07565724903032</v>
+        <v>23.13591826931865</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.75723962374587</v>
+        <v>28.08663512191518</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.22621691052067</v>
+        <v>10.63806376686678</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.44900698323855</v>
+        <v>34.26945518613372</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>40.15644332646801</v>
+        <v>44.58928102660792</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>43.4920789904661</v>
+        <v>48.03252540234915</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.90280979982901</v>
+        <v>19.57622759817529</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.91442049221371</v>
+        <v>25.73243611221675</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.32091932185343</v>
+        <v>8.309034644893369</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.78995340822597</v>
+        <v>33.37394220012281</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.93698895514813</v>
+        <v>43.61337997893889</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>39.63348254962195</v>
+        <v>47.51820268680942</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>14.47213263812419</v>
+        <v>11.57749064735228</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.37414109552114</v>
+        <v>18.23560129400951</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.86729191581323</v>
+        <v>7.920907664921579</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.71578485219134</v>
+        <v>29.79218128483836</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.40874174110813</v>
+        <v>35.37184491045382</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.29224018556029</v>
+        <v>41.76344060550769</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.73247852588406</v>
+        <v>1.734461445370972</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.88768192197412</v>
+        <v>6.042981589414307</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.1127538019554</v>
+        <v>3.464941896341504</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>11.8927630718174</v>
+        <v>3.983982723842445</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.22705875236316</v>
+        <v>0.8056275671311646</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.21060520375753</v>
+        <v>4.382075885816185</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>11.28289106908037</v>
+        <v>-1.22420840969605</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.99071645719783</v>
+        <v>7.693835122517708</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.36204874692884</v>
+        <v>11.26288387603207</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>14.55082431373274</v>
+        <v>11.45124548660804</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.92845699508018</v>
+        <v>-2.873066908951952</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.2800544141585</v>
+        <v>7.700376971229058</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.22803353923195</v>
+        <v>-3.14014055157887</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.61188213805499</v>
+        <v>6.305327790200643</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.96696562060503</v>
+        <v>10.62451526460954</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.22670034961377</v>
+        <v>11.21750794406113</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.23898288873718</v>
+        <v>-5.585454532008619</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.84965097899953</v>
+        <v>5.152014369361698</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.81457090639304</v>
+        <v>-3.086578068947819</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>11.83882738152203</v>
+        <v>5.198008059152858</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>12.92236755630782</v>
+        <v>7.50408958847872</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.9868485301761</v>
+        <v>9.294581060525701</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.40186628718698</v>
+        <v>-3.841310016206887</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>11.18750411360804</v>
+        <v>3.747015525518247</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.29577715052157</v>
+        <v>3.639216700793181</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.1259182713049</v>
+        <v>5.177378727206083</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.73920197549791</v>
+        <v>6.111453692329288</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.17199022567337</v>
+        <v>14.39105261148081</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.76587469708327</v>
+        <v>15.29353030760924</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.54087540479738</v>
+        <v>19.02268868242604</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.88533726033631</v>
+        <v>12.81841218126961</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.24602763685047</v>
+        <v>15.23152317291775</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.27809466413051</v>
+        <v>8.814297604247766</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.97949530579386</v>
+        <v>26.58413076716424</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.05412426271484</v>
+        <v>35.95914497356161</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.89362506921315</v>
+        <v>37.92257866769334</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.94122341144627</v>
+        <v>9.539520385240463</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>12.70781964292258</v>
+        <v>13.05192893392878</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.61360368891325</v>
+        <v>6.663874068185631</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.5699801942704</v>
+        <v>25.67559458540264</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.62883672759705</v>
+        <v>34.94335199400172</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.39314740687421</v>
+        <v>37.32355523855921</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.06254380577627</v>
+        <v>4.877117012356855</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.28328114061913</v>
+        <v>8.816964467272836</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.44258855326547</v>
+        <v>6.678911801219936</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.80760559629574</v>
+        <v>23.10756494269727</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.66759913396648</v>
+        <v>28.51236346372864</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.08932846171105</v>
+        <v>33.21254762421199</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.0659076982077</v>
+        <v>13.98990284796116</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.21745296570626</v>
+        <v>26.33285729524154</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.59523528857006</v>
+        <v>24.6657202365011</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.05894401626669</v>
+        <v>26.69019079393237</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.12898566264131</v>
+        <v>9.250278872499354</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.74329588469623</v>
+        <v>19.21138747792516</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.33661038324683</v>
+        <v>14.5559233301462</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>37.70191098297926</v>
+        <v>34.80036327307069</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>41.80131035587415</v>
+        <v>44.23668417298827</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.0290466533622</v>
+        <v>45.60439642727353</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.53070226126131</v>
+        <v>9.144286110916092</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.0495408645803</v>
+        <v>29.61504610923454</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.44082187809175</v>
+        <v>11.94060660730582</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.59092702971699</v>
+        <v>33.22709222434737</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.35745101509355</v>
+        <v>44.07925820969108</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.58041160897092</v>
+        <v>46.00503231721251</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.45765355116438</v>
+        <v>5.857728510255544</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.32775944209518</v>
+        <v>27.02466874882332</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>17.85839362380512</v>
+        <v>7.320335219908475</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.59000250843347</v>
+        <v>26.10699095834558</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.88423745029076</v>
+        <v>32.3337972742406</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.04982263820182</v>
+        <v>36.01519630838566</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.76154443909251</v>
+        <v>5.230070405936349</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.36766103178403</v>
+        <v>22.13777260931064</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.43136987064675</v>
+        <v>15.84341126954041</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.82885674217009</v>
+        <v>19.0940919561619</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.84476033376344</v>
+        <v>9.087682653000787</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.47067236683936</v>
+        <v>22.38653900265881</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.69889596536941</v>
+        <v>23.93183602767975</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.71444927490507</v>
+        <v>29.40394869730005</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.12226867317543</v>
+        <v>36.79785774471824</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.96058751724983</v>
+        <v>40.66279051703335</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.01462435456776</v>
+        <v>15.21816042047814</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.39916889798216</v>
+        <v>42.26202201860661</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.680446754596</v>
+        <v>57.04597273030674</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.72216747862359</v>
+        <v>60.36681705389957</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.53220052805075</v>
+        <v>33.69378497339799</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.1806239191602</v>
+        <v>39.10526500034867</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.92444655211546</v>
+        <v>12.97917309269779</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.41432808903684</v>
+        <v>42.02235946411989</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>49.42997077837043</v>
+        <v>57.03481095630372</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>50.84544986961869</v>
+        <v>61.11761764410478</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.45337575730698</v>
+        <v>21.72032747994716</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.40029632640938</v>
+        <v>28.7610164620686</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.49415416023288</v>
+        <v>11.21527332410862</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.24687694313818</v>
+        <v>36.29904362092879</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.75736576522259</v>
+        <v>44.37503646537095</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.15129992930787</v>
+        <v>52.09577251072241</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.30607878377048</v>
+        <v>16.56935738387513</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.4437285272482</v>
+        <v>35.95813601826869</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.17926915854952</v>
+        <v>35.3368717381628</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.18351299376901</v>
+        <v>37.15563816242098</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.12374561348722</v>
+        <v>10.76219675691413</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.63585620390923</v>
+        <v>26.46946893746684</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.24117627066602</v>
+        <v>14.57420055915163</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.99347780155569</v>
+        <v>40.47203758887645</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.84077248777535</v>
+        <v>48.65692654071501</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.6744448028542</v>
+        <v>49.65801622330947</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.54052416471997</v>
+        <v>10.47578048779114</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.62879834900511</v>
+        <v>35.551767587448</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.53079235114922</v>
+        <v>11.97297963798202</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.79355122955283</v>
+        <v>38.39549338795234</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>40.51401006801542</v>
+        <v>47.70213901284724</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.32357623607806</v>
+        <v>49.12487922373345</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.85158648883654</v>
+        <v>7.400218593533069</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.26287051516973</v>
+        <v>32.50883537571194</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.38475195047764</v>
+        <v>12.04484943460043</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>37.53137705994336</v>
+        <v>36.55137185094135</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.68616964435542</v>
+        <v>42.43171659024225</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.08118385463614</v>
+        <v>45.54852979589134</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.50677171311627</v>
+        <v>6.891702459730066</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.21485151038994</v>
+        <v>27.3133846193604</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.97624402071203</v>
+        <v>27.30510134979995</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.84586393546289</v>
+        <v>30.64446306409939</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.5958348352054</v>
+        <v>7.977840531080542</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.32980357694271</v>
+        <v>26.74723824668518</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.55261694503568</v>
+        <v>29.75643775185994</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.48587855827821</v>
+        <v>36.20387097034678</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.79541410222204</v>
+        <v>44.21914657733737</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.68493070707905</v>
+        <v>47.96772782677058</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.10824064616433</v>
+        <v>11.26994996727247</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.86037390564143</v>
+        <v>42.26488077219929</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>47.78745267063088</v>
+        <v>54.61880442840133</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.99540534578499</v>
+        <v>58.63238556417112</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.94015313098033</v>
+        <v>40.46763296053967</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.22282494158718</v>
+        <v>45.54611988820177</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.13435598166893</v>
+        <v>8.727360581658676</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.72480496922552</v>
+        <v>40.89776503694915</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.43215478259661</v>
+        <v>53.12359014424131</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.01107753847203</v>
+        <v>57.73998080033408</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.76670967387465</v>
+        <v>30.04507003063186</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.05903667497391</v>
+        <v>36.52653598210182</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>21.91167480089786</v>
+        <v>8.976394768488074</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.98590072902323</v>
+        <v>36.85484398498291</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.7033429638476</v>
+        <v>44.32858452425474</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>43.90741281745377</v>
+        <v>52.38718308321293</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.67770338413734</v>
+        <v>11.40925418276303</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>39.26371517349596</v>
+        <v>32.324566897567</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.62659943646647</v>
+        <v>30.28023134273101</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.53268130665008</v>
+        <v>31.59091454178226</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.10741712320592</v>
+        <v>11.05356216322582</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.4438394285517</v>
+        <v>28.61166921612594</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.67706716677356</v>
+        <v>10.27698515364373</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.32004877876756</v>
+        <v>39.59623878064455</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.71369717967465</v>
+        <v>49.05383381353226</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.57983060861483</v>
+        <v>49.51698309032251</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.20968663860884</v>
+        <v>9.718373339062241</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.34971537859546</v>
+        <v>38.58623833743233</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.03343889954978</v>
+        <v>7.603557591474996</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.56205521211214</v>
+        <v>38.02620489075011</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.24006539977208</v>
+        <v>49.15041670464102</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.06450361692791</v>
+        <v>50.12887171230589</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.54472046023562</v>
+        <v>6.121061974477186</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.51988958171175</v>
+        <v>35.72376936171403</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>15.93043634352475</v>
+        <v>6.086286701538654</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.49769963840914</v>
+        <v>34.23297212681145</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>41.42901488439425</v>
+        <v>41.18969246233544</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.94041377794391</v>
+        <v>43.92619162945483</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.97122815877932</v>
+        <v>7.30902282267132</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.82778606351376</v>
+        <v>32.35978843717596</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.24353479758758</v>
+        <v>28.04641780629266</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.47703792955339</v>
+        <v>31.32247678472979</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.93263403600453</v>
+        <v>6.642491355006012</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.78518706806691</v>
+        <v>26.56496040421383</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.58385604053976</v>
+        <v>30.85207612734026</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.97748732458003</v>
+        <v>36.73007190571429</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.22284222622651</v>
+        <v>48.88820732953528</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.52439388835071</v>
+        <v>52.57112064977231</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.32953368551936</v>
+        <v>9.747665795183911</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.12860262444804</v>
+        <v>44.14698966510521</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.19460409691179</v>
+        <v>61.39743152053249</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.14794182130106</v>
+        <v>64.68674011357602</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.15806237706032</v>
+        <v>45.34030642458767</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.56914648900896</v>
+        <v>50.55466877902499</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.89200500825961</v>
+        <v>7.046849404161989</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.05652187068711</v>
+        <v>43.45013347949205</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.67350036664025</v>
+        <v>60.82697105318542</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.54565517143526</v>
+        <v>64.80550084165617</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.09104384231811</v>
+        <v>34.80709008208612</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.05652205063618</v>
+        <v>41.78037606008392</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.24385137536643</v>
+        <v>8.360493659776985</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.57733317431106</v>
+        <v>40.58834393164381</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.64371785335682</v>
+        <v>51.68176442000475</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>46.33019138115934</v>
+        <v>59.57792786638399</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.73148545739697</v>
+        <v>15.05917758896782</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.59057435096698</v>
+        <v>32.0705333302245</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.4476756769636</v>
+        <v>31.52141435753977</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.13717542272147</v>
+        <v>32.44863058856161</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.8141466826061</v>
+        <v>16.29031171935886</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.62364650458811</v>
+        <v>30.05099366986767</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.84791192027222</v>
+        <v>14.60311207446719</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.4330250024589</v>
+        <v>39.85602812063916</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.23036988228353</v>
+        <v>49.91857212104203</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.97267857077654</v>
+        <v>50.20042964762339</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.17464933239744</v>
+        <v>15.03423202943526</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>37.75029309006902</v>
+        <v>39.24563111449923</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.41649570204991</v>
+        <v>12.63982662430434</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.34702056008365</v>
+        <v>39.07610694503791</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>46.06204041079821</v>
+        <v>50.40818046083321</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>46.96145277970898</v>
+        <v>51.2183659554484</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>23.4785453917896</v>
+        <v>11.93704198920574</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.03403019467287</v>
+        <v>36.94618163077457</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>17.29528626714123</v>
+        <v>11.1218586195832</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.70147996909999</v>
+        <v>35.1430679368715</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.08065575498972</v>
+        <v>42.33588854928585</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.90467312114656</v>
+        <v>44.64401546260236</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.53727622505801</v>
+        <v>13.34063924279146</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.24074767742848</v>
+        <v>34.36895097952451</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.64877127901167</v>
+        <v>30.23093841575076</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.97820515098615</v>
+        <v>34.06627335804366</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.14160167933297</v>
+        <v>11.08485045041953</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.67319930128167</v>
+        <v>27.06437678170773</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.20805965555276</v>
+        <v>32.97530430947955</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.46089137864464</v>
+        <v>38.58970990570458</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.65449013371598</v>
+        <v>49.6904603495754</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.83632012312766</v>
+        <v>54.18202306558467</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.41940155339875</v>
+        <v>15.19774219388477</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.13283556000494</v>
+        <v>44.50282080105409</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.19681186641597</v>
+        <v>62.99808830613185</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.08776039106148</v>
+        <v>66.48306608200789</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.37478609460395</v>
+        <v>46.82589154558283</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.61443919908388</v>
+        <v>52.75075803539811</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.73625558533346</v>
+        <v>13.23160006735762</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.68685696978569</v>
+        <v>44.47672062969346</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>52.3329294801724</v>
+        <v>63.06214946049491</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>52.78977251239674</v>
+        <v>67.25009992834934</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.79874408206103</v>
+        <v>37.53484987933572</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.19967116150092</v>
+        <v>44.9053340981302</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.05619096482481</v>
+        <v>13.7697167301069</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.17416706349485</v>
+        <v>41.24436934913746</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>49.96164820600679</v>
+        <v>53.71057980359107</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>51.32952263063648</v>
+        <v>61.44907609207982</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.20821320055197</v>
+        <v>8.895881189505268</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.2420394732311</v>
+        <v>29.23327566411239</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.18195047485363</v>
+        <v>27.20118501696471</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.84212212619154</v>
+        <v>29.11770609661037</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.30338381520586</v>
+        <v>7.314903649267698</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.53612434044355</v>
+        <v>24.7284117764918</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.60244486574675</v>
+        <v>9.764905067251114</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.85924368095364</v>
+        <v>39.03630647173743</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.63996468625005</v>
+        <v>47.06889654341265</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.24997230298759</v>
+        <v>47.79252226276816</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.34973288413936</v>
+        <v>8.247768819998427</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.56611711326954</v>
+        <v>37.02747642768507</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.10968179966451</v>
+        <v>7.448452093070397</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.24077010951207</v>
+        <v>37.49528666636781</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>40.47155872916084</v>
+        <v>47.24111783567288</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.24693142547777</v>
+        <v>48.42670260294193</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.69843576257083</v>
+        <v>5.346568545551197</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.7303094255214</v>
+        <v>34.43814318254112</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>17.04850001068189</v>
+        <v>5.298368856159225</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.00616318508222</v>
+        <v>31.84299812234303</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.2227711713829</v>
+        <v>38.46676229780671</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.80631966181945</v>
+        <v>41.96577092131972</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.96849529052903</v>
+        <v>4.068553213545407</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.39329962832809</v>
+        <v>27.51339654408273</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.14906184985315</v>
+        <v>23.52988157918061</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.6448981455813</v>
+        <v>25.70334220210834</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.07592950229481</v>
+        <v>5.337543547050291</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.48480472240004</v>
+        <v>23.66305919251878</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.11535551503844</v>
+        <v>25.62620963764719</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.72489867753021</v>
+        <v>31.42732850735586</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.80200626212899</v>
+        <v>44.72274321258832</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.05894666975996</v>
+        <v>46.84731556741971</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.99313886983007</v>
+        <v>10.13656536678204</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.85217368543587</v>
+        <v>43.33235749452865</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.60237773264382</v>
+        <v>55.46029070267911</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.26496578780401</v>
+        <v>58.47509421434442</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.82823717663944</v>
+        <v>41.65545411628782</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.53959978815326</v>
+        <v>45.24685510362605</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.75796557778586</v>
+        <v>7.663382450795002</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.24134234716435</v>
+        <v>42.42897298671448</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.89956568940796</v>
+        <v>54.55547421997726</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.37383527133967</v>
+        <v>58.32442725213866</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.23890432225665</v>
+        <v>29.10778286059575</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.89854355521661</v>
+        <v>34.76833147616724</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.32271956359165</v>
+        <v>6.246439624831677</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.47762955448405</v>
+        <v>35.17912786053553</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.72818295531799</v>
+        <v>42.46123689502478</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.54186285223845</v>
+        <v>50.48331101309517</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>17.64159796634513</v>
+        <v>6.423483024718735</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.33314709665546</v>
+        <v>15.66247551577933</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.52468865184292</v>
+        <v>15.19621253574681</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.55396993112032</v>
+        <v>16.23289784196011</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.37522332987638</v>
+        <v>8.772482918324027</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.29688726713072</v>
+        <v>19.26419225070099</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.9006246566595</v>
+        <v>4.80708696978401</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.20477951780952</v>
+        <v>20.54103164387075</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.631420605687</v>
+        <v>27.97244607169585</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.89341346478979</v>
+        <v>28.46055168626899</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.13289170694765</v>
+        <v>10.32853043345749</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.94826088816281</v>
+        <v>30.30829582020516</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.16982840945017</v>
+        <v>2.135496313412695</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.27432864727</v>
+        <v>18.65675143396924</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.28610383756874</v>
+        <v>27.08115525430222</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.78467620466542</v>
+        <v>28.04755547719866</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>18.92075537235953</v>
+        <v>7.279452792756953</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.34051103816715</v>
+        <v>27.62277282039667</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>13.94049933635331</v>
+        <v>1.038149103828989</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.42461069215752</v>
+        <v>15.50052291105076</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.61183875082751</v>
+        <v>21.91104515629425</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.54427537175281</v>
+        <v>24.38371896679168</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.79790182956877</v>
+        <v>7.232546227322612</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.19643015211927</v>
+        <v>23.22898328811964</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.52738358146456</v>
+        <v>17.66239835264193</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.21366194451635</v>
+        <v>21.97321611687562</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.37093499592315</v>
+        <v>6.713546608340096</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.19659966722453</v>
+        <v>19.34725773586287</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.01686625484124</v>
+        <v>20.23331720967125</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.2486961132843</v>
+        <v>26.45327354209292</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.44714467254688</v>
+        <v>36.63656831061732</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.55521860325535</v>
+        <v>41.89683336426664</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.85424535090599</v>
+        <v>14.04263351887231</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>42.72268990584354</v>
+        <v>39.20341945977733</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.55139054425744</v>
+        <v>50.31216966409016</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>49.08344739141239</v>
+        <v>55.02564447311203</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>27.54566870961736</v>
+        <v>33.25339639226</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.63891716466829</v>
+        <v>40.04860864758869</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.9192911611652</v>
+        <v>11.67104244808759</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.27125611246232</v>
+        <v>38.45478160418472</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.43014412866079</v>
+        <v>49.36562750452919</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>43.34278609431029</v>
+        <v>54.93488420377353</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>24.26463953400461</v>
+        <v>24.09345180106206</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.64905876978229</v>
+        <v>32.28084024641024</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.46677908076496</v>
+        <v>9.23882914586753</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.71509869114561</v>
+        <v>31.64928200756763</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.67408179941678</v>
+        <v>37.31290090129928</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.10370141987013</v>
+        <v>46.20432966127025</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>15.07957764140168</v>
+        <v>8.669594104220717</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.00657453004034</v>
+        <v>23.09083062013389</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.85350110911004</v>
+        <v>22.14282251075772</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.54911500166751</v>
+        <v>23.35086645033436</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>23.2984176273546</v>
+        <v>10.10698759852599</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.87755793381833</v>
+        <v>22.00972480431962</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.45291339253001</v>
+        <v>8.406967820537051</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.11906438977067</v>
+        <v>30.95044900776904</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.4135296183896</v>
+        <v>40.1843350560366</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.20677409807074</v>
+        <v>40.84533273609733</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>19.4656191832996</v>
+        <v>9.058473926838449</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.95039844905448</v>
+        <v>31.36509721944298</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.33127680241303</v>
+        <v>6.745536769411981</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>32.35797871208624</v>
+        <v>30.50954879182224</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>34.64962852094038</v>
+        <v>40.90221575659363</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.89809871004982</v>
+        <v>42.10161436428567</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.0675082825025</v>
+        <v>6.181072022263997</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.04768106855402</v>
+        <v>29.30513467727934</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>18.26114490550847</v>
+        <v>4.990741330923395</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.1772116498699</v>
+        <v>26.30932731259532</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.40817084315308</v>
+        <v>32.81544775742181</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.25161871025503</v>
+        <v>35.4802908058839</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.77213685532512</v>
+        <v>7.494249064486333</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>27.80691608702998</v>
+        <v>26.54928073654623</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.45774037062639</v>
+        <v>20.27643039242777</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.11446356826682</v>
+        <v>25.21302194522952</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>18.90387305557007</v>
+        <v>4.539226807475792</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>20.14718075173268</v>
+        <v>18.69710168123758</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.03461950045712</v>
+        <v>22.21897499242588</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>20.38565561606998</v>
+        <v>28.67722025147845</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.26931625976322</v>
+        <v>39.33269176265455</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.16425814191238</v>
+        <v>45.15237498161352</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.49642334546914</v>
+        <v>9.165973254279198</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.77969820313334</v>
+        <v>36.64816969077583</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>41.83705505805801</v>
+        <v>52.3957368556367</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>44.76339322273654</v>
+        <v>56.95072896983397</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.9504388761332</v>
+        <v>36.65818415004307</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.9841204109873</v>
+        <v>43.93999157297549</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>21.70262054279958</v>
+        <v>7.423327368587209</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.45476172249066</v>
+        <v>36.88984998744341</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.58500829298028</v>
+        <v>52.70393561612885</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>44.19163138781477</v>
+        <v>57.98907915509129</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.64178516395417</v>
+        <v>27.64572250766464</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.66871967318185</v>
+        <v>36.29985543829439</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>20.31079578898557</v>
+        <v>7.488330088436047</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.318832636442</v>
+        <v>33.06389708488605</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.92295602076269</v>
+        <v>42.91459087994325</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>39.35713777460857</v>
+        <v>51.7035861828334</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>23.47558746393126</v>
+        <v>14.6126202003159</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>38.67746671304951</v>
+        <v>36.72549104171529</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.02031092468339</v>
+        <v>38.86044391574405</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.64323986786189</v>
+        <v>39.1824363945865</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>23.37959775104261</v>
+        <v>11.24016586981062</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.86400135750693</v>
+        <v>29.49679205864868</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.0488180894784</v>
+        <v>12.42100196781378</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.25717705887848</v>
+        <v>41.40840204465218</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>44.80152428507756</v>
+        <v>53.66747216545581</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>44.43822332187054</v>
+        <v>53.10047739000123</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.57163901714773</v>
+        <v>10.98379120843508</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.8205725186166</v>
+        <v>38.57639093513421</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>19.61719677617304</v>
+        <v>9.92407094089792</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>36.57091349151836</v>
+        <v>39.77676645032337</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>43.90027514555063</v>
+        <v>53.6070360029844</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>44.05660393308149</v>
+        <v>53.35713939678991</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>21.89471966825803</v>
+        <v>8.685535290797667</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.43910720951282</v>
+        <v>36.76696484323164</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>16.6904876338138</v>
+        <v>8.709454629720078</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.50501205231684</v>
+        <v>37.03515462727572</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.48539852916045</v>
+        <v>47.54282917614501</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.19266096260547</v>
+        <v>48.57638569536187</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.23502423034357</v>
+        <v>9.12387579955255</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.83679305318709</v>
+        <v>33.83934180026313</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.2115136582733</v>
+        <v>31.84760441925459</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.05365636878938</v>
+        <v>33.68878390018503</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>22.32582967527689</v>
+        <v>7.658368927654564</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.62773012922111</v>
+        <v>28.40641935343357</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.65012229030546</v>
+        <v>34.14722823407764</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>33.44940175256531</v>
+        <v>38.488300499453</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>43.11940234703643</v>
+        <v>50.10135870481822</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>43.09303634645168</v>
+        <v>52.0616999821079</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>22.87953579553172</v>
+        <v>12.00982886448579</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>41.86128725942047</v>
+        <v>45.32365979680164</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>51.73757316886634</v>
+        <v>61.56318522170565</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>51.30443583298369</v>
+        <v>63.20463519431465</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>41.83994458013505</v>
+        <v>47.7661368645659</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>42.73193124141973</v>
+        <v>50.86635567676963</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.82204332636068</v>
+        <v>10.62144579013836</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.90860546209439</v>
+        <v>45.61377404293485</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>48.47768455303539</v>
+        <v>61.76068109499295</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.92127679930343</v>
+        <v>63.80272288446682</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>36.70937803187945</v>
+        <v>38.84159555707004</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>37.5894305743989</v>
+        <v>43.0384671555728</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>22.02255452251812</v>
+        <v>10.50226756474379</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.22208820791224</v>
+        <v>41.97693120859377</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>44.84807726550939</v>
+        <v>52.83634827725837</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>46.25830845484764</v>
+        <v>58.01271602086564</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>20.45761994695865</v>
+        <v>6.971419727696617</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>27.07056760646765</v>
+        <v>27.18466545503178</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>22.92666220790089</v>
+        <v>26.70238595691774</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>23.99934404723222</v>
+        <v>28.2223152714768</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>17.65975762676857</v>
+        <v>7.211932044148089</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.94825671501306</v>
+        <v>24.5913905914236</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.16560300377998</v>
+        <v>8.923415378617939</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.07094580276073</v>
+        <v>38.04924971294711</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>41.34489675766465</v>
+        <v>46.93082624243555</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>40.844644141493</v>
+        <v>47.29658539978203</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>20.0122225778117</v>
+        <v>8.027571756975011</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.21227791702936</v>
+        <v>36.6646471911345</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>18.62321244742137</v>
+        <v>7.05832753804939</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.00313659429133</v>
+        <v>36.99013763790251</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>40.87789748898478</v>
+        <v>47.45344180126345</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>40.58708245509949</v>
+        <v>48.31973928819858</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>21.20508927357818</v>
+        <v>5.338230442979562</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>36.07276212024547</v>
+        <v>34.34792171984736</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>15.81993896771051</v>
+        <v>4.292110658175041</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.64446105273655</v>
+        <v>30.83329490819263</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>35.34637858957124</v>
+        <v>38.83792549660051</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>37.92203510238474</v>
+        <v>41.95589274394263</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>18.01780765172551</v>
+        <v>4.275862556492207</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>28.3341306550345</v>
+        <v>27.76212794180246</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.30065457791627</v>
+        <v>24.0768990141761</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.29705656936586</v>
+        <v>26.63298544566074</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>22.5213227528967</v>
+        <v>4.61204819538165</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>27.25195247109076</v>
+        <v>22.38400189031422</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>25.00126661921108</v>
+        <v>24.4746058993528</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>27.43346637551174</v>
+        <v>30.45517710439954</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.39318873001187</v>
+        <v>44.49610605431005</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.22399251823263</v>
+        <v>47.03007145883662</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>22.79547787415005</v>
+        <v>9.309910826181174</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>42.40554210657841</v>
+        <v>41.87521404730613</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>45.08000787506981</v>
+        <v>53.67719245233476</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.12669662182597</v>
+        <v>56.95978564639294</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>36.76389406983194</v>
+        <v>41.63137567466902</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>38.38491717092369</v>
+        <v>45.58187071712648</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>22.06457975738016</v>
+        <v>6.978761724521959</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>38.73621125948556</v>
+        <v>41.14722745108247</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>42.2253598517849</v>
+        <v>52.87754650489666</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>45.01825603255175</v>
+        <v>56.9253004844899</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>28.34235180843591</v>
+        <v>29.84823159274783</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>32.61937460413677</v>
+        <v>35.82156865868492</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>20.23761185835062</v>
+        <v>5.62078888967703</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.49029519407112</v>
+        <v>33.97772208888567</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>32.75052086396212</v>
+        <v>41.17351356109288</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.05573459472855</v>
+        <v>49.48504699667672</v>
       </c>
     </row>
   </sheetData>
